--- a/left_collar_Data.xlsx
+++ b/left_collar_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440.4359436035156</v>
+        <v>354.776123046875</v>
       </c>
       <c r="C2" t="n">
-        <v>440.0938720703125</v>
+        <v>352.7459106445312</v>
       </c>
       <c r="D2" t="n">
-        <v>440.0836791992188</v>
+        <v>351.6855163574219</v>
       </c>
       <c r="E2" t="n">
-        <v>440.3237915039062</v>
+        <v>351.25927734375</v>
       </c>
       <c r="F2" t="n">
-        <v>440.652587890625</v>
+        <v>351.243408203125</v>
       </c>
       <c r="G2" t="n">
-        <v>441.138671875</v>
+        <v>351.3477172851562</v>
       </c>
       <c r="H2" t="n">
-        <v>441.4270629882812</v>
+        <v>351.4615173339844</v>
       </c>
       <c r="I2" t="n">
-        <v>441.4789123535156</v>
+        <v>351.6132202148438</v>
       </c>
       <c r="J2" t="n">
-        <v>441.2692260742188</v>
+        <v>351.7860412597656</v>
       </c>
       <c r="K2" t="n">
-        <v>440.678466796875</v>
+        <v>351.9355773925781</v>
       </c>
       <c r="L2" t="n">
-        <v>440.1696472167969</v>
+        <v>352.0646667480469</v>
       </c>
       <c r="M2" t="n">
-        <v>439.6194152832031</v>
+        <v>352.1881713867188</v>
       </c>
       <c r="N2" t="n">
-        <v>439.0938720703125</v>
+        <v>352.22216796875</v>
       </c>
       <c r="O2" t="n">
-        <v>438.5494384765625</v>
+        <v>352.2327270507812</v>
       </c>
       <c r="P2" t="n">
-        <v>438.1327514648438</v>
+        <v>352.23583984375</v>
       </c>
       <c r="Q2" t="n">
-        <v>437.1246032714844</v>
+        <v>352.2370910644531</v>
       </c>
       <c r="R2" t="n">
-        <v>435.6464233398438</v>
+        <v>352.2377319335938</v>
       </c>
       <c r="S2" t="n">
-        <v>433.8987731933594</v>
+        <v>352.2381896972656</v>
       </c>
       <c r="T2" t="n">
-        <v>432.2073669433594</v>
+        <v>352.23779296875</v>
       </c>
       <c r="U2" t="n">
-        <v>430.504150390625</v>
+        <v>352.2385864257812</v>
       </c>
       <c r="V2" t="n">
-        <v>428.7738037109375</v>
+        <v>352.2389526367188</v>
       </c>
       <c r="W2" t="n">
-        <v>427.2056884765625</v>
+        <v>352.2400207519531</v>
       </c>
       <c r="X2" t="n">
-        <v>425.3792114257812</v>
+        <v>352.2412414550781</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.9403686523438</v>
+        <v>352.2424926757812</v>
       </c>
       <c r="Z2" t="n">
-        <v>423.2479858398438</v>
+        <v>352.2441101074219</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.6610717773438</v>
+        <v>352.2457275390625</v>
       </c>
       <c r="AB2" t="n">
-        <v>422.2619018554688</v>
+        <v>352.2471923828125</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.6381225585938</v>
+        <v>352.2489013671875</v>
       </c>
       <c r="AD2" t="n">
-        <v>420.7312622070312</v>
+        <v>352.2506408691406</v>
       </c>
       <c r="AE2" t="n">
-        <v>419.5464477539062</v>
+        <v>352.2513427734375</v>
       </c>
       <c r="AF2" t="n">
-        <v>418.2574157714844</v>
+        <v>352.251953125</v>
       </c>
       <c r="AG2" t="n">
-        <v>417.6519470214844</v>
+        <v>352.2526550292969</v>
       </c>
       <c r="AH2" t="n">
-        <v>417.5039367675781</v>
+        <v>352.2532958984375</v>
       </c>
       <c r="AI2" t="n">
-        <v>417.6495971679688</v>
+        <v>352.2538452148438</v>
       </c>
       <c r="AJ2" t="n">
-        <v>417.8466491699219</v>
+        <v>352.25439453125</v>
       </c>
       <c r="AK2" t="n">
-        <v>418.1594848632812</v>
+        <v>352.2544555664062</v>
       </c>
       <c r="AL2" t="n">
-        <v>418.488037109375</v>
+        <v>352.2542724609375</v>
       </c>
       <c r="AM2" t="n">
-        <v>418.846923828125</v>
+        <v>352.2511291503906</v>
       </c>
       <c r="AN2" t="n">
-        <v>419.0872802734375</v>
+        <v>352.2491760253906</v>
       </c>
       <c r="AO2" t="n">
-        <v>419.1372680664062</v>
+        <v>352.2469787597656</v>
       </c>
       <c r="AP2" t="n">
-        <v>419.11767578125</v>
+        <v>352.2493896484375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>419.1347961425781</v>
+        <v>353.1055297851562</v>
       </c>
       <c r="AR2" t="n">
-        <v>419.2742614746094</v>
+        <v>364.6217651367188</v>
       </c>
       <c r="AS2" t="n">
-        <v>419.4451293945312</v>
+        <v>370.9256591796875</v>
       </c>
       <c r="AT2" t="n">
-        <v>419.6654052734375</v>
+        <v>383.5429382324219</v>
       </c>
       <c r="AU2" t="n">
-        <v>419.8674011230469</v>
+        <v>389.5974426269531</v>
       </c>
       <c r="AV2" t="n">
-        <v>420.0761413574219</v>
+        <v>394.4390563964844</v>
       </c>
       <c r="AW2" t="n">
-        <v>420.263671875</v>
+        <v>399.8763427734375</v>
       </c>
       <c r="AX2" t="n">
-        <v>420.480712890625</v>
+        <v>406.3351440429688</v>
       </c>
       <c r="AY2" t="n">
-        <v>420.6298217773438</v>
+        <v>412.6824340820312</v>
       </c>
       <c r="AZ2" t="n">
-        <v>420.7217712402344</v>
+        <v>418.2780456542969</v>
       </c>
       <c r="BA2" t="n">
-        <v>420.8067626953125</v>
+        <v>422.7349243164062</v>
       </c>
       <c r="BB2" t="n">
-        <v>420.8351440429688</v>
+        <v>427.8653564453125</v>
       </c>
       <c r="BC2" t="n">
-        <v>420.8208923339844</v>
+        <v>432.6830749511719</v>
       </c>
       <c r="BD2" t="n">
-        <v>420.7854614257812</v>
+        <v>436.4465026855469</v>
       </c>
       <c r="BE2" t="n">
-        <v>420.6067199707031</v>
+        <v>440.9082641601562</v>
       </c>
       <c r="BF2" t="n">
-        <v>419.6137084960938</v>
+        <v>442.8782653808594</v>
       </c>
       <c r="BG2" t="n">
-        <v>417.8726806640625</v>
+        <v>443.0508728027344</v>
       </c>
       <c r="BH2" t="n">
-        <v>415.6333923339844</v>
+        <v>440.4017639160156</v>
       </c>
       <c r="BI2" t="n">
-        <v>413.4525756835938</v>
+        <v>437.5767822265625</v>
       </c>
       <c r="BJ2" t="n">
-        <v>411.0437316894531</v>
+        <v>422.5805053710938</v>
       </c>
       <c r="BK2" t="n">
-        <v>408.520263671875</v>
+        <v>410.114013671875</v>
       </c>
       <c r="BL2" t="n">
-        <v>406.0332641601562</v>
+        <v>401.4432373046875</v>
       </c>
       <c r="BM2" t="n">
-        <v>403.4943237304688</v>
+        <v>383.6514587402344</v>
       </c>
       <c r="BN2" t="n">
-        <v>400.8770141601562</v>
+        <v>373.8707275390625</v>
       </c>
       <c r="BO2" t="n">
-        <v>398.5608520507812</v>
+        <v>364.9746398925781</v>
       </c>
       <c r="BP2" t="n">
-        <v>395.9393615722656</v>
+        <v>356.4341430664062</v>
       </c>
       <c r="BQ2" t="n">
-        <v>393.0049438476562</v>
+        <v>348.0831298828125</v>
       </c>
       <c r="BR2" t="n">
-        <v>389.7314147949219</v>
+        <v>339.432373046875</v>
       </c>
       <c r="BS2" t="n">
-        <v>384.5325012207031</v>
+        <v>330.2909545898438</v>
       </c>
       <c r="BT2" t="n">
-        <v>379.5304565429688</v>
+        <v>320.3232421875</v>
       </c>
       <c r="BU2" t="n">
-        <v>374.8580322265625</v>
+        <v>310.436279296875</v>
       </c>
       <c r="BV2" t="n">
-        <v>371.1069946289062</v>
+        <v>301.2608642578125</v>
       </c>
       <c r="BW2" t="n">
-        <v>367.38623046875</v>
+        <v>292.9359130859375</v>
       </c>
       <c r="BX2" t="n">
-        <v>363.4413146972656</v>
+        <v>285.396240234375</v>
       </c>
       <c r="BY2" t="n">
-        <v>357.96875</v>
+        <v>278.7720031738281</v>
       </c>
       <c r="BZ2" t="n">
-        <v>347.9989013671875</v>
+        <v>272.5523986816406</v>
       </c>
       <c r="CA2" t="n">
-        <v>337.7780456542969</v>
+        <v>266.5399475097656</v>
       </c>
       <c r="CB2" t="n">
-        <v>327.9256896972656</v>
+        <v>261.2744140625</v>
       </c>
       <c r="CC2" t="n">
-        <v>323.7239990234375</v>
+        <v>256.7638244628906</v>
       </c>
       <c r="CD2" t="n">
-        <v>319.8113098144531</v>
+        <v>253.1204528808594</v>
       </c>
       <c r="CE2" t="n">
-        <v>315.816650390625</v>
+        <v>250.198974609375</v>
       </c>
       <c r="CF2" t="n">
-        <v>308.5912170410156</v>
+        <v>247.9834747314453</v>
       </c>
       <c r="CG2" t="n">
-        <v>305.1406860351562</v>
+        <v>246.6178131103516</v>
       </c>
       <c r="CH2" t="n">
-        <v>302.1363830566406</v>
+        <v>246.1305847167969</v>
       </c>
       <c r="CI2" t="n">
-        <v>299.355712890625</v>
+        <v>246.3993682861328</v>
       </c>
       <c r="CJ2" t="n">
-        <v>297.1225891113281</v>
+        <v>248.0825653076172</v>
       </c>
       <c r="CK2" t="n">
-        <v>295.4220275878906</v>
+        <v>251.229736328125</v>
       </c>
       <c r="CL2" t="n">
-        <v>292.7791748046875</v>
+        <v>255.7745056152344</v>
       </c>
       <c r="CM2" t="n">
-        <v>292.0587768554688</v>
+        <v>261.5281066894531</v>
       </c>
       <c r="CN2" t="n">
-        <v>291.5360412597656</v>
+        <v>268.0941162109375</v>
       </c>
       <c r="CO2" t="n">
-        <v>290.6448059082031</v>
+        <v>274.8761901855469</v>
       </c>
       <c r="CP2" t="n">
-        <v>290.3114624023438</v>
+        <v>281.9470825195312</v>
       </c>
       <c r="CQ2" t="n">
-        <v>289.9187927246094</v>
+        <v>292.7419128417969</v>
       </c>
       <c r="CR2" t="n">
-        <v>289.5415954589844</v>
+        <v>310.0544128417969</v>
       </c>
       <c r="CS2" t="n">
-        <v>289.0826416015625</v>
+        <v>316.1610717773438</v>
       </c>
       <c r="CT2" t="n">
-        <v>287.2248840332031</v>
+        <v>323.7962036132812</v>
       </c>
       <c r="CU2" t="n">
-        <v>285.8502502441406</v>
+        <v>332.5501708984375</v>
       </c>
       <c r="CV2" t="n">
-        <v>284.6881103515625</v>
+        <v>341.8785400390625</v>
       </c>
       <c r="CW2" t="n">
-        <v>283.4882202148438</v>
+        <v>349.8691101074219</v>
       </c>
       <c r="CX2" t="n">
-        <v>283.3756408691406</v>
+        <v>355.8790588378906</v>
       </c>
       <c r="CY2" t="n">
-        <v>283.3373413085938</v>
+        <v>361.9752502441406</v>
       </c>
       <c r="CZ2" t="n">
-        <v>283.3380126953125</v>
+        <v>367.7807006835938</v>
       </c>
       <c r="DA2" t="n">
-        <v>283.3578186035156</v>
+        <v>374.1140747070312</v>
       </c>
       <c r="DB2" t="n">
-        <v>283.4320678710938</v>
+        <v>386.1073608398438</v>
       </c>
       <c r="DC2" t="n">
-        <v>284.792724609375</v>
+        <v>390.510986328125</v>
       </c>
       <c r="DD2" t="n">
-        <v>285.948486328125</v>
+        <v>395.021484375</v>
       </c>
       <c r="DE2" t="n">
-        <v>287.1451721191406</v>
+        <v>398.8941040039062</v>
       </c>
       <c r="DF2" t="n">
-        <v>289.3328552246094</v>
+        <v>402.1140747070312</v>
       </c>
       <c r="DG2" t="n">
-        <v>290.3322143554688</v>
+        <v>404.8919982910156</v>
       </c>
       <c r="DH2" t="n">
-        <v>290.4934997558594</v>
+        <v>408.2734680175781</v>
       </c>
       <c r="DI2" t="n">
-        <v>290.609375</v>
+        <v>409.4061889648438</v>
       </c>
       <c r="DJ2" t="n">
-        <v>290.6309814453125</v>
+        <v>410.3597412109375</v>
       </c>
       <c r="DK2" t="n">
-        <v>290.6455993652344</v>
+        <v>411.181884765625</v>
       </c>
       <c r="DL2" t="n">
-        <v>290.6769104003906</v>
+        <v>411.7933349609375</v>
       </c>
       <c r="DM2" t="n">
-        <v>290.6943664550781</v>
+        <v>410.62158203125</v>
       </c>
       <c r="DN2" t="n">
-        <v>290.8131103515625</v>
+        <v>406.1096496582031</v>
       </c>
       <c r="DO2" t="n">
-        <v>290.9293518066406</v>
+        <v>397.6851806640625</v>
       </c>
       <c r="DP2" t="n">
-        <v>291.1304931640625</v>
+        <v>394.4901123046875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>291.8283996582031</v>
+        <v>385.7497863769531</v>
       </c>
       <c r="DR2" t="n">
-        <v>292.0177001953125</v>
+        <v>381.6586303710938</v>
       </c>
       <c r="DS2" t="n">
-        <v>292.1983642578125</v>
+        <v>378.3948364257812</v>
       </c>
       <c r="DT2" t="n">
-        <v>292.0505065917969</v>
+        <v>372.3619995117188</v>
       </c>
       <c r="DU2" t="n">
-        <v>291.6301879882812</v>
+        <v>369.0711669921875</v>
       </c>
       <c r="DV2" t="n">
-        <v>290.5665283203125</v>
+        <v>365.3921813964844</v>
       </c>
       <c r="DW2" t="n">
-        <v>290.3259887695312</v>
+        <v>358.0328369140625</v>
       </c>
       <c r="DX2" t="n">
-        <v>290.2264709472656</v>
+        <v>354.396728515625</v>
       </c>
       <c r="DY2" t="n">
-        <v>290.1790771484375</v>
+        <v>347.1162109375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>290.1769714355469</v>
+        <v>343.648681640625</v>
       </c>
       <c r="EA2" t="n">
-        <v>290.1783752441406</v>
+        <v>336.496826171875</v>
       </c>
       <c r="EB2" t="n">
-        <v>290.1831970214844</v>
+        <v>327.8500061035156</v>
       </c>
       <c r="EC2" t="n">
-        <v>290.3045654296875</v>
+        <v>323.6160888671875</v>
       </c>
       <c r="ED2" t="n">
-        <v>290.4042053222656</v>
+        <v>317.7348327636719</v>
       </c>
       <c r="EE2" t="n">
-        <v>290.5089111328125</v>
+        <v>316.12060546875</v>
       </c>
       <c r="EF2" t="n">
-        <v>290.721923828125</v>
+        <v>316.3849487304688</v>
       </c>
       <c r="EG2" t="n">
-        <v>290.9194641113281</v>
+        <v>325.5960693359375</v>
       </c>
       <c r="EH2" t="n">
-        <v>291.1041259765625</v>
+        <v>337.8317260742188</v>
       </c>
       <c r="EI2" t="n">
-        <v>291.1966247558594</v>
+        <v>341.74951171875</v>
       </c>
       <c r="EJ2" t="n">
-        <v>291.3052062988281</v>
+        <v>345.0347290039062</v>
       </c>
       <c r="EK2" t="n">
-        <v>291.2921752929688</v>
+        <v>353.4436645507812</v>
       </c>
       <c r="EL2" t="n">
-        <v>291.1511535644531</v>
+        <v>358.8992309570312</v>
       </c>
       <c r="EM2" t="n">
-        <v>290.6230773925781</v>
+        <v>366.1764221191406</v>
       </c>
       <c r="EN2" t="n">
-        <v>290.0278015136719</v>
+        <v>367.803466796875</v>
       </c>
       <c r="EO2" t="n">
-        <v>289.8266296386719</v>
+        <v>369.9595642089844</v>
       </c>
       <c r="EP2" t="n">
-        <v>289.7283935546875</v>
+        <v>370.9777221679688</v>
       </c>
       <c r="EQ2" t="n">
-        <v>289.7126770019531</v>
+        <v>371.6064147949219</v>
       </c>
       <c r="ER2" t="n">
-        <v>289.7278442382812</v>
+        <v>370.678466796875</v>
       </c>
       <c r="ES2" t="n">
-        <v>289.76611328125</v>
+        <v>368.4800720214844</v>
       </c>
       <c r="ET2" t="n">
-        <v>289.7873840332031</v>
+        <v>358.4915466308594</v>
       </c>
       <c r="EU2" t="n">
-        <v>289.8132019042969</v>
+        <v>345.0361328125</v>
       </c>
       <c r="EV2" t="n">
-        <v>289.8074035644531</v>
+        <v>334.552734375</v>
       </c>
       <c r="EW2" t="n">
-        <v>289.6417236328125</v>
+        <v>317.1358337402344</v>
       </c>
       <c r="EX2" t="n">
-        <v>289.2939147949219</v>
+        <v>312.5553894042969</v>
       </c>
       <c r="EY2" t="n">
-        <v>289.0202331542969</v>
+        <v>309.1636352539062</v>
       </c>
       <c r="EZ2" t="n">
-        <v>288.4285583496094</v>
+        <v>302.795654296875</v>
       </c>
       <c r="FA2" t="n">
-        <v>288.1455383300781</v>
+        <v>294.6498107910156</v>
       </c>
       <c r="FB2" t="n">
-        <v>287.8526306152344</v>
+        <v>290.5750122070312</v>
       </c>
       <c r="FC2" t="n">
-        <v>287.3934631347656</v>
+        <v>284.8035888671875</v>
       </c>
       <c r="FD2" t="n">
-        <v>287.2120056152344</v>
+        <v>283.5967712402344</v>
       </c>
       <c r="FE2" t="n">
-        <v>287.0982971191406</v>
+        <v>282.7966613769531</v>
       </c>
       <c r="FF2" t="n">
-        <v>287.039306640625</v>
+        <v>282.5902404785156</v>
       </c>
       <c r="FG2" t="n">
-        <v>286.9241027832031</v>
+        <v>284.7732543945312</v>
       </c>
       <c r="FH2" t="n">
-        <v>287.4296569824219</v>
+        <v>292.156982421875</v>
       </c>
       <c r="FI2" t="n">
-        <v>290.1219482421875</v>
+        <v>297.678955078125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>293.3014221191406</v>
+        <v>306.9906921386719</v>
       </c>
       <c r="FK2" t="n">
-        <v>297.7645874023438</v>
+        <v>324.1082153320312</v>
       </c>
       <c r="FL2" t="n">
-        <v>301.1213684082031</v>
+        <v>329.4227905273438</v>
       </c>
       <c r="FM2" t="n">
-        <v>302.7774658203125</v>
+        <v>340.9721374511719</v>
       </c>
       <c r="FN2" t="n">
-        <v>308.6195068359375</v>
+        <v>355.2725219726562</v>
       </c>
       <c r="FO2" t="n">
-        <v>311.7367248535156</v>
+        <v>361.9519653320312</v>
       </c>
       <c r="FP2" t="n">
-        <v>319.1384887695312</v>
+        <v>367.0992431640625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>330.5176391601562</v>
+        <v>377.0331420898438</v>
       </c>
       <c r="FR2" t="n">
-        <v>334.5967102050781</v>
+        <v>381.7159423828125</v>
       </c>
       <c r="FS2" t="n">
-        <v>346.5037841796875</v>
+        <v>389.895263671875</v>
       </c>
       <c r="FT2" t="n">
-        <v>359.2918395996094</v>
+        <v>396.4261474609375</v>
       </c>
       <c r="FU2" t="n">
-        <v>363.9132690429688</v>
+        <v>400.9095458984375</v>
       </c>
       <c r="FV2" t="n">
-        <v>373.8651123046875</v>
+        <v>402.12060546875</v>
       </c>
       <c r="FW2" t="n">
-        <v>381.5060424804688</v>
+        <v>403.4423828125</v>
       </c>
       <c r="FX2" t="n">
-        <v>389.8359680175781</v>
+        <v>403.3906860351562</v>
       </c>
       <c r="FY2" t="n">
-        <v>393.7011108398438</v>
+        <v>403.095703125</v>
       </c>
       <c r="FZ2" t="n">
-        <v>397.0409851074219</v>
+        <v>402.5817565917969</v>
       </c>
       <c r="GA2" t="n">
-        <v>398.805908203125</v>
+        <v>398.9695739746094</v>
       </c>
       <c r="GB2" t="n">
-        <v>399.5549926757812</v>
+        <v>393.4578247070312</v>
       </c>
       <c r="GC2" t="n">
-        <v>398.0064086914062</v>
+        <v>372.900390625</v>
       </c>
       <c r="GD2" t="n">
-        <v>392.0072631835938</v>
+        <v>360.7680053710938</v>
       </c>
       <c r="GE2" t="n">
-        <v>389.7699584960938</v>
+        <v>340.0858764648438</v>
       </c>
       <c r="GF2" t="n">
-        <v>378.9321899414062</v>
+        <v>325.69970703125</v>
       </c>
       <c r="GG2" t="n">
-        <v>369.3341674804688</v>
+        <v>314.9770812988281</v>
       </c>
       <c r="GH2" t="n">
-        <v>354.9012756347656</v>
+        <v>307.1267700195312</v>
       </c>
       <c r="GI2" t="n">
-        <v>343.1955261230469</v>
+        <v>304.2978210449219</v>
       </c>
       <c r="GJ2" t="n">
-        <v>328.7306518554688</v>
+        <v>302.0249328613281</v>
       </c>
       <c r="GK2" t="n">
-        <v>316.5631103515625</v>
+        <v>298.0816650390625</v>
       </c>
       <c r="GL2" t="n">
-        <v>303.0601806640625</v>
+        <v>296.5686950683594</v>
       </c>
       <c r="GM2" t="n">
-        <v>293.456787109375</v>
+        <v>294.7109985351562</v>
       </c>
       <c r="GN2" t="n">
-        <v>284.4316711425781</v>
+        <v>293.3538208007812</v>
       </c>
       <c r="GO2" t="n">
-        <v>281.3056335449219</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>280.5028076171875</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>279.6652526855469</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>279.1742553710938</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>281.1434936523438</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>294.1246643066406</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>303.99658203125</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>311.6707153320312</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>318.1366577148438</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>321.15087890625</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>339.220458984375</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>353.7435302734375</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>361.4251098632812</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>386.1968994140625</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>410.2105102539062</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>423.3469848632812</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>431.0582275390625</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>438.2803955078125</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>447.4835815429688</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>450.9252319335938</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>454.2624206542969</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>452.5736083984375</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>447.9970703125</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>430.0255126953125</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>419.1658935546875</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>393.4139404296875</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>374.3453369140625</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>359.9525146484375</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>353.86669921875</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>352.4586181640625</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>355.2973937988281</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>361.6666259765625</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>368.3871765136719</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>374.3243408203125</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>376.0250244140625</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>377.8309326171875</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>379.0447387695312</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>382.1056518554688</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>386.0294189453125</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>388.41259765625</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>389.792236328125</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>390.4010620117188</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>390.8413696289062</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>391.9970397949219</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>393.1192626953125</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>393.1411743164062</v>
-      </c>
-      <c r="II2" t="n">
-        <v>392.6014709472656</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>392.383056640625</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>392.624755859375</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>393.010498046875</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>393.1616821289062</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>393.1309509277344</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>393.1188354492188</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>393.1142883300781</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>393.1895751953125</v>
+        <v>292.78271484375</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>293.7638549804688</v>
+        <v>308.0721435546875</v>
       </c>
       <c r="C3" t="n">
-        <v>285.7924194335938</v>
+        <v>303.2886657714844</v>
       </c>
       <c r="D3" t="n">
-        <v>280.1635437011719</v>
+        <v>300.9084777832031</v>
       </c>
       <c r="E3" t="n">
-        <v>276.2784423828125</v>
+        <v>300.1651611328125</v>
       </c>
       <c r="F3" t="n">
-        <v>273.002685546875</v>
+        <v>299.9792785644531</v>
       </c>
       <c r="G3" t="n">
-        <v>270.1351928710938</v>
+        <v>299.974609375</v>
       </c>
       <c r="H3" t="n">
-        <v>267.611572265625</v>
+        <v>299.9944152832031</v>
       </c>
       <c r="I3" t="n">
-        <v>265.2560424804688</v>
+        <v>300.0446166992188</v>
       </c>
       <c r="J3" t="n">
-        <v>263.0303344726562</v>
+        <v>300.0942077636719</v>
       </c>
       <c r="K3" t="n">
-        <v>261.2468872070312</v>
+        <v>300.1430358886719</v>
       </c>
       <c r="L3" t="n">
-        <v>259.9013061523438</v>
+        <v>300.1949462890625</v>
       </c>
       <c r="M3" t="n">
-        <v>258.8219909667969</v>
+        <v>300.25146484375</v>
       </c>
       <c r="N3" t="n">
-        <v>257.571533203125</v>
+        <v>300.3078002929688</v>
       </c>
       <c r="O3" t="n">
-        <v>256.2071228027344</v>
+        <v>300.3654174804688</v>
       </c>
       <c r="P3" t="n">
-        <v>254.9351959228516</v>
+        <v>300.4212646484375</v>
       </c>
       <c r="Q3" t="n">
-        <v>253.8575897216797</v>
+        <v>300.4727783203125</v>
       </c>
       <c r="R3" t="n">
-        <v>252.7331848144531</v>
+        <v>300.5221557617188</v>
       </c>
       <c r="S3" t="n">
-        <v>251.6206207275391</v>
+        <v>300.5704040527344</v>
       </c>
       <c r="T3" t="n">
-        <v>250.5057373046875</v>
+        <v>300.6195678710938</v>
       </c>
       <c r="U3" t="n">
-        <v>249.3101348876953</v>
+        <v>300.6657104492188</v>
       </c>
       <c r="V3" t="n">
-        <v>248.0927734375</v>
+        <v>300.7177124023438</v>
       </c>
       <c r="W3" t="n">
-        <v>246.9356079101562</v>
+        <v>300.7638549804688</v>
       </c>
       <c r="X3" t="n">
-        <v>245.9884643554688</v>
+        <v>300.8174743652344</v>
       </c>
       <c r="Y3" t="n">
-        <v>245.3652496337891</v>
+        <v>300.8691101074219</v>
       </c>
       <c r="Z3" t="n">
-        <v>245.0141448974609</v>
+        <v>300.9186706542969</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.8782196044922</v>
+        <v>300.9686584472656</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.8866577148438</v>
+        <v>301.0171203613281</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.9718627929688</v>
+        <v>301.0632629394531</v>
       </c>
       <c r="AD3" t="n">
-        <v>245.0547485351562</v>
+        <v>301.1089477539062</v>
       </c>
       <c r="AE3" t="n">
-        <v>245.0393218994141</v>
+        <v>301.1584777832031</v>
       </c>
       <c r="AF3" t="n">
-        <v>243.704345703125</v>
+        <v>301.2041320800781</v>
       </c>
       <c r="AG3" t="n">
-        <v>242.0795288085938</v>
+        <v>301.2450866699219</v>
       </c>
       <c r="AH3" t="n">
-        <v>239.6512298583984</v>
+        <v>301.2866821289062</v>
       </c>
       <c r="AI3" t="n">
-        <v>237.9006958007812</v>
+        <v>301.3258361816406</v>
       </c>
       <c r="AJ3" t="n">
-        <v>236.4504699707031</v>
+        <v>301.367431640625</v>
       </c>
       <c r="AK3" t="n">
-        <v>235.0668334960938</v>
+        <v>301.4116821289062</v>
       </c>
       <c r="AL3" t="n">
-        <v>233.7937316894531</v>
+        <v>301.4798583984375</v>
       </c>
       <c r="AM3" t="n">
-        <v>232.7943725585938</v>
+        <v>301.5980224609375</v>
       </c>
       <c r="AN3" t="n">
-        <v>231.8792724609375</v>
+        <v>301.6498107910156</v>
       </c>
       <c r="AO3" t="n">
-        <v>231.2307739257812</v>
+        <v>301.6948852539062</v>
       </c>
       <c r="AP3" t="n">
-        <v>230.8563995361328</v>
+        <v>301.6520080566406</v>
       </c>
       <c r="AQ3" t="n">
-        <v>230.5537109375</v>
+        <v>301.5346984863281</v>
       </c>
       <c r="AR3" t="n">
-        <v>230.2809448242188</v>
+        <v>300.735107421875</v>
       </c>
       <c r="AS3" t="n">
-        <v>229.9879913330078</v>
+        <v>300.2826538085938</v>
       </c>
       <c r="AT3" t="n">
-        <v>229.6661071777344</v>
+        <v>299.354736328125</v>
       </c>
       <c r="AU3" t="n">
-        <v>229.3398132324219</v>
+        <v>298.860595703125</v>
       </c>
       <c r="AV3" t="n">
-        <v>228.9435424804688</v>
+        <v>298.4051818847656</v>
       </c>
       <c r="AW3" t="n">
-        <v>228.4362030029297</v>
+        <v>297.9654541015625</v>
       </c>
       <c r="AX3" t="n">
-        <v>227.9136199951172</v>
+        <v>297.5469970703125</v>
       </c>
       <c r="AY3" t="n">
-        <v>227.3626556396484</v>
+        <v>297.0898742675781</v>
       </c>
       <c r="AZ3" t="n">
-        <v>226.9409332275391</v>
+        <v>296.6133422851562</v>
       </c>
       <c r="BA3" t="n">
-        <v>226.5645904541016</v>
+        <v>296.0952758789062</v>
       </c>
       <c r="BB3" t="n">
-        <v>226.1235504150391</v>
+        <v>295.4403381347656</v>
       </c>
       <c r="BC3" t="n">
-        <v>225.6547546386719</v>
+        <v>294.6879577636719</v>
       </c>
       <c r="BD3" t="n">
-        <v>225.1828918457031</v>
+        <v>293.9972229003906</v>
       </c>
       <c r="BE3" t="n">
-        <v>224.7602386474609</v>
+        <v>293.0699768066406</v>
       </c>
       <c r="BF3" t="n">
-        <v>224.3989410400391</v>
+        <v>292.7955932617188</v>
       </c>
       <c r="BG3" t="n">
-        <v>224.0930023193359</v>
+        <v>292.717529296875</v>
       </c>
       <c r="BH3" t="n">
-        <v>223.8097229003906</v>
+        <v>292.5896911621094</v>
       </c>
       <c r="BI3" t="n">
-        <v>223.5207977294922</v>
+        <v>292.4973754882812</v>
       </c>
       <c r="BJ3" t="n">
-        <v>223.3782806396484</v>
+        <v>293.0103454589844</v>
       </c>
       <c r="BK3" t="n">
-        <v>223.2790679931641</v>
+        <v>294.0043334960938</v>
       </c>
       <c r="BL3" t="n">
-        <v>223.1852111816406</v>
+        <v>294.7514953613281</v>
       </c>
       <c r="BM3" t="n">
-        <v>223.0560913085938</v>
+        <v>296.6427612304688</v>
       </c>
       <c r="BN3" t="n">
-        <v>222.8931427001953</v>
+        <v>297.5148010253906</v>
       </c>
       <c r="BO3" t="n">
-        <v>222.7046966552734</v>
+        <v>298.2003479003906</v>
       </c>
       <c r="BP3" t="n">
-        <v>222.4346160888672</v>
+        <v>299.0987548828125</v>
       </c>
       <c r="BQ3" t="n">
-        <v>222.2195739746094</v>
+        <v>300.2165222167969</v>
       </c>
       <c r="BR3" t="n">
-        <v>222.0957489013672</v>
+        <v>301.1137084960938</v>
       </c>
       <c r="BS3" t="n">
-        <v>221.8381195068359</v>
+        <v>301.6585388183594</v>
       </c>
       <c r="BT3" t="n">
-        <v>221.3304290771484</v>
+        <v>302.17578125</v>
       </c>
       <c r="BU3" t="n">
-        <v>220.5170593261719</v>
+        <v>302.4139404296875</v>
       </c>
       <c r="BV3" t="n">
-        <v>219.6515502929688</v>
+        <v>302.4392700195312</v>
       </c>
       <c r="BW3" t="n">
-        <v>218.9520111083984</v>
+        <v>302.3763427734375</v>
       </c>
       <c r="BX3" t="n">
-        <v>218.177001953125</v>
+        <v>302.3518981933594</v>
       </c>
       <c r="BY3" t="n">
-        <v>217.7024688720703</v>
+        <v>302.2828369140625</v>
       </c>
       <c r="BZ3" t="n">
-        <v>216.4492034912109</v>
+        <v>302.2978515625</v>
       </c>
       <c r="CA3" t="n">
-        <v>215.2285461425781</v>
+        <v>302.4518737792969</v>
       </c>
       <c r="CB3" t="n">
-        <v>214.3388061523438</v>
+        <v>302.6177978515625</v>
       </c>
       <c r="CC3" t="n">
-        <v>213.8934783935547</v>
+        <v>302.7442321777344</v>
       </c>
       <c r="CD3" t="n">
-        <v>213.6221466064453</v>
+        <v>302.8223571777344</v>
       </c>
       <c r="CE3" t="n">
-        <v>213.3607635498047</v>
+        <v>302.9269409179688</v>
       </c>
       <c r="CF3" t="n">
-        <v>212.9853973388672</v>
+        <v>303.002197265625</v>
       </c>
       <c r="CG3" t="n">
-        <v>212.9191131591797</v>
+        <v>302.9617309570312</v>
       </c>
       <c r="CH3" t="n">
-        <v>212.9263458251953</v>
+        <v>302.8566284179688</v>
       </c>
       <c r="CI3" t="n">
-        <v>212.9212951660156</v>
+        <v>302.6258544921875</v>
       </c>
       <c r="CJ3" t="n">
-        <v>212.9485626220703</v>
+        <v>302.2590942382812</v>
       </c>
       <c r="CK3" t="n">
-        <v>213.0223388671875</v>
+        <v>300.7314453125</v>
       </c>
       <c r="CL3" t="n">
-        <v>212.9848785400391</v>
+        <v>298.995361328125</v>
       </c>
       <c r="CM3" t="n">
-        <v>212.8128204345703</v>
+        <v>297.0443115234375</v>
       </c>
       <c r="CN3" t="n">
-        <v>212.4722900390625</v>
+        <v>295.3864440917969</v>
       </c>
       <c r="CO3" t="n">
-        <v>211.7063446044922</v>
+        <v>294.4646606445312</v>
       </c>
       <c r="CP3" t="n">
-        <v>211.3015594482422</v>
+        <v>293.80908203125</v>
       </c>
       <c r="CQ3" t="n">
-        <v>210.9003295898438</v>
+        <v>293.6503601074219</v>
       </c>
       <c r="CR3" t="n">
-        <v>210.5177001953125</v>
+        <v>293.4691467285156</v>
       </c>
       <c r="CS3" t="n">
-        <v>210.1530151367188</v>
+        <v>293.3966674804688</v>
       </c>
       <c r="CT3" t="n">
-        <v>209.5552825927734</v>
+        <v>293.3353271484375</v>
       </c>
       <c r="CU3" t="n">
-        <v>209.4221954345703</v>
+        <v>293.2345886230469</v>
       </c>
       <c r="CV3" t="n">
-        <v>209.3141937255859</v>
+        <v>293.1300659179688</v>
       </c>
       <c r="CW3" t="n">
-        <v>209.3125152587891</v>
+        <v>293.0540466308594</v>
       </c>
       <c r="CX3" t="n">
-        <v>209.3138275146484</v>
+        <v>292.9990234375</v>
       </c>
       <c r="CY3" t="n">
-        <v>209.3132019042969</v>
+        <v>292.9353942871094</v>
       </c>
       <c r="CZ3" t="n">
-        <v>209.3130035400391</v>
+        <v>292.8378295898438</v>
       </c>
       <c r="DA3" t="n">
-        <v>209.313720703125</v>
+        <v>292.7725524902344</v>
       </c>
       <c r="DB3" t="n">
-        <v>209.3153991699219</v>
+        <v>292.72021484375</v>
       </c>
       <c r="DC3" t="n">
-        <v>209.3085632324219</v>
+        <v>292.7664489746094</v>
       </c>
       <c r="DD3" t="n">
-        <v>209.2927703857422</v>
+        <v>292.8087768554688</v>
       </c>
       <c r="DE3" t="n">
-        <v>209.283203125</v>
+        <v>292.8829040527344</v>
       </c>
       <c r="DF3" t="n">
-        <v>209.307861328125</v>
+        <v>293.0210876464844</v>
       </c>
       <c r="DG3" t="n">
-        <v>209.3516387939453</v>
+        <v>293.2002563476562</v>
       </c>
       <c r="DH3" t="n">
-        <v>209.3761901855469</v>
+        <v>293.752685546875</v>
       </c>
       <c r="DI3" t="n">
-        <v>209.4275665283203</v>
+        <v>294.1934204101562</v>
       </c>
       <c r="DJ3" t="n">
-        <v>209.4485931396484</v>
+        <v>294.7024536132812</v>
       </c>
       <c r="DK3" t="n">
-        <v>209.4697723388672</v>
+        <v>295.1507873535156</v>
       </c>
       <c r="DL3" t="n">
-        <v>209.5340423583984</v>
+        <v>295.6413269042969</v>
       </c>
       <c r="DM3" t="n">
-        <v>209.5752716064453</v>
+        <v>296.0425415039062</v>
       </c>
       <c r="DN3" t="n">
-        <v>209.7140808105469</v>
+        <v>296.3302917480469</v>
       </c>
       <c r="DO3" t="n">
-        <v>209.7953338623047</v>
+        <v>294.6943359375</v>
       </c>
       <c r="DP3" t="n">
-        <v>209.9377593994141</v>
+        <v>291.25732421875</v>
       </c>
       <c r="DQ3" t="n">
-        <v>210.5311737060547</v>
+        <v>278.602783203125</v>
       </c>
       <c r="DR3" t="n">
-        <v>210.9185180664062</v>
+        <v>271.3196411132812</v>
       </c>
       <c r="DS3" t="n">
-        <v>211.7032623291016</v>
+        <v>263.8619079589844</v>
       </c>
       <c r="DT3" t="n">
-        <v>212.4795837402344</v>
+        <v>250.4811248779297</v>
       </c>
       <c r="DU3" t="n">
-        <v>212.8717498779297</v>
+        <v>243.5661468505859</v>
       </c>
       <c r="DV3" t="n">
-        <v>213.4722595214844</v>
+        <v>236.4563751220703</v>
       </c>
       <c r="DW3" t="n">
-        <v>213.6807708740234</v>
+        <v>221.8142700195312</v>
       </c>
       <c r="DX3" t="n">
-        <v>213.8625335693359</v>
+        <v>215.2300872802734</v>
       </c>
       <c r="DY3" t="n">
-        <v>214.2123718261719</v>
+        <v>205.9240570068359</v>
       </c>
       <c r="DZ3" t="n">
-        <v>214.3287963867188</v>
+        <v>203.9268493652344</v>
       </c>
       <c r="EA3" t="n">
-        <v>214.3852386474609</v>
+        <v>204.2128448486328</v>
       </c>
       <c r="EB3" t="n">
-        <v>214.4121551513672</v>
+        <v>212.6065368652344</v>
       </c>
       <c r="EC3" t="n">
-        <v>214.4192504882812</v>
+        <v>219.5530548095703</v>
       </c>
       <c r="ED3" t="n">
-        <v>214.4232940673828</v>
+        <v>243.6417388916016</v>
       </c>
       <c r="EE3" t="n">
-        <v>214.4273071289062</v>
+        <v>269.4738159179688</v>
       </c>
       <c r="EF3" t="n">
-        <v>214.4380187988281</v>
+        <v>278.5222778320312</v>
       </c>
       <c r="EG3" t="n">
-        <v>214.4522247314453</v>
+        <v>300.1124572753906</v>
       </c>
       <c r="EH3" t="n">
-        <v>214.4764251708984</v>
+        <v>310.896240234375</v>
       </c>
       <c r="EI3" t="n">
-        <v>214.5111694335938</v>
+        <v>313.5684509277344</v>
       </c>
       <c r="EJ3" t="n">
-        <v>214.5885467529297</v>
+        <v>315.5291137695312</v>
       </c>
       <c r="EK3" t="n">
-        <v>214.6458740234375</v>
+        <v>318.688232421875</v>
       </c>
       <c r="EL3" t="n">
-        <v>214.7969665527344</v>
+        <v>318.9319458007812</v>
       </c>
       <c r="EM3" t="n">
-        <v>215.0751037597656</v>
+        <v>317.5650939941406</v>
       </c>
       <c r="EN3" t="n">
-        <v>215.2724914550781</v>
+        <v>316.5226745605469</v>
       </c>
       <c r="EO3" t="n">
-        <v>215.3227081298828</v>
+        <v>314.9845275878906</v>
       </c>
       <c r="EP3" t="n">
-        <v>215.359619140625</v>
+        <v>314.6539001464844</v>
       </c>
       <c r="EQ3" t="n">
-        <v>215.6750183105469</v>
+        <v>314.3925476074219</v>
       </c>
       <c r="ER3" t="n">
-        <v>215.907958984375</v>
+        <v>314.2809753417969</v>
       </c>
       <c r="ES3" t="n">
-        <v>216.4078521728516</v>
+        <v>314.9811096191406</v>
       </c>
       <c r="ET3" t="n">
-        <v>216.6721496582031</v>
+        <v>319.8397521972656</v>
       </c>
       <c r="EU3" t="n">
-        <v>217.1338195800781</v>
+        <v>327.9611206054688</v>
       </c>
       <c r="EV3" t="n">
-        <v>217.5152587890625</v>
+        <v>332.81689453125</v>
       </c>
       <c r="EW3" t="n">
-        <v>217.8850402832031</v>
+        <v>339.392333984375</v>
       </c>
       <c r="EX3" t="n">
-        <v>218.2569427490234</v>
+        <v>341.7049865722656</v>
       </c>
       <c r="EY3" t="n">
-        <v>218.4606323242188</v>
+        <v>343.4986877441406</v>
       </c>
       <c r="EZ3" t="n">
-        <v>218.8783874511719</v>
+        <v>345.2843017578125</v>
       </c>
       <c r="FA3" t="n">
-        <v>219.1009216308594</v>
+        <v>346.1576232910156</v>
       </c>
       <c r="FB3" t="n">
-        <v>219.3012390136719</v>
+        <v>346.6422424316406</v>
       </c>
       <c r="FC3" t="n">
-        <v>219.5628662109375</v>
+        <v>344.10791015625</v>
       </c>
       <c r="FD3" t="n">
-        <v>219.6242370605469</v>
+        <v>341.3877563476562</v>
       </c>
       <c r="FE3" t="n">
-        <v>219.6082458496094</v>
+        <v>334.5624694824219</v>
       </c>
       <c r="FF3" t="n">
-        <v>219.6089935302734</v>
+        <v>331.5149841308594</v>
       </c>
       <c r="FG3" t="n">
-        <v>219.6150665283203</v>
+        <v>327.1658935546875</v>
       </c>
       <c r="FH3" t="n">
-        <v>219.6083679199219</v>
+        <v>325.0519104003906</v>
       </c>
       <c r="FI3" t="n">
-        <v>219.5778961181641</v>
+        <v>323.8064270019531</v>
       </c>
       <c r="FJ3" t="n">
-        <v>219.5003967285156</v>
+        <v>322.2247619628906</v>
       </c>
       <c r="FK3" t="n">
-        <v>219.3041839599609</v>
+        <v>318.0439147949219</v>
       </c>
       <c r="FL3" t="n">
-        <v>219.0967254638672</v>
+        <v>316.1593322753906</v>
       </c>
       <c r="FM3" t="n">
-        <v>218.9744720458984</v>
+        <v>313.9044494628906</v>
       </c>
       <c r="FN3" t="n">
-        <v>218.0205993652344</v>
+        <v>313.3015747070312</v>
       </c>
       <c r="FO3" t="n">
-        <v>217.5925140380859</v>
+        <v>312.8976745605469</v>
       </c>
       <c r="FP3" t="n">
-        <v>216.7225341796875</v>
+        <v>312.5484619140625</v>
       </c>
       <c r="FQ3" t="n">
-        <v>214.9608154296875</v>
+        <v>311.1807861328125</v>
       </c>
       <c r="FR3" t="n">
-        <v>214.4658660888672</v>
+        <v>310.3542785644531</v>
       </c>
       <c r="FS3" t="n">
-        <v>213.4403228759766</v>
+        <v>306.7908020019531</v>
       </c>
       <c r="FT3" t="n">
-        <v>213.1643371582031</v>
+        <v>303.5730895996094</v>
       </c>
       <c r="FU3" t="n">
-        <v>213.3250122070312</v>
+        <v>299.2098693847656</v>
       </c>
       <c r="FV3" t="n">
-        <v>213.3692321777344</v>
+        <v>297.112548828125</v>
       </c>
       <c r="FW3" t="n">
-        <v>212.7530364990234</v>
+        <v>293.9968872070312</v>
       </c>
       <c r="FX3" t="n">
-        <v>205.7608489990234</v>
+        <v>292.5363159179688</v>
       </c>
       <c r="FY3" t="n">
-        <v>199.939208984375</v>
+        <v>290.7783203125</v>
       </c>
       <c r="FZ3" t="n">
-        <v>197.0423126220703</v>
+        <v>290.3093566894531</v>
       </c>
       <c r="GA3" t="n">
-        <v>195.0401763916016</v>
+        <v>287.8675231933594</v>
       </c>
       <c r="GB3" t="n">
-        <v>192.1035461425781</v>
+        <v>286.1548767089844</v>
       </c>
       <c r="GC3" t="n">
-        <v>191.1089782714844</v>
+        <v>285.3499450683594</v>
       </c>
       <c r="GD3" t="n">
-        <v>188.4149932861328</v>
+        <v>285.2088317871094</v>
       </c>
       <c r="GE3" t="n">
-        <v>187.6288604736328</v>
+        <v>284.8919067382812</v>
       </c>
       <c r="GF3" t="n">
-        <v>184.4104156494141</v>
+        <v>284.6361083984375</v>
       </c>
       <c r="GG3" t="n">
-        <v>182.7301940917969</v>
+        <v>284.2870483398438</v>
       </c>
       <c r="GH3" t="n">
-        <v>181.1654815673828</v>
+        <v>284.01806640625</v>
       </c>
       <c r="GI3" t="n">
-        <v>179.194091796875</v>
+        <v>283.7969055175781</v>
       </c>
       <c r="GJ3" t="n">
-        <v>175.9168853759766</v>
+        <v>283.0780029296875</v>
       </c>
       <c r="GK3" t="n">
-        <v>169.3375549316406</v>
+        <v>279.9818420410156</v>
       </c>
       <c r="GL3" t="n">
-        <v>163.9641876220703</v>
+        <v>277.5201721191406</v>
       </c>
       <c r="GM3" t="n">
-        <v>160.6181030273438</v>
+        <v>272.890869140625</v>
       </c>
       <c r="GN3" t="n">
-        <v>158.4909057617188</v>
+        <v>268.8790893554688</v>
       </c>
       <c r="GO3" t="n">
-        <v>157.6995391845703</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>157.3288269042969</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>156.4618225097656</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>155.5113525390625</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>154.3014221191406</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>156.4305725097656</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>159.7026672363281</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>164.4844512939453</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>174.3673553466797</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>183.3376922607422</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>250.2281494140625</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>278.57177734375</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>292.3998413085938</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>332.052490234375</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>357.7350769042969</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>350.6801147460938</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>339.1418151855469</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>333.1484069824219</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>330.6296997070312</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>329.9590759277344</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>335.5154418945312</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>339.1757507324219</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>340.2484130859375</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>343.9441833496094</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>347.4515075683594</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>351.8236694335938</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>353.4700012207031</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>354.2435913085938</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>352.9279479980469</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>345.4916381835938</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>332.1159362792969</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>326.6166381835938</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>324.1212463378906</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>323.2466430664062</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>322.8302001953125</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>324.0021362304688</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>326.2279052734375</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>331.0521240234375</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>335.5921630859375</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>337.0900573730469</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>337.4845275878906</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>338.1358337402344</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>340.1419677734375</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>341.5250549316406</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>341.731689453125</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>341.7666625976562</v>
-      </c>
-      <c r="II3" t="n">
-        <v>341.7597961425781</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>341.8497009277344</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>342.9961547851562</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>344.0388488769531</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>344.4114074707031</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>344.4192199707031</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>344.4176330566406</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>344.4162902832031</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>344.420166015625</v>
+        <v>266.7520751953125</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1341.5859375</v>
+        <v>1048.454833984375</v>
       </c>
       <c r="C4" t="n">
-        <v>1350.297973632812</v>
+        <v>1054.933959960938</v>
       </c>
       <c r="D4" t="n">
-        <v>1356.99658203125</v>
+        <v>1058.447631835938</v>
       </c>
       <c r="E4" t="n">
-        <v>1362.40234375</v>
+        <v>1059.97900390625</v>
       </c>
       <c r="F4" t="n">
-        <v>1367.219360351562</v>
+        <v>1060.489013671875</v>
       </c>
       <c r="G4" t="n">
-        <v>1371.63427734375</v>
+        <v>1060.4111328125</v>
       </c>
       <c r="H4" t="n">
-        <v>1375.638061523438</v>
+        <v>1060.278564453125</v>
       </c>
       <c r="I4" t="n">
-        <v>1379.941650390625</v>
+        <v>1060.172729492188</v>
       </c>
       <c r="J4" t="n">
-        <v>1383.753295898438</v>
+        <v>1060.112670898438</v>
       </c>
       <c r="K4" t="n">
-        <v>1387.89794921875</v>
+        <v>1060.051513671875</v>
       </c>
       <c r="L4" t="n">
-        <v>1390.563598632812</v>
+        <v>1059.989379882812</v>
       </c>
       <c r="M4" t="n">
-        <v>1392.09716796875</v>
+        <v>1059.926391601562</v>
       </c>
       <c r="N4" t="n">
-        <v>1392.979858398438</v>
+        <v>1059.859252929688</v>
       </c>
       <c r="O4" t="n">
-        <v>1393.462646484375</v>
+        <v>1059.79443359375</v>
       </c>
       <c r="P4" t="n">
-        <v>1393.509033203125</v>
+        <v>1059.726196289062</v>
       </c>
       <c r="Q4" t="n">
-        <v>1393.460205078125</v>
+        <v>1059.657958984375</v>
       </c>
       <c r="R4" t="n">
-        <v>1393.527221679688</v>
+        <v>1059.590698242188</v>
       </c>
       <c r="S4" t="n">
-        <v>1393.545288085938</v>
+        <v>1059.52197265625</v>
       </c>
       <c r="T4" t="n">
-        <v>1393.468017578125</v>
+        <v>1059.45166015625</v>
       </c>
       <c r="U4" t="n">
-        <v>1392.873291015625</v>
+        <v>1059.387329101562</v>
       </c>
       <c r="V4" t="n">
-        <v>1390.598388671875</v>
+        <v>1059.35693359375</v>
       </c>
       <c r="W4" t="n">
-        <v>1386.51904296875</v>
+        <v>1059.354858398438</v>
       </c>
       <c r="X4" t="n">
-        <v>1380.003662109375</v>
+        <v>1059.35400390625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1372.560302734375</v>
+        <v>1059.361572265625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1362.625854492188</v>
+        <v>1059.375366210938</v>
       </c>
       <c r="AA4" t="n">
-        <v>1351.667358398438</v>
+        <v>1059.39013671875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1340.717407226562</v>
+        <v>1059.403686523438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1331.0283203125</v>
+        <v>1059.420288085938</v>
       </c>
       <c r="AD4" t="n">
-        <v>1322.2021484375</v>
+        <v>1059.436401367188</v>
       </c>
       <c r="AE4" t="n">
-        <v>1314.44482421875</v>
+        <v>1059.443237304688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1307.459350585938</v>
+        <v>1059.449096679688</v>
       </c>
       <c r="AG4" t="n">
-        <v>1300.825805664062</v>
+        <v>1059.45556640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1292.354125976562</v>
+        <v>1059.461547851562</v>
       </c>
       <c r="AI4" t="n">
-        <v>1284.111450195312</v>
+        <v>1059.467163085938</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1276.686401367188</v>
+        <v>1059.472412109375</v>
       </c>
       <c r="AK4" t="n">
-        <v>1269.227783203125</v>
+        <v>1059.473266601562</v>
       </c>
       <c r="AL4" t="n">
-        <v>1261.031616210938</v>
+        <v>1059.473388671875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1252.842895507812</v>
+        <v>1059.473022460938</v>
       </c>
       <c r="AN4" t="n">
-        <v>1245.382202148438</v>
+        <v>1059.471801757812</v>
       </c>
       <c r="AO4" t="n">
-        <v>1238.370483398438</v>
+        <v>1059.470092773438</v>
       </c>
       <c r="AP4" t="n">
-        <v>1231.65380859375</v>
+        <v>1059.46142578125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1226.18359375</v>
+        <v>1060.237915039062</v>
       </c>
       <c r="AR4" t="n">
-        <v>1221.474975585938</v>
+        <v>1064.280517578125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1216.986328125</v>
+        <v>1067.58544921875</v>
       </c>
       <c r="AT4" t="n">
-        <v>1212.937622070312</v>
+        <v>1079.898559570312</v>
       </c>
       <c r="AU4" t="n">
-        <v>1209.360595703125</v>
+        <v>1087.252319335938</v>
       </c>
       <c r="AV4" t="n">
-        <v>1206.574951171875</v>
+        <v>1093.58251953125</v>
       </c>
       <c r="AW4" t="n">
-        <v>1204.223022460938</v>
+        <v>1098.407470703125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1201.49267578125</v>
+        <v>1102.059448242188</v>
       </c>
       <c r="AY4" t="n">
-        <v>1199.52392578125</v>
+        <v>1105.75390625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1197.92529296875</v>
+        <v>1110.670166015625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1195.975952148438</v>
+        <v>1115.953002929688</v>
       </c>
       <c r="BB4" t="n">
-        <v>1193.925048828125</v>
+        <v>1121.150390625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1191.806884765625</v>
+        <v>1125.194702148438</v>
       </c>
       <c r="BD4" t="n">
-        <v>1189.781372070312</v>
+        <v>1128.594604492188</v>
       </c>
       <c r="BE4" t="n">
-        <v>1188.489624023438</v>
+        <v>1132.430419921875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1187.7333984375</v>
+        <v>1133.875854492188</v>
       </c>
       <c r="BG4" t="n">
-        <v>1187.225952148438</v>
+        <v>1134.421142578125</v>
       </c>
       <c r="BH4" t="n">
-        <v>1186.855590820312</v>
+        <v>1136.158569335938</v>
       </c>
       <c r="BI4" t="n">
-        <v>1186.678955078125</v>
+        <v>1137.250610351562</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1186.583984375</v>
+        <v>1138.999389648438</v>
       </c>
       <c r="BK4" t="n">
-        <v>1186.488525390625</v>
+        <v>1140.035278320312</v>
       </c>
       <c r="BL4" t="n">
-        <v>1186.30322265625</v>
+        <v>1140.449829101562</v>
       </c>
       <c r="BM4" t="n">
-        <v>1185.900390625</v>
+        <v>1140.717041015625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1184.990600585938</v>
+        <v>1140.568969726562</v>
       </c>
       <c r="BO4" t="n">
-        <v>1183.628784179688</v>
+        <v>1140.357421875</v>
       </c>
       <c r="BP4" t="n">
-        <v>1181.568481445312</v>
+        <v>1140.07421875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1179.882690429688</v>
+        <v>1139.499267578125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1178.657348632812</v>
+        <v>1138.356201171875</v>
       </c>
       <c r="BS4" t="n">
-        <v>1175.343505859375</v>
+        <v>1136.4150390625</v>
       </c>
       <c r="BT4" t="n">
-        <v>1170.861572265625</v>
+        <v>1135.166381835938</v>
       </c>
       <c r="BU4" t="n">
-        <v>1166.455688476562</v>
+        <v>1134.2705078125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1162.391479492188</v>
+        <v>1133.630249023438</v>
       </c>
       <c r="BW4" t="n">
-        <v>1158.74169921875</v>
+        <v>1133.126708984375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1155.606811523438</v>
+        <v>1132.738159179688</v>
       </c>
       <c r="BY4" t="n">
-        <v>1152.150512695312</v>
+        <v>1132.43603515625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1146.5087890625</v>
+        <v>1132.401733398438</v>
       </c>
       <c r="CA4" t="n">
-        <v>1142.671997070312</v>
+        <v>1132.388427734375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1140.640502929688</v>
+        <v>1132.340942382812</v>
       </c>
       <c r="CC4" t="n">
-        <v>1139.338256835938</v>
+        <v>1132.453125</v>
       </c>
       <c r="CD4" t="n">
-        <v>1138.02587890625</v>
+        <v>1132.536865234375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1136.465087890625</v>
+        <v>1132.670532226562</v>
       </c>
       <c r="CF4" t="n">
-        <v>1132.873657226562</v>
+        <v>1132.855224609375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1131.911499023438</v>
+        <v>1133.173828125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1131.58447265625</v>
+        <v>1133.617065429688</v>
       </c>
       <c r="CI4" t="n">
-        <v>1131.154296875</v>
+        <v>1135.134643554688</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1131.103637695312</v>
+        <v>1138.903930664062</v>
       </c>
       <c r="CK4" t="n">
-        <v>1131.550415039062</v>
+        <v>1145.672729492188</v>
       </c>
       <c r="CL4" t="n">
-        <v>1132.0244140625</v>
+        <v>1152.328979492188</v>
       </c>
       <c r="CM4" t="n">
-        <v>1131.791748046875</v>
+        <v>1158.297973632812</v>
       </c>
       <c r="CN4" t="n">
-        <v>1131.461303710938</v>
+        <v>1163.716674804688</v>
       </c>
       <c r="CO4" t="n">
-        <v>1130.741455078125</v>
+        <v>1168.162231445312</v>
       </c>
       <c r="CP4" t="n">
-        <v>1130.333374023438</v>
+        <v>1171.104736328125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1130.181518554688</v>
+        <v>1172.645629882812</v>
       </c>
       <c r="CR4" t="n">
-        <v>1130.1337890625</v>
+        <v>1174.3779296875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1130.147216796875</v>
+        <v>1175.081787109375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1130.775512695312</v>
+        <v>1175.474609375</v>
       </c>
       <c r="CU4" t="n">
-        <v>1131.6689453125</v>
+        <v>1175.676635742188</v>
       </c>
       <c r="CV4" t="n">
-        <v>1132.8671875</v>
+        <v>1175.76708984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1134.88330078125</v>
+        <v>1175.800903320312</v>
       </c>
       <c r="CX4" t="n">
-        <v>1135.188842773438</v>
+        <v>1175.82373046875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1135.350830078125</v>
+        <v>1175.833984375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1135.377319335938</v>
+        <v>1175.849853515625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1135.456176757812</v>
+        <v>1175.804443359375</v>
       </c>
       <c r="DB4" t="n">
-        <v>1135.6171875</v>
+        <v>1175.618286132812</v>
       </c>
       <c r="DC4" t="n">
-        <v>1136.03857421875</v>
+        <v>1175.508178710938</v>
       </c>
       <c r="DD4" t="n">
-        <v>1136.327026367188</v>
+        <v>1174.421142578125</v>
       </c>
       <c r="DE4" t="n">
-        <v>1136.666259765625</v>
+        <v>1172.801025390625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1137.380126953125</v>
+        <v>1169.664672851562</v>
       </c>
       <c r="DG4" t="n">
-        <v>1138.245849609375</v>
+        <v>1165.08740234375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1138.7099609375</v>
+        <v>1151.507446289062</v>
       </c>
       <c r="DI4" t="n">
-        <v>1139.565795898438</v>
+        <v>1142.593139648438</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1139.927856445312</v>
+        <v>1133.022094726562</v>
       </c>
       <c r="DK4" t="n">
-        <v>1140.295532226562</v>
+        <v>1123.649169921875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1140.9853515625</v>
+        <v>1114.036499023438</v>
       </c>
       <c r="DM4" t="n">
-        <v>1141.349243164062</v>
+        <v>1104.506103515625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1142.072387695312</v>
+        <v>1092.010986328125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1142.464111328125</v>
+        <v>1071.716552734375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1142.884521484375</v>
+        <v>1065.2763671875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1143.87548828125</v>
+        <v>1057.754028320312</v>
       </c>
       <c r="DR4" t="n">
-        <v>1144.542602539062</v>
+        <v>1055.37255859375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1146.484497070312</v>
+        <v>1053.258666992188</v>
       </c>
       <c r="DT4" t="n">
-        <v>1149.038330078125</v>
+        <v>1052.310424804688</v>
       </c>
       <c r="DU4" t="n">
-        <v>1151.202514648438</v>
+        <v>1053.5859375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1155.234985351562</v>
+        <v>1055.475708007812</v>
       </c>
       <c r="DW4" t="n">
-        <v>1156.508422851562</v>
+        <v>1058.873291015625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1157.140625</v>
+        <v>1059.883911132812</v>
       </c>
       <c r="DY4" t="n">
-        <v>1157.764892578125</v>
+        <v>1061.075805664062</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1157.964965820312</v>
+        <v>1063.437744140625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1158.128540039062</v>
+        <v>1070.375610351562</v>
       </c>
       <c r="EB4" t="n">
-        <v>1158.18408203125</v>
+        <v>1075.697265625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1158.173950195312</v>
+        <v>1078.344970703125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1158.166748046875</v>
+        <v>1085.194702148438</v>
       </c>
       <c r="EE4" t="n">
-        <v>1158.159423828125</v>
+        <v>1095.618774414062</v>
       </c>
       <c r="EF4" t="n">
-        <v>1158.143432617188</v>
+        <v>1102.80615234375</v>
       </c>
       <c r="EG4" t="n">
-        <v>1158.132690429688</v>
+        <v>1133.723876953125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1158.123901367188</v>
+        <v>1165.810668945312</v>
       </c>
       <c r="EI4" t="n">
-        <v>1158.12548828125</v>
+        <v>1180.191284179688</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1158.143432617188</v>
+        <v>1195.581420898438</v>
       </c>
       <c r="EK4" t="n">
-        <v>1158.280517578125</v>
+        <v>1233.884399414062</v>
       </c>
       <c r="EL4" t="n">
-        <v>1158.509765625</v>
+        <v>1254.223754882812</v>
       </c>
       <c r="EM4" t="n">
-        <v>1158.12451171875</v>
+        <v>1279.009033203125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1156.9091796875</v>
+        <v>1285.975708007812</v>
       </c>
       <c r="EO4" t="n">
-        <v>1155.612060546875</v>
+        <v>1295.1494140625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1154.35107421875</v>
+        <v>1298.253173828125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1153.982177734375</v>
+        <v>1299.91845703125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1154.355590820312</v>
+        <v>1299.425048828125</v>
       </c>
       <c r="ES4" t="n">
-        <v>1155.303833007812</v>
+        <v>1296.69140625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1155.937133789062</v>
+        <v>1283.726928710938</v>
       </c>
       <c r="EU4" t="n">
-        <v>1156.599853515625</v>
+        <v>1263.384643554688</v>
       </c>
       <c r="EV4" t="n">
-        <v>1156.381713867188</v>
+        <v>1249.900024414062</v>
       </c>
       <c r="EW4" t="n">
-        <v>1155.92138671875</v>
+        <v>1224.34619140625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1155.453125</v>
+        <v>1214.2197265625</v>
       </c>
       <c r="EY4" t="n">
-        <v>1155.33984375</v>
+        <v>1205.186767578125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1155.384033203125</v>
+        <v>1189.580688476562</v>
       </c>
       <c r="FA4" t="n">
-        <v>1155.404296875</v>
+        <v>1176.678955078125</v>
       </c>
       <c r="FB4" t="n">
-        <v>1155.062744140625</v>
+        <v>1170.974609375</v>
       </c>
       <c r="FC4" t="n">
-        <v>1152.928100585938</v>
+        <v>1160.196655273438</v>
       </c>
       <c r="FD4" t="n">
-        <v>1150.016357421875</v>
+        <v>1152.980712890625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1146.822509765625</v>
+        <v>1133.913818359375</v>
       </c>
       <c r="FF4" t="n">
-        <v>1144.823852539062</v>
+        <v>1122.916259765625</v>
       </c>
       <c r="FG4" t="n">
-        <v>1140.771728515625</v>
+        <v>1098.488159179688</v>
       </c>
       <c r="FH4" t="n">
-        <v>1137.5693359375</v>
+        <v>1069.4638671875</v>
       </c>
       <c r="FI4" t="n">
-        <v>1132.9306640625</v>
+        <v>1055.842895507812</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1127.482788085938</v>
+        <v>1039.9404296875</v>
       </c>
       <c r="FK4" t="n">
-        <v>1117.7578125</v>
+        <v>1019.562561035156</v>
       </c>
       <c r="FL4" t="n">
-        <v>1112.241088867188</v>
+        <v>1013.093627929688</v>
       </c>
       <c r="FM4" t="n">
-        <v>1109.62890625</v>
+        <v>998.1504516601562</v>
       </c>
       <c r="FN4" t="n">
-        <v>1096.052978515625</v>
+        <v>978.93212890625</v>
       </c>
       <c r="FO4" t="n">
-        <v>1089.530883789062</v>
+        <v>969.6790771484375</v>
       </c>
       <c r="FP4" t="n">
-        <v>1075.829833984375</v>
+        <v>960.1857299804688</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1050.921630859375</v>
+        <v>944.4000244140625</v>
       </c>
       <c r="FR4" t="n">
-        <v>1041.796875</v>
+        <v>936.1836547851562</v>
       </c>
       <c r="FS4" t="n">
-        <v>1021.204284667969</v>
+        <v>919.4871826171875</v>
       </c>
       <c r="FT4" t="n">
-        <v>992.2159423828125</v>
+        <v>905.1416625976562</v>
       </c>
       <c r="FU4" t="n">
-        <v>983.7783203125</v>
+        <v>894.1238403320312</v>
       </c>
       <c r="FV4" t="n">
-        <v>970.1312255859375</v>
+        <v>888.076171875</v>
       </c>
       <c r="FW4" t="n">
-        <v>959.0643310546875</v>
+        <v>871.21484375</v>
       </c>
       <c r="FX4" t="n">
-        <v>942.978271484375</v>
+        <v>864.5833129882812</v>
       </c>
       <c r="FY4" t="n">
-        <v>933.6378784179688</v>
+        <v>849.1640625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>922.8399658203125</v>
+        <v>838.4274291992188</v>
       </c>
       <c r="GA4" t="n">
-        <v>910.05224609375</v>
+        <v>815.9698486328125</v>
       </c>
       <c r="GB4" t="n">
-        <v>891.4676513671875</v>
+        <v>806.8116455078125</v>
       </c>
       <c r="GC4" t="n">
-        <v>885.52294921875</v>
+        <v>793.410400390625</v>
       </c>
       <c r="GD4" t="n">
-        <v>867.5692138671875</v>
+        <v>787.5679321289062</v>
       </c>
       <c r="GE4" t="n">
-        <v>859.3619384765625</v>
+        <v>777.1865844726562</v>
       </c>
       <c r="GF4" t="n">
-        <v>834.402099609375</v>
+        <v>769.3997192382812</v>
       </c>
       <c r="GG4" t="n">
-        <v>816.2883911132812</v>
+        <v>761.4971313476562</v>
       </c>
       <c r="GH4" t="n">
-        <v>796.8322143554688</v>
+        <v>748.8773193359375</v>
       </c>
       <c r="GI4" t="n">
-        <v>779.7318115234375</v>
+        <v>742.6244506835938</v>
       </c>
       <c r="GJ4" t="n">
-        <v>761.6373291015625</v>
+        <v>736.9241333007812</v>
       </c>
       <c r="GK4" t="n">
-        <v>748.272216796875</v>
+        <v>724.7099609375</v>
       </c>
       <c r="GL4" t="n">
-        <v>740.668701171875</v>
+        <v>718.2449951171875</v>
       </c>
       <c r="GM4" t="n">
-        <v>732.99658203125</v>
+        <v>698.9791259765625</v>
       </c>
       <c r="GN4" t="n">
-        <v>723.704833984375</v>
+        <v>677.4736328125</v>
       </c>
       <c r="GO4" t="n">
-        <v>718.114013671875</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>715.1063842773438</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>708.0050659179688</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>700.0733642578125</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>689.328125</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>666.864013671875</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>649.3169555664062</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>629.42822265625</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>605.9859008789062</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>593.6617431640625</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>560.2007446289062</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>549.3561401367188</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>548.4102172851562</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>558.170654296875</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>591.38916015625</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>625.1610717773438</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>658.9669189453125</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>684.6492309570312</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>700.5200805664062</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>705.486572265625</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>710.6038208007812</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>710.6514892578125</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>710.798095703125</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>692.7274780273438</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>666.768310546875</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>637.8323364257812</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>629.9041137695312</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>626.1997680664062</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>625.8878173828125</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>628.4342651367188</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>638.5673217773438</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>644.2646484375</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>648.6598510742188</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>652.7364501953125</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>655.5447387695312</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>661.8668823242188</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>664.0922241210938</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>669.2000732421875</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>679.7941284179688</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>687.36767578125</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>694.5093994140625</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>700.605224609375</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>711.7235717773438</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>716.3759155273438</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>718.51806640625</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>718.6768798828125</v>
-      </c>
-      <c r="II4" t="n">
-        <v>718.2212524414062</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>717.2137451171875</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>711.73974609375</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>706.9186401367188</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>705.0719604492188</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>705.1445922851562</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>705.2667236328125</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>705.3521118164062</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>705.5269775390625</v>
+        <v>668.9393310546875</v>
       </c>
     </row>
   </sheetData>

--- a/left_collar_Data.xlsx
+++ b/left_collar_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>234.1031188964844</v>
       </c>
       <c r="B2" t="n">
-        <v>354.776123046875</v>
+        <v>234.2976226806641</v>
       </c>
       <c r="C2" t="n">
-        <v>352.7459106445312</v>
+        <v>234.3125152587891</v>
       </c>
       <c r="D2" t="n">
-        <v>351.6855163574219</v>
+        <v>234.3147888183594</v>
       </c>
       <c r="E2" t="n">
-        <v>351.25927734375</v>
+        <v>234.3178100585938</v>
       </c>
       <c r="F2" t="n">
-        <v>351.243408203125</v>
+        <v>234.319580078125</v>
       </c>
       <c r="G2" t="n">
-        <v>351.3477172851562</v>
+        <v>234.3207092285156</v>
       </c>
       <c r="H2" t="n">
-        <v>351.4615173339844</v>
+        <v>234.321044921875</v>
       </c>
       <c r="I2" t="n">
-        <v>351.6132202148438</v>
+        <v>234.3218688964844</v>
       </c>
       <c r="J2" t="n">
-        <v>351.7860412597656</v>
+        <v>234.3225402832031</v>
       </c>
       <c r="K2" t="n">
-        <v>351.9355773925781</v>
+        <v>234.3234405517578</v>
       </c>
       <c r="L2" t="n">
-        <v>352.0646667480469</v>
+        <v>234.3420104980469</v>
       </c>
       <c r="M2" t="n">
-        <v>352.1881713867188</v>
+        <v>234.364013671875</v>
       </c>
       <c r="N2" t="n">
-        <v>352.22216796875</v>
+        <v>234.3860168457031</v>
       </c>
       <c r="O2" t="n">
-        <v>352.2327270507812</v>
+        <v>234.4068298339844</v>
       </c>
       <c r="P2" t="n">
-        <v>352.23583984375</v>
+        <v>234.4058074951172</v>
       </c>
       <c r="Q2" t="n">
-        <v>352.2370910644531</v>
+        <v>234.3923034667969</v>
       </c>
       <c r="R2" t="n">
-        <v>352.2377319335938</v>
+        <v>234.3753814697266</v>
       </c>
       <c r="S2" t="n">
-        <v>352.2381896972656</v>
+        <v>234.3424682617188</v>
       </c>
       <c r="T2" t="n">
-        <v>352.23779296875</v>
+        <v>234.1312408447266</v>
       </c>
       <c r="U2" t="n">
-        <v>352.2385864257812</v>
+        <v>233.8280334472656</v>
       </c>
       <c r="V2" t="n">
-        <v>352.2389526367188</v>
+        <v>233.5475311279297</v>
       </c>
       <c r="W2" t="n">
-        <v>352.2400207519531</v>
+        <v>233.973388671875</v>
       </c>
       <c r="X2" t="n">
-        <v>352.2412414550781</v>
+        <v>235.6707458496094</v>
       </c>
       <c r="Y2" t="n">
-        <v>352.2424926757812</v>
+        <v>238.353271484375</v>
       </c>
       <c r="Z2" t="n">
-        <v>352.2441101074219</v>
+        <v>241.0313415527344</v>
       </c>
       <c r="AA2" t="n">
-        <v>352.2457275390625</v>
+        <v>243.5456695556641</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.2471923828125</v>
+        <v>245.7817077636719</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.2489013671875</v>
+        <v>247.5886383056641</v>
       </c>
       <c r="AD2" t="n">
-        <v>352.2506408691406</v>
+        <v>249.9615173339844</v>
       </c>
       <c r="AE2" t="n">
-        <v>352.2513427734375</v>
+        <v>252.7147216796875</v>
       </c>
       <c r="AF2" t="n">
-        <v>352.251953125</v>
+        <v>255.4171600341797</v>
       </c>
       <c r="AG2" t="n">
-        <v>352.2526550292969</v>
+        <v>257.97607421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>352.2532958984375</v>
+        <v>260.0272521972656</v>
       </c>
       <c r="AI2" t="n">
-        <v>352.2538452148438</v>
+        <v>261.9876403808594</v>
       </c>
       <c r="AJ2" t="n">
-        <v>352.25439453125</v>
+        <v>263.9866333007812</v>
       </c>
       <c r="AK2" t="n">
-        <v>352.2544555664062</v>
+        <v>265.6824340820312</v>
       </c>
       <c r="AL2" t="n">
-        <v>352.2542724609375</v>
+        <v>268.0779418945312</v>
       </c>
       <c r="AM2" t="n">
-        <v>352.2511291503906</v>
+        <v>270.5730590820312</v>
       </c>
       <c r="AN2" t="n">
-        <v>352.2491760253906</v>
+        <v>273.3886413574219</v>
       </c>
       <c r="AO2" t="n">
-        <v>352.2469787597656</v>
+        <v>276.0224914550781</v>
       </c>
       <c r="AP2" t="n">
-        <v>352.2493896484375</v>
+        <v>278.8183288574219</v>
       </c>
       <c r="AQ2" t="n">
-        <v>353.1055297851562</v>
+        <v>281.8262939453125</v>
       </c>
       <c r="AR2" t="n">
-        <v>364.6217651367188</v>
+        <v>284.8950500488281</v>
       </c>
       <c r="AS2" t="n">
-        <v>370.9256591796875</v>
+        <v>287.9283752441406</v>
       </c>
       <c r="AT2" t="n">
-        <v>383.5429382324219</v>
+        <v>290.1817626953125</v>
       </c>
       <c r="AU2" t="n">
-        <v>389.5974426269531</v>
+        <v>291.6988220214844</v>
       </c>
       <c r="AV2" t="n">
-        <v>394.4390563964844</v>
+        <v>293.0208129882812</v>
       </c>
       <c r="AW2" t="n">
-        <v>399.8763427734375</v>
+        <v>294.2611389160156</v>
       </c>
       <c r="AX2" t="n">
-        <v>406.3351440429688</v>
+        <v>295.5139770507812</v>
       </c>
       <c r="AY2" t="n">
-        <v>412.6824340820312</v>
+        <v>296.4040832519531</v>
       </c>
       <c r="AZ2" t="n">
-        <v>418.2780456542969</v>
+        <v>297.0966491699219</v>
       </c>
       <c r="BA2" t="n">
-        <v>422.7349243164062</v>
+        <v>297.7236328125</v>
       </c>
       <c r="BB2" t="n">
-        <v>427.8653564453125</v>
+        <v>298.7440185546875</v>
       </c>
       <c r="BC2" t="n">
-        <v>432.6830749511719</v>
+        <v>300.4290466308594</v>
       </c>
       <c r="BD2" t="n">
-        <v>436.4465026855469</v>
+        <v>302.8448486328125</v>
       </c>
       <c r="BE2" t="n">
-        <v>440.9082641601562</v>
+        <v>304.8809814453125</v>
       </c>
       <c r="BF2" t="n">
-        <v>442.8782653808594</v>
+        <v>306.8573303222656</v>
       </c>
       <c r="BG2" t="n">
-        <v>443.0508728027344</v>
+        <v>308.8154907226562</v>
       </c>
       <c r="BH2" t="n">
-        <v>440.4017639160156</v>
+        <v>311.3588562011719</v>
       </c>
       <c r="BI2" t="n">
-        <v>437.5767822265625</v>
+        <v>315.6315002441406</v>
       </c>
       <c r="BJ2" t="n">
-        <v>422.5805053710938</v>
+        <v>317.8273010253906</v>
       </c>
       <c r="BK2" t="n">
-        <v>410.114013671875</v>
+        <v>320.233642578125</v>
       </c>
       <c r="BL2" t="n">
-        <v>401.4432373046875</v>
+        <v>323.1101684570312</v>
       </c>
       <c r="BM2" t="n">
-        <v>383.6514587402344</v>
+        <v>325.6333923339844</v>
       </c>
       <c r="BN2" t="n">
-        <v>373.8707275390625</v>
+        <v>328.0628967285156</v>
       </c>
       <c r="BO2" t="n">
-        <v>364.9746398925781</v>
+        <v>330.6294250488281</v>
       </c>
       <c r="BP2" t="n">
-        <v>356.4341430664062</v>
+        <v>333.2720336914062</v>
       </c>
       <c r="BQ2" t="n">
-        <v>348.0831298828125</v>
+        <v>335.897705078125</v>
       </c>
       <c r="BR2" t="n">
-        <v>339.432373046875</v>
+        <v>338.672119140625</v>
       </c>
       <c r="BS2" t="n">
-        <v>330.2909545898438</v>
+        <v>341.996826171875</v>
       </c>
       <c r="BT2" t="n">
-        <v>320.3232421875</v>
+        <v>345.0640258789062</v>
       </c>
       <c r="BU2" t="n">
-        <v>310.436279296875</v>
+        <v>348.583740234375</v>
       </c>
       <c r="BV2" t="n">
-        <v>301.2608642578125</v>
+        <v>351.4195556640625</v>
       </c>
       <c r="BW2" t="n">
-        <v>292.9359130859375</v>
+        <v>353.7434692382812</v>
       </c>
       <c r="BX2" t="n">
-        <v>285.396240234375</v>
+        <v>355.4692993164062</v>
       </c>
       <c r="BY2" t="n">
-        <v>278.7720031738281</v>
+        <v>357.0136108398438</v>
       </c>
       <c r="BZ2" t="n">
-        <v>272.5523986816406</v>
+        <v>358.3740844726562</v>
       </c>
       <c r="CA2" t="n">
-        <v>266.5399475097656</v>
+        <v>359.9257202148438</v>
       </c>
       <c r="CB2" t="n">
-        <v>261.2744140625</v>
+        <v>361.2053833007812</v>
       </c>
       <c r="CC2" t="n">
-        <v>256.7638244628906</v>
+        <v>362.1038208007812</v>
       </c>
       <c r="CD2" t="n">
-        <v>253.1204528808594</v>
+        <v>363.0831909179688</v>
       </c>
       <c r="CE2" t="n">
-        <v>250.198974609375</v>
+        <v>363.5556640625</v>
       </c>
       <c r="CF2" t="n">
-        <v>247.9834747314453</v>
+        <v>363.8363647460938</v>
       </c>
       <c r="CG2" t="n">
-        <v>246.6178131103516</v>
+        <v>363.871826171875</v>
       </c>
       <c r="CH2" t="n">
-        <v>246.1305847167969</v>
+        <v>364.0370483398438</v>
       </c>
       <c r="CI2" t="n">
-        <v>246.3993682861328</v>
+        <v>364.4430847167969</v>
       </c>
       <c r="CJ2" t="n">
-        <v>248.0825653076172</v>
+        <v>364.8605651855469</v>
       </c>
       <c r="CK2" t="n">
-        <v>251.229736328125</v>
+        <v>364.9896850585938</v>
       </c>
       <c r="CL2" t="n">
-        <v>255.7745056152344</v>
+        <v>364.8401489257812</v>
       </c>
       <c r="CM2" t="n">
-        <v>261.5281066894531</v>
+        <v>364.5097351074219</v>
       </c>
       <c r="CN2" t="n">
-        <v>268.0941162109375</v>
+        <v>363.4776306152344</v>
       </c>
       <c r="CO2" t="n">
-        <v>274.8761901855469</v>
+        <v>362.14306640625</v>
       </c>
       <c r="CP2" t="n">
-        <v>281.9470825195312</v>
+        <v>360.6751098632812</v>
       </c>
       <c r="CQ2" t="n">
-        <v>292.7419128417969</v>
+        <v>359.2703857421875</v>
       </c>
       <c r="CR2" t="n">
-        <v>310.0544128417969</v>
+        <v>357.268310546875</v>
       </c>
       <c r="CS2" t="n">
-        <v>316.1610717773438</v>
+        <v>355.526611328125</v>
       </c>
       <c r="CT2" t="n">
-        <v>323.7962036132812</v>
+        <v>353.7498474121094</v>
       </c>
       <c r="CU2" t="n">
-        <v>332.5501708984375</v>
+        <v>351.836669921875</v>
       </c>
       <c r="CV2" t="n">
-        <v>341.8785400390625</v>
+        <v>350.0171508789062</v>
       </c>
       <c r="CW2" t="n">
-        <v>349.8691101074219</v>
+        <v>348.2441711425781</v>
       </c>
       <c r="CX2" t="n">
-        <v>355.8790588378906</v>
+        <v>346.9977416992188</v>
       </c>
       <c r="CY2" t="n">
-        <v>361.9752502441406</v>
+        <v>344.8511352539062</v>
       </c>
       <c r="CZ2" t="n">
-        <v>367.7807006835938</v>
+        <v>343.6901550292969</v>
       </c>
       <c r="DA2" t="n">
-        <v>374.1140747070312</v>
+        <v>341.535888671875</v>
       </c>
       <c r="DB2" t="n">
-        <v>386.1073608398438</v>
+        <v>340.4913635253906</v>
       </c>
       <c r="DC2" t="n">
-        <v>390.510986328125</v>
+        <v>339.4214477539062</v>
       </c>
       <c r="DD2" t="n">
-        <v>395.021484375</v>
+        <v>338.4933471679688</v>
       </c>
       <c r="DE2" t="n">
-        <v>398.8941040039062</v>
+        <v>337.66162109375</v>
       </c>
       <c r="DF2" t="n">
-        <v>402.1140747070312</v>
+        <v>336.9395141601562</v>
       </c>
       <c r="DG2" t="n">
-        <v>404.8919982910156</v>
+        <v>336.297119140625</v>
       </c>
       <c r="DH2" t="n">
-        <v>408.2734680175781</v>
+        <v>335.4472351074219</v>
       </c>
       <c r="DI2" t="n">
-        <v>409.4061889648438</v>
+        <v>335.1712646484375</v>
       </c>
       <c r="DJ2" t="n">
-        <v>410.3597412109375</v>
+        <v>334.9231567382812</v>
       </c>
       <c r="DK2" t="n">
-        <v>411.181884765625</v>
+        <v>334.7005615234375</v>
       </c>
       <c r="DL2" t="n">
-        <v>411.7933349609375</v>
+        <v>334.4437866210938</v>
       </c>
       <c r="DM2" t="n">
-        <v>410.62158203125</v>
+        <v>334.1815490722656</v>
       </c>
       <c r="DN2" t="n">
-        <v>406.1096496582031</v>
+        <v>333.8660278320312</v>
       </c>
       <c r="DO2" t="n">
-        <v>397.6851806640625</v>
+        <v>333.427978515625</v>
       </c>
       <c r="DP2" t="n">
-        <v>394.4901123046875</v>
+        <v>333.2262573242188</v>
       </c>
       <c r="DQ2" t="n">
-        <v>385.7497863769531</v>
+        <v>332.9921264648438</v>
       </c>
       <c r="DR2" t="n">
-        <v>381.6586303710938</v>
+        <v>332.8769226074219</v>
       </c>
       <c r="DS2" t="n">
-        <v>378.3948364257812</v>
+        <v>332.8388061523438</v>
       </c>
       <c r="DT2" t="n">
-        <v>372.3619995117188</v>
+        <v>332.6642456054688</v>
       </c>
       <c r="DU2" t="n">
-        <v>369.0711669921875</v>
+        <v>332.5985717773438</v>
       </c>
       <c r="DV2" t="n">
-        <v>365.3921813964844</v>
+        <v>332.5701599121094</v>
       </c>
       <c r="DW2" t="n">
-        <v>358.0328369140625</v>
+        <v>332.5503234863281</v>
       </c>
       <c r="DX2" t="n">
-        <v>354.396728515625</v>
+        <v>332.5463256835938</v>
       </c>
       <c r="DY2" t="n">
-        <v>347.1162109375</v>
+        <v>332.546142578125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>343.648681640625</v>
+        <v>332.5498046875</v>
       </c>
       <c r="EA2" t="n">
-        <v>336.496826171875</v>
+        <v>332.6261596679688</v>
       </c>
       <c r="EB2" t="n">
-        <v>327.8500061035156</v>
+        <v>332.7085876464844</v>
       </c>
       <c r="EC2" t="n">
-        <v>323.6160888671875</v>
+        <v>333.2283935546875</v>
       </c>
       <c r="ED2" t="n">
-        <v>317.7348327636719</v>
+        <v>333.6481018066406</v>
       </c>
       <c r="EE2" t="n">
-        <v>316.12060546875</v>
+        <v>335.4000244140625</v>
       </c>
       <c r="EF2" t="n">
-        <v>316.3849487304688</v>
+        <v>336.0489501953125</v>
       </c>
       <c r="EG2" t="n">
-        <v>325.5960693359375</v>
+        <v>336.7107543945312</v>
       </c>
       <c r="EH2" t="n">
-        <v>337.8317260742188</v>
+        <v>336.9231567382812</v>
       </c>
       <c r="EI2" t="n">
-        <v>341.74951171875</v>
+        <v>337.3646850585938</v>
       </c>
       <c r="EJ2" t="n">
-        <v>345.0347290039062</v>
+        <v>337.6235961914062</v>
       </c>
       <c r="EK2" t="n">
-        <v>353.4436645507812</v>
+        <v>338.2644958496094</v>
       </c>
       <c r="EL2" t="n">
-        <v>358.8992309570312</v>
+        <v>338.7137451171875</v>
       </c>
       <c r="EM2" t="n">
-        <v>366.1764221191406</v>
+        <v>339.3253173828125</v>
       </c>
       <c r="EN2" t="n">
-        <v>367.803466796875</v>
+        <v>340.0014953613281</v>
       </c>
       <c r="EO2" t="n">
-        <v>369.9595642089844</v>
+        <v>340.4996337890625</v>
       </c>
       <c r="EP2" t="n">
-        <v>370.9777221679688</v>
+        <v>340.8276977539062</v>
       </c>
       <c r="EQ2" t="n">
-        <v>371.6064147949219</v>
+        <v>340.9244384765625</v>
       </c>
       <c r="ER2" t="n">
-        <v>370.678466796875</v>
+        <v>341.0437316894531</v>
       </c>
       <c r="ES2" t="n">
-        <v>368.4800720214844</v>
+        <v>341.0755920410156</v>
       </c>
       <c r="ET2" t="n">
-        <v>358.4915466308594</v>
+        <v>341.100830078125</v>
       </c>
       <c r="EU2" t="n">
-        <v>345.0361328125</v>
+        <v>341.106689453125</v>
       </c>
       <c r="EV2" t="n">
-        <v>334.552734375</v>
+        <v>341.1044311523438</v>
       </c>
       <c r="EW2" t="n">
-        <v>317.1358337402344</v>
+        <v>341.098876953125</v>
       </c>
       <c r="EX2" t="n">
-        <v>312.5553894042969</v>
+        <v>341.0951538085938</v>
       </c>
       <c r="EY2" t="n">
-        <v>309.1636352539062</v>
+        <v>341.0933837890625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>302.795654296875</v>
+        <v>341.0956420898438</v>
       </c>
       <c r="FA2" t="n">
-        <v>294.6498107910156</v>
+        <v>341.0994873046875</v>
       </c>
       <c r="FB2" t="n">
-        <v>290.5750122070312</v>
+        <v>341.1002807617188</v>
       </c>
       <c r="FC2" t="n">
-        <v>284.8035888671875</v>
+        <v>341.1007995605469</v>
       </c>
       <c r="FD2" t="n">
-        <v>283.5967712402344</v>
+        <v>341.1031494140625</v>
       </c>
       <c r="FE2" t="n">
-        <v>282.7966613769531</v>
+        <v>341.1130981445312</v>
       </c>
       <c r="FF2" t="n">
-        <v>282.5902404785156</v>
+        <v>341.1304321289062</v>
       </c>
       <c r="FG2" t="n">
-        <v>284.7732543945312</v>
+        <v>341.1395874023438</v>
       </c>
       <c r="FH2" t="n">
-        <v>292.156982421875</v>
+        <v>341.1181030273438</v>
       </c>
       <c r="FI2" t="n">
-        <v>297.678955078125</v>
+        <v>341.1001586914062</v>
       </c>
       <c r="FJ2" t="n">
-        <v>306.9906921386719</v>
+        <v>341.1143798828125</v>
       </c>
       <c r="FK2" t="n">
-        <v>324.1082153320312</v>
+        <v>341.2100830078125</v>
       </c>
       <c r="FL2" t="n">
-        <v>329.4227905273438</v>
+        <v>341.2720336914062</v>
       </c>
       <c r="FM2" t="n">
-        <v>340.9721374511719</v>
+        <v>341.3890380859375</v>
       </c>
       <c r="FN2" t="n">
-        <v>355.2725219726562</v>
+        <v>341.455322265625</v>
       </c>
       <c r="FO2" t="n">
-        <v>361.9519653320312</v>
+        <v>341.4929809570312</v>
       </c>
       <c r="FP2" t="n">
-        <v>367.0992431640625</v>
+        <v>341.535400390625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>377.0331420898438</v>
+        <v>341.563720703125</v>
       </c>
       <c r="FR2" t="n">
-        <v>381.7159423828125</v>
+        <v>341.5750732421875</v>
       </c>
       <c r="FS2" t="n">
-        <v>389.895263671875</v>
+        <v>341.610107421875</v>
       </c>
       <c r="FT2" t="n">
-        <v>396.4261474609375</v>
+        <v>341.6296997070312</v>
       </c>
       <c r="FU2" t="n">
-        <v>400.9095458984375</v>
+        <v>341.6838989257812</v>
       </c>
       <c r="FV2" t="n">
-        <v>402.12060546875</v>
+        <v>341.7145080566406</v>
       </c>
       <c r="FW2" t="n">
-        <v>403.4423828125</v>
+        <v>341.8226623535156</v>
       </c>
       <c r="FX2" t="n">
-        <v>403.3906860351562</v>
+        <v>341.8554992675781</v>
       </c>
       <c r="FY2" t="n">
-        <v>403.095703125</v>
+        <v>341.87109375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>402.5817565917969</v>
+        <v>341.8742065429688</v>
       </c>
       <c r="GA2" t="n">
-        <v>398.9695739746094</v>
+        <v>341.849853515625</v>
       </c>
       <c r="GB2" t="n">
-        <v>393.4578247070312</v>
+        <v>341.8193969726562</v>
       </c>
       <c r="GC2" t="n">
-        <v>372.900390625</v>
+        <v>341.7528686523438</v>
       </c>
       <c r="GD2" t="n">
-        <v>360.7680053710938</v>
+        <v>341.6690673828125</v>
       </c>
       <c r="GE2" t="n">
-        <v>340.0858764648438</v>
+        <v>341.6210327148438</v>
       </c>
       <c r="GF2" t="n">
-        <v>325.69970703125</v>
+        <v>341.523681640625</v>
       </c>
       <c r="GG2" t="n">
-        <v>314.9770812988281</v>
+        <v>341.4812622070312</v>
       </c>
       <c r="GH2" t="n">
-        <v>307.1267700195312</v>
+        <v>341.3797302246094</v>
       </c>
       <c r="GI2" t="n">
-        <v>304.2978210449219</v>
+        <v>341.1107788085938</v>
       </c>
       <c r="GJ2" t="n">
-        <v>302.0249328613281</v>
+        <v>340.9754028320312</v>
       </c>
       <c r="GK2" t="n">
-        <v>298.0816650390625</v>
+        <v>340.7424621582031</v>
       </c>
       <c r="GL2" t="n">
-        <v>296.5686950683594</v>
+        <v>340.6204833984375</v>
       </c>
       <c r="GM2" t="n">
-        <v>294.7109985351562</v>
+        <v>340.4865112304688</v>
       </c>
       <c r="GN2" t="n">
-        <v>293.3538208007812</v>
+        <v>340.1119384765625</v>
       </c>
       <c r="GO2" t="n">
-        <v>292.78271484375</v>
+        <v>339.5749206542969</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>338.4284973144531</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>337.2790832519531</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>336.7193298339844</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>336.4360961914062</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>335.8499755859375</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>335.4075927734375</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>334.5288696289062</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>333.8098754882812</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>333.1775207519531</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>331.6310119628906</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>330.431640625</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>329.8009643554688</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>328.9248352050781</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>328.0241394042969</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>327.52978515625</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>326.2521057128906</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>326.1134643554688</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>326.0429077148438</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>326.0032653808594</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>325.7549438476562</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>325.6021423339844</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>325.331298828125</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>325.108154296875</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>324.8552856445312</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>324.6368408203125</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>323.9453735351562</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>321.7583618164062</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>318.9164123535156</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>315.9031372070312</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>312.5338134765625</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>308.322021484375</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>303.0368957519531</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>299.8037109375</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>292.4867248535156</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>285.4908752441406</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>280.2031860351562</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>275.546142578125</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>272.3576049804688</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>267.8650207519531</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>266.4813842773438</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>264.2442932128906</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>262.4927978515625</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>260.7848815917969</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>260.5970764160156</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>264.4114074707031</v>
+      </c>
+      <c r="II2" t="n">
+        <v>266.4906616210938</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>268.2469787597656</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>274.5996704101562</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>281.5523681640625</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>286.7675476074219</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>281.3580627441406</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>273.5006713867188</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>256.279052734375</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>242.0520324707031</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>235.8917999267578</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>237.6262512207031</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>237.3899993896484</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>227.9197387695312</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>214.0585021972656</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>194.9359283447266</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>177.9980163574219</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>161.7503051757812</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>155.4960327148438</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>157.7011871337891</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>169.05029296875</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>177.0022888183594</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>185.7939453125</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>193.9248657226562</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>202.3449554443359</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>215.8274078369141</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>220.6724243164062</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>221.7376556396484</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>217.8498992919922</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>209.2392883300781</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>203.9213409423828</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>197.7189025878906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>145.4246978759766</v>
       </c>
       <c r="B3" t="n">
-        <v>308.0721435546875</v>
+        <v>145.294921875</v>
       </c>
       <c r="C3" t="n">
-        <v>303.2886657714844</v>
+        <v>145.2946014404297</v>
       </c>
       <c r="D3" t="n">
-        <v>300.9084777832031</v>
+        <v>145.2913208007812</v>
       </c>
       <c r="E3" t="n">
-        <v>300.1651611328125</v>
+        <v>145.2903747558594</v>
       </c>
       <c r="F3" t="n">
-        <v>299.9792785644531</v>
+        <v>145.2900543212891</v>
       </c>
       <c r="G3" t="n">
-        <v>299.974609375</v>
+        <v>145.2911682128906</v>
       </c>
       <c r="H3" t="n">
-        <v>299.9944152832031</v>
+        <v>145.2916107177734</v>
       </c>
       <c r="I3" t="n">
-        <v>300.0446166992188</v>
+        <v>145.2918701171875</v>
       </c>
       <c r="J3" t="n">
-        <v>300.0942077636719</v>
+        <v>145.2920379638672</v>
       </c>
       <c r="K3" t="n">
-        <v>300.1430358886719</v>
+        <v>145.2924957275391</v>
       </c>
       <c r="L3" t="n">
-        <v>300.1949462890625</v>
+        <v>145.2715911865234</v>
       </c>
       <c r="M3" t="n">
-        <v>300.25146484375</v>
+        <v>145.2483825683594</v>
       </c>
       <c r="N3" t="n">
-        <v>300.3078002929688</v>
+        <v>145.2266845703125</v>
       </c>
       <c r="O3" t="n">
-        <v>300.3654174804688</v>
+        <v>145.2050170898438</v>
       </c>
       <c r="P3" t="n">
-        <v>300.4212646484375</v>
+        <v>145.1784820556641</v>
       </c>
       <c r="Q3" t="n">
-        <v>300.4727783203125</v>
+        <v>145.1463775634766</v>
       </c>
       <c r="R3" t="n">
-        <v>300.5221557617188</v>
+        <v>145.1114196777344</v>
       </c>
       <c r="S3" t="n">
-        <v>300.5704040527344</v>
+        <v>145.0635986328125</v>
       </c>
       <c r="T3" t="n">
-        <v>300.6195678710938</v>
+        <v>144.8493194580078</v>
       </c>
       <c r="U3" t="n">
-        <v>300.6657104492188</v>
+        <v>144.4815673828125</v>
       </c>
       <c r="V3" t="n">
-        <v>300.7177124023438</v>
+        <v>143.9826812744141</v>
       </c>
       <c r="W3" t="n">
-        <v>300.7638549804688</v>
+        <v>143.4457550048828</v>
       </c>
       <c r="X3" t="n">
-        <v>300.8174743652344</v>
+        <v>142.9214172363281</v>
       </c>
       <c r="Y3" t="n">
-        <v>300.8691101074219</v>
+        <v>142.5291290283203</v>
       </c>
       <c r="Z3" t="n">
-        <v>300.9186706542969</v>
+        <v>142.1825714111328</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.9686584472656</v>
+        <v>141.8057098388672</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.0171203613281</v>
+        <v>141.4955902099609</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.0632629394531</v>
+        <v>141.3248596191406</v>
       </c>
       <c r="AD3" t="n">
-        <v>301.1089477539062</v>
+        <v>141.265869140625</v>
       </c>
       <c r="AE3" t="n">
-        <v>301.1584777832031</v>
+        <v>141.1547393798828</v>
       </c>
       <c r="AF3" t="n">
-        <v>301.2041320800781</v>
+        <v>140.9943695068359</v>
       </c>
       <c r="AG3" t="n">
-        <v>301.2450866699219</v>
+        <v>140.8373260498047</v>
       </c>
       <c r="AH3" t="n">
-        <v>301.2866821289062</v>
+        <v>140.7846221923828</v>
       </c>
       <c r="AI3" t="n">
-        <v>301.3258361816406</v>
+        <v>140.8581085205078</v>
       </c>
       <c r="AJ3" t="n">
-        <v>301.367431640625</v>
+        <v>140.931396484375</v>
       </c>
       <c r="AK3" t="n">
-        <v>301.4116821289062</v>
+        <v>141.2986755371094</v>
       </c>
       <c r="AL3" t="n">
-        <v>301.4798583984375</v>
+        <v>142.1378479003906</v>
       </c>
       <c r="AM3" t="n">
-        <v>301.5980224609375</v>
+        <v>143.501220703125</v>
       </c>
       <c r="AN3" t="n">
-        <v>301.6498107910156</v>
+        <v>145.0883331298828</v>
       </c>
       <c r="AO3" t="n">
-        <v>301.6948852539062</v>
+        <v>146.8675384521484</v>
       </c>
       <c r="AP3" t="n">
-        <v>301.6520080566406</v>
+        <v>148.7024993896484</v>
       </c>
       <c r="AQ3" t="n">
-        <v>301.5346984863281</v>
+        <v>150.7093048095703</v>
       </c>
       <c r="AR3" t="n">
-        <v>300.735107421875</v>
+        <v>152.9858856201172</v>
       </c>
       <c r="AS3" t="n">
-        <v>300.2826538085938</v>
+        <v>156.6077880859375</v>
       </c>
       <c r="AT3" t="n">
-        <v>299.354736328125</v>
+        <v>161.7565155029297</v>
       </c>
       <c r="AU3" t="n">
-        <v>298.860595703125</v>
+        <v>168.1164855957031</v>
       </c>
       <c r="AV3" t="n">
-        <v>298.4051818847656</v>
+        <v>178.9489593505859</v>
       </c>
       <c r="AW3" t="n">
-        <v>297.9654541015625</v>
+        <v>189.5704345703125</v>
       </c>
       <c r="AX3" t="n">
-        <v>297.5469970703125</v>
+        <v>195.8357849121094</v>
       </c>
       <c r="AY3" t="n">
-        <v>297.0898742675781</v>
+        <v>199.4583587646484</v>
       </c>
       <c r="AZ3" t="n">
-        <v>296.6133422851562</v>
+        <v>201.7449035644531</v>
       </c>
       <c r="BA3" t="n">
-        <v>296.0952758789062</v>
+        <v>203.4808349609375</v>
       </c>
       <c r="BB3" t="n">
-        <v>295.4403381347656</v>
+        <v>204.7205047607422</v>
       </c>
       <c r="BC3" t="n">
-        <v>294.6879577636719</v>
+        <v>205.6554870605469</v>
       </c>
       <c r="BD3" t="n">
-        <v>293.9972229003906</v>
+        <v>205.8956756591797</v>
       </c>
       <c r="BE3" t="n">
-        <v>293.0699768066406</v>
+        <v>205.8173065185547</v>
       </c>
       <c r="BF3" t="n">
-        <v>292.7955932617188</v>
+        <v>204.7763214111328</v>
       </c>
       <c r="BG3" t="n">
-        <v>292.717529296875</v>
+        <v>203.5793609619141</v>
       </c>
       <c r="BH3" t="n">
-        <v>292.5896911621094</v>
+        <v>203.1293029785156</v>
       </c>
       <c r="BI3" t="n">
-        <v>292.4973754882812</v>
+        <v>203.9576416015625</v>
       </c>
       <c r="BJ3" t="n">
-        <v>293.0103454589844</v>
+        <v>205.2899169921875</v>
       </c>
       <c r="BK3" t="n">
-        <v>294.0043334960938</v>
+        <v>206.8511199951172</v>
       </c>
       <c r="BL3" t="n">
-        <v>294.7514953613281</v>
+        <v>208.67626953125</v>
       </c>
       <c r="BM3" t="n">
-        <v>296.6427612304688</v>
+        <v>210.4005432128906</v>
       </c>
       <c r="BN3" t="n">
-        <v>297.5148010253906</v>
+        <v>211.9612121582031</v>
       </c>
       <c r="BO3" t="n">
-        <v>298.2003479003906</v>
+        <v>213.7895202636719</v>
       </c>
       <c r="BP3" t="n">
-        <v>299.0987548828125</v>
+        <v>215.5179443359375</v>
       </c>
       <c r="BQ3" t="n">
-        <v>300.2165222167969</v>
+        <v>217.3070831298828</v>
       </c>
       <c r="BR3" t="n">
-        <v>301.1137084960938</v>
+        <v>218.8912963867188</v>
       </c>
       <c r="BS3" t="n">
-        <v>301.6585388183594</v>
+        <v>221.0885162353516</v>
       </c>
       <c r="BT3" t="n">
-        <v>302.17578125</v>
+        <v>223.7475891113281</v>
       </c>
       <c r="BU3" t="n">
-        <v>302.4139404296875</v>
+        <v>225.5182495117188</v>
       </c>
       <c r="BV3" t="n">
-        <v>302.4392700195312</v>
+        <v>226.8177032470703</v>
       </c>
       <c r="BW3" t="n">
-        <v>302.3763427734375</v>
+        <v>227.5655059814453</v>
       </c>
       <c r="BX3" t="n">
-        <v>302.3518981933594</v>
+        <v>228.0747222900391</v>
       </c>
       <c r="BY3" t="n">
-        <v>302.2828369140625</v>
+        <v>228.5721893310547</v>
       </c>
       <c r="BZ3" t="n">
-        <v>302.2978515625</v>
+        <v>229.1517181396484</v>
       </c>
       <c r="CA3" t="n">
-        <v>302.4518737792969</v>
+        <v>229.9473266601562</v>
       </c>
       <c r="CB3" t="n">
-        <v>302.6177978515625</v>
+        <v>230.3929901123047</v>
       </c>
       <c r="CC3" t="n">
-        <v>302.7442321777344</v>
+        <v>230.6572570800781</v>
       </c>
       <c r="CD3" t="n">
-        <v>302.8223571777344</v>
+        <v>230.8106231689453</v>
       </c>
       <c r="CE3" t="n">
-        <v>302.9269409179688</v>
+        <v>230.7711639404297</v>
       </c>
       <c r="CF3" t="n">
-        <v>303.002197265625</v>
+        <v>230.6259460449219</v>
       </c>
       <c r="CG3" t="n">
-        <v>302.9617309570312</v>
+        <v>230.6018829345703</v>
       </c>
       <c r="CH3" t="n">
-        <v>302.8566284179688</v>
+        <v>230.6475830078125</v>
       </c>
       <c r="CI3" t="n">
-        <v>302.6258544921875</v>
+        <v>230.6856842041016</v>
       </c>
       <c r="CJ3" t="n">
-        <v>302.2590942382812</v>
+        <v>230.7225646972656</v>
       </c>
       <c r="CK3" t="n">
-        <v>300.7314453125</v>
+        <v>231.1040802001953</v>
       </c>
       <c r="CL3" t="n">
-        <v>298.995361328125</v>
+        <v>232.0380706787109</v>
       </c>
       <c r="CM3" t="n">
-        <v>297.0443115234375</v>
+        <v>232.8690185546875</v>
       </c>
       <c r="CN3" t="n">
-        <v>295.3864440917969</v>
+        <v>233.7661743164062</v>
       </c>
       <c r="CO3" t="n">
-        <v>294.4646606445312</v>
+        <v>234.4109649658203</v>
       </c>
       <c r="CP3" t="n">
-        <v>293.80908203125</v>
+        <v>235.6426391601562</v>
       </c>
       <c r="CQ3" t="n">
-        <v>293.6503601074219</v>
+        <v>236.5965270996094</v>
       </c>
       <c r="CR3" t="n">
-        <v>293.4691467285156</v>
+        <v>237.495361328125</v>
       </c>
       <c r="CS3" t="n">
-        <v>293.3966674804688</v>
+        <v>238.4571685791016</v>
       </c>
       <c r="CT3" t="n">
-        <v>293.3353271484375</v>
+        <v>238.8718414306641</v>
       </c>
       <c r="CU3" t="n">
-        <v>293.2345886230469</v>
+        <v>239.0801696777344</v>
       </c>
       <c r="CV3" t="n">
-        <v>293.1300659179688</v>
+        <v>239.21240234375</v>
       </c>
       <c r="CW3" t="n">
-        <v>293.0540466308594</v>
+        <v>239.2611236572266</v>
       </c>
       <c r="CX3" t="n">
-        <v>292.9990234375</v>
+        <v>239.3101196289062</v>
       </c>
       <c r="CY3" t="n">
-        <v>292.9353942871094</v>
+        <v>239.6656494140625</v>
       </c>
       <c r="CZ3" t="n">
-        <v>292.8378295898438</v>
+        <v>239.9780731201172</v>
       </c>
       <c r="DA3" t="n">
-        <v>292.7725524902344</v>
+        <v>240.77099609375</v>
       </c>
       <c r="DB3" t="n">
-        <v>292.72021484375</v>
+        <v>241.3585815429688</v>
       </c>
       <c r="DC3" t="n">
-        <v>292.7664489746094</v>
+        <v>241.9363403320312</v>
       </c>
       <c r="DD3" t="n">
-        <v>292.8087768554688</v>
+        <v>242.4027404785156</v>
       </c>
       <c r="DE3" t="n">
-        <v>292.8829040527344</v>
+        <v>242.5966033935547</v>
       </c>
       <c r="DF3" t="n">
-        <v>293.0210876464844</v>
+        <v>242.7203979492188</v>
       </c>
       <c r="DG3" t="n">
-        <v>293.2002563476562</v>
+        <v>242.8459167480469</v>
       </c>
       <c r="DH3" t="n">
-        <v>293.752685546875</v>
+        <v>242.8919830322266</v>
       </c>
       <c r="DI3" t="n">
-        <v>294.1934204101562</v>
+        <v>242.9300537109375</v>
       </c>
       <c r="DJ3" t="n">
-        <v>294.7024536132812</v>
+        <v>242.9424743652344</v>
       </c>
       <c r="DK3" t="n">
-        <v>295.1507873535156</v>
+        <v>242.9769592285156</v>
       </c>
       <c r="DL3" t="n">
-        <v>295.6413269042969</v>
+        <v>243.0298461914062</v>
       </c>
       <c r="DM3" t="n">
-        <v>296.0425415039062</v>
+        <v>243.0692443847656</v>
       </c>
       <c r="DN3" t="n">
-        <v>296.3302917480469</v>
+        <v>243.0896759033203</v>
       </c>
       <c r="DO3" t="n">
-        <v>294.6943359375</v>
+        <v>243.1048126220703</v>
       </c>
       <c r="DP3" t="n">
-        <v>291.25732421875</v>
+        <v>243.1355590820312</v>
       </c>
       <c r="DQ3" t="n">
-        <v>278.602783203125</v>
+        <v>243.2321472167969</v>
       </c>
       <c r="DR3" t="n">
-        <v>271.3196411132812</v>
+        <v>243.2791290283203</v>
       </c>
       <c r="DS3" t="n">
-        <v>263.8619079589844</v>
+        <v>243.2992248535156</v>
       </c>
       <c r="DT3" t="n">
-        <v>250.4811248779297</v>
+        <v>243.3112640380859</v>
       </c>
       <c r="DU3" t="n">
-        <v>243.5661468505859</v>
+        <v>243.3170928955078</v>
       </c>
       <c r="DV3" t="n">
-        <v>236.4563751220703</v>
+        <v>243.3189544677734</v>
       </c>
       <c r="DW3" t="n">
-        <v>221.8142700195312</v>
+        <v>243.3190460205078</v>
       </c>
       <c r="DX3" t="n">
-        <v>215.2300872802734</v>
+        <v>243.3212432861328</v>
       </c>
       <c r="DY3" t="n">
-        <v>205.9240570068359</v>
+        <v>243.321044921875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>203.9268493652344</v>
+        <v>243.2913208007812</v>
       </c>
       <c r="EA3" t="n">
-        <v>204.2128448486328</v>
+        <v>243.2649078369141</v>
       </c>
       <c r="EB3" t="n">
-        <v>212.6065368652344</v>
+        <v>243.2234497070312</v>
       </c>
       <c r="EC3" t="n">
-        <v>219.5530548095703</v>
+        <v>243.1280364990234</v>
       </c>
       <c r="ED3" t="n">
-        <v>243.6417388916016</v>
+        <v>243.1065826416016</v>
       </c>
       <c r="EE3" t="n">
-        <v>269.4738159179688</v>
+        <v>243.1533050537109</v>
       </c>
       <c r="EF3" t="n">
-        <v>278.5222778320312</v>
+        <v>243.2246856689453</v>
       </c>
       <c r="EG3" t="n">
-        <v>300.1124572753906</v>
+        <v>243.2723541259766</v>
       </c>
       <c r="EH3" t="n">
-        <v>310.896240234375</v>
+        <v>243.2741546630859</v>
       </c>
       <c r="EI3" t="n">
-        <v>313.5684509277344</v>
+        <v>243.2758941650391</v>
       </c>
       <c r="EJ3" t="n">
-        <v>315.5291137695312</v>
+        <v>243.27587890625</v>
       </c>
       <c r="EK3" t="n">
-        <v>318.688232421875</v>
+        <v>243.2814483642578</v>
       </c>
       <c r="EL3" t="n">
-        <v>318.9319458007812</v>
+        <v>243.2858581542969</v>
       </c>
       <c r="EM3" t="n">
-        <v>317.5650939941406</v>
+        <v>243.2888946533203</v>
       </c>
       <c r="EN3" t="n">
-        <v>316.5226745605469</v>
+        <v>243.1851501464844</v>
       </c>
       <c r="EO3" t="n">
-        <v>314.9845275878906</v>
+        <v>243.1172332763672</v>
       </c>
       <c r="EP3" t="n">
-        <v>314.6539001464844</v>
+        <v>242.9431304931641</v>
       </c>
       <c r="EQ3" t="n">
-        <v>314.3925476074219</v>
+        <v>242.8638305664062</v>
       </c>
       <c r="ER3" t="n">
-        <v>314.2809753417969</v>
+        <v>242.7282104492188</v>
       </c>
       <c r="ES3" t="n">
-        <v>314.9811096191406</v>
+        <v>242.6563415527344</v>
       </c>
       <c r="ET3" t="n">
-        <v>319.8397521972656</v>
+        <v>242.4952087402344</v>
       </c>
       <c r="EU3" t="n">
-        <v>327.9611206054688</v>
+        <v>242.4629364013672</v>
       </c>
       <c r="EV3" t="n">
-        <v>332.81689453125</v>
+        <v>242.4292602539062</v>
       </c>
       <c r="EW3" t="n">
-        <v>339.392333984375</v>
+        <v>242.3392944335938</v>
       </c>
       <c r="EX3" t="n">
-        <v>341.7049865722656</v>
+        <v>242.2820739746094</v>
       </c>
       <c r="EY3" t="n">
-        <v>343.4986877441406</v>
+        <v>242.2183532714844</v>
       </c>
       <c r="EZ3" t="n">
-        <v>345.2843017578125</v>
+        <v>242.1531219482422</v>
       </c>
       <c r="FA3" t="n">
-        <v>346.1576232910156</v>
+        <v>242.0821075439453</v>
       </c>
       <c r="FB3" t="n">
-        <v>346.6422424316406</v>
+        <v>242.0506134033203</v>
       </c>
       <c r="FC3" t="n">
-        <v>344.10791015625</v>
+        <v>242.0173950195312</v>
       </c>
       <c r="FD3" t="n">
-        <v>341.3877563476562</v>
+        <v>241.9555358886719</v>
       </c>
       <c r="FE3" t="n">
-        <v>334.5624694824219</v>
+        <v>241.8605499267578</v>
       </c>
       <c r="FF3" t="n">
-        <v>331.5149841308594</v>
+        <v>241.8115386962891</v>
       </c>
       <c r="FG3" t="n">
-        <v>327.1658935546875</v>
+        <v>241.7877349853516</v>
       </c>
       <c r="FH3" t="n">
-        <v>325.0519104003906</v>
+        <v>241.6994171142578</v>
       </c>
       <c r="FI3" t="n">
-        <v>323.8064270019531</v>
+        <v>241.6120452880859</v>
       </c>
       <c r="FJ3" t="n">
-        <v>322.2247619628906</v>
+        <v>241.5233154296875</v>
       </c>
       <c r="FK3" t="n">
-        <v>318.0439147949219</v>
+        <v>241.4692535400391</v>
       </c>
       <c r="FL3" t="n">
-        <v>316.1593322753906</v>
+        <v>241.4523620605469</v>
       </c>
       <c r="FM3" t="n">
-        <v>313.9044494628906</v>
+        <v>241.4183197021484</v>
       </c>
       <c r="FN3" t="n">
-        <v>313.3015747070312</v>
+        <v>241.4152374267578</v>
       </c>
       <c r="FO3" t="n">
-        <v>312.8976745605469</v>
+        <v>241.4147796630859</v>
       </c>
       <c r="FP3" t="n">
-        <v>312.5484619140625</v>
+        <v>241.4117736816406</v>
       </c>
       <c r="FQ3" t="n">
-        <v>311.1807861328125</v>
+        <v>241.4102325439453</v>
       </c>
       <c r="FR3" t="n">
-        <v>310.3542785644531</v>
+        <v>241.4152374267578</v>
       </c>
       <c r="FS3" t="n">
-        <v>306.7908020019531</v>
+        <v>241.4221496582031</v>
       </c>
       <c r="FT3" t="n">
-        <v>303.5730895996094</v>
+        <v>241.4196472167969</v>
       </c>
       <c r="FU3" t="n">
-        <v>299.2098693847656</v>
+        <v>241.4086608886719</v>
       </c>
       <c r="FV3" t="n">
-        <v>297.112548828125</v>
+        <v>241.4001617431641</v>
       </c>
       <c r="FW3" t="n">
-        <v>293.9968872070312</v>
+        <v>241.3832702636719</v>
       </c>
       <c r="FX3" t="n">
-        <v>292.5363159179688</v>
+        <v>241.3845672607422</v>
       </c>
       <c r="FY3" t="n">
-        <v>290.7783203125</v>
+        <v>241.3898010253906</v>
       </c>
       <c r="FZ3" t="n">
-        <v>290.3093566894531</v>
+        <v>241.3934936523438</v>
       </c>
       <c r="GA3" t="n">
-        <v>287.8675231933594</v>
+        <v>241.4058227539062</v>
       </c>
       <c r="GB3" t="n">
-        <v>286.1548767089844</v>
+        <v>241.4127502441406</v>
       </c>
       <c r="GC3" t="n">
-        <v>285.3499450683594</v>
+        <v>241.4310913085938</v>
       </c>
       <c r="GD3" t="n">
-        <v>285.2088317871094</v>
+        <v>241.4409790039062</v>
       </c>
       <c r="GE3" t="n">
-        <v>284.8919067382812</v>
+        <v>241.4439239501953</v>
       </c>
       <c r="GF3" t="n">
-        <v>284.6361083984375</v>
+        <v>241.4492492675781</v>
       </c>
       <c r="GG3" t="n">
-        <v>284.2870483398438</v>
+        <v>241.4310302734375</v>
       </c>
       <c r="GH3" t="n">
-        <v>284.01806640625</v>
+        <v>241.3667144775391</v>
       </c>
       <c r="GI3" t="n">
-        <v>283.7969055175781</v>
+        <v>241.3353881835938</v>
       </c>
       <c r="GJ3" t="n">
-        <v>283.0780029296875</v>
+        <v>241.3213653564453</v>
       </c>
       <c r="GK3" t="n">
-        <v>279.9818420410156</v>
+        <v>241.2977905273438</v>
       </c>
       <c r="GL3" t="n">
-        <v>277.5201721191406</v>
+        <v>241.2808227539062</v>
       </c>
       <c r="GM3" t="n">
-        <v>272.890869140625</v>
+        <v>241.2763824462891</v>
       </c>
       <c r="GN3" t="n">
-        <v>268.8790893554688</v>
+        <v>241.2787017822266</v>
       </c>
       <c r="GO3" t="n">
-        <v>266.7520751953125</v>
+        <v>241.2802734375</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>241.2801055908203</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>241.2738342285156</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>241.2751312255859</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>241.2779541015625</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>241.2962493896484</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>241.3072814941406</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>241.3683471679688</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>241.4419860839844</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>241.47802734375</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>241.5388793945312</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>241.3847961425781</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>241.1960754394531</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>240.9204711914062</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>239.8013610839844</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>239.4780578613281</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>238.6027069091797</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>238.5129241943359</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>238.2711944580078</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>236.7185668945312</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>231.9631195068359</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>229.4889678955078</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>226.154541015625</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>224.8697662353516</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>224.2973175048828</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>224.0069885253906</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>220.7389526367188</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>216.5922698974609</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>214.6070251464844</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>213.6226196289062</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>212.8346862792969</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>211.7566833496094</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>209.7963256835938</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>208.5498352050781</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>202.3072509765625</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>195.3145446777344</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>191.7867584228516</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>190.1170043945312</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>187.9461517333984</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>179.9113922119141</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>177.7264709472656</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>174.0259246826172</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>170.3794555664062</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>165.7384033203125</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>160.8995819091797</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>155.4045104980469</v>
+      </c>
+      <c r="II3" t="n">
+        <v>149.1682891845703</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>142.8406829833984</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>138.8302917480469</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>143.82763671875</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>157.6132507324219</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>217.8635101318359</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>256.2923889160156</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>272.612548828125</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>264.4095153808594</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>250.2119598388672</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>236.9613800048828</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>218.4082183837891</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>195.9527587890625</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>178.2371826171875</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>162.0221557617188</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>160.0196685791016</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>184.7888641357422</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>221.8826141357422</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>253.3333129882812</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>291.7667236328125</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>301.96923828125</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>296.7943115234375</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>289.5440368652344</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>286.7252502441406</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>287.3688049316406</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>290.4348754882812</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>292.5612182617188</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>294.6344909667969</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>296.9288635253906</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>298.625732421875</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>301.2367553710938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>938.6353149414062</v>
       </c>
       <c r="B4" t="n">
-        <v>1048.454833984375</v>
+        <v>938.9343872070312</v>
       </c>
       <c r="C4" t="n">
-        <v>1054.933959960938</v>
+        <v>939.0162353515625</v>
       </c>
       <c r="D4" t="n">
-        <v>1058.447631835938</v>
+        <v>939.0165405273438</v>
       </c>
       <c r="E4" t="n">
-        <v>1059.97900390625</v>
+        <v>939.0250854492188</v>
       </c>
       <c r="F4" t="n">
-        <v>1060.489013671875</v>
+        <v>939.03955078125</v>
       </c>
       <c r="G4" t="n">
-        <v>1060.4111328125</v>
+        <v>939.0540771484375</v>
       </c>
       <c r="H4" t="n">
-        <v>1060.278564453125</v>
+        <v>939.0595703125</v>
       </c>
       <c r="I4" t="n">
-        <v>1060.172729492188</v>
+        <v>939.0640869140625</v>
       </c>
       <c r="J4" t="n">
-        <v>1060.112670898438</v>
+        <v>939.06787109375</v>
       </c>
       <c r="K4" t="n">
-        <v>1060.051513671875</v>
+        <v>939.0740966796875</v>
       </c>
       <c r="L4" t="n">
-        <v>1059.989379882812</v>
+        <v>938.935791015625</v>
       </c>
       <c r="M4" t="n">
-        <v>1059.926391601562</v>
+        <v>938.7824096679688</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.859252929688</v>
+        <v>938.6397705078125</v>
       </c>
       <c r="O4" t="n">
-        <v>1059.79443359375</v>
+        <v>938.5040283203125</v>
       </c>
       <c r="P4" t="n">
-        <v>1059.726196289062</v>
+        <v>938.3440551757812</v>
       </c>
       <c r="Q4" t="n">
-        <v>1059.657958984375</v>
+        <v>938.1535034179688</v>
       </c>
       <c r="R4" t="n">
-        <v>1059.590698242188</v>
+        <v>937.9447021484375</v>
       </c>
       <c r="S4" t="n">
-        <v>1059.52197265625</v>
+        <v>937.5682983398438</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.45166015625</v>
+        <v>935.2225952148438</v>
       </c>
       <c r="U4" t="n">
-        <v>1059.387329101562</v>
+        <v>931.149658203125</v>
       </c>
       <c r="V4" t="n">
-        <v>1059.35693359375</v>
+        <v>926.1126098632812</v>
       </c>
       <c r="W4" t="n">
-        <v>1059.354858398438</v>
+        <v>920.9335327148438</v>
       </c>
       <c r="X4" t="n">
-        <v>1059.35400390625</v>
+        <v>916.0821533203125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1059.361572265625</v>
+        <v>912.0623779296875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1059.375366210938</v>
+        <v>908.2998046875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1059.39013671875</v>
+        <v>904.2611083984375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1059.403686523438</v>
+        <v>900.8627319335938</v>
       </c>
       <c r="AC4" t="n">
-        <v>1059.420288085938</v>
+        <v>898.6552124023438</v>
       </c>
       <c r="AD4" t="n">
-        <v>1059.436401367188</v>
+        <v>897.5398559570312</v>
       </c>
       <c r="AE4" t="n">
-        <v>1059.443237304688</v>
+        <v>896.319580078125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1059.449096679688</v>
+        <v>895.0607299804688</v>
       </c>
       <c r="AG4" t="n">
-        <v>1059.45556640625</v>
+        <v>894.017578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1059.461547851562</v>
+        <v>894.0679931640625</v>
       </c>
       <c r="AI4" t="n">
-        <v>1059.467163085938</v>
+        <v>895.5472412109375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1059.472412109375</v>
+        <v>896.919677734375</v>
       </c>
       <c r="AK4" t="n">
-        <v>1059.473266601562</v>
+        <v>900.5072631835938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1059.473388671875</v>
+        <v>908.093505859375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1059.473022460938</v>
+        <v>919.9351806640625</v>
       </c>
       <c r="AN4" t="n">
-        <v>1059.471801757812</v>
+        <v>933.8814697265625</v>
       </c>
       <c r="AO4" t="n">
-        <v>1059.470092773438</v>
+        <v>950.2672119140625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1059.46142578125</v>
+        <v>968.4791870117188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1060.237915039062</v>
+        <v>989.46630859375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1064.280517578125</v>
+        <v>1013.178466796875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1067.58544921875</v>
+        <v>1039.355590820312</v>
       </c>
       <c r="AT4" t="n">
-        <v>1079.898559570312</v>
+        <v>1066.494262695312</v>
       </c>
       <c r="AU4" t="n">
-        <v>1087.252319335938</v>
+        <v>1093.759765625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1093.58251953125</v>
+        <v>1133.658935546875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1098.407470703125</v>
+        <v>1175.9072265625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1102.059448242188</v>
+        <v>1214.386962890625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1105.75390625</v>
+        <v>1244.375610351562</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1110.670166015625</v>
+        <v>1268.474853515625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1115.953002929688</v>
+        <v>1289.017944335938</v>
       </c>
       <c r="BB4" t="n">
-        <v>1121.150390625</v>
+        <v>1316.1904296875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1125.194702148438</v>
+        <v>1344.698608398438</v>
       </c>
       <c r="BD4" t="n">
-        <v>1128.594604492188</v>
+        <v>1372.1416015625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1132.430419921875</v>
+        <v>1394.904907226562</v>
       </c>
       <c r="BF4" t="n">
-        <v>1133.875854492188</v>
+        <v>1414.4091796875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1134.421142578125</v>
+        <v>1434.720947265625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1136.158569335938</v>
+        <v>1451.751342773438</v>
       </c>
       <c r="BI4" t="n">
-        <v>1137.250610351562</v>
+        <v>1485.933471679688</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1138.999389648438</v>
+        <v>1501.946411132812</v>
       </c>
       <c r="BK4" t="n">
-        <v>1140.035278320312</v>
+        <v>1518.048583984375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1140.449829101562</v>
+        <v>1539.04638671875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1140.717041015625</v>
+        <v>1560.269775390625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1140.568969726562</v>
+        <v>1578.400390625</v>
       </c>
       <c r="BO4" t="n">
-        <v>1140.357421875</v>
+        <v>1596.003540039062</v>
       </c>
       <c r="BP4" t="n">
-        <v>1140.07421875</v>
+        <v>1616.646484375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1139.499267578125</v>
+        <v>1637.400756835938</v>
       </c>
       <c r="BR4" t="n">
-        <v>1138.356201171875</v>
+        <v>1657.111328125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1136.4150390625</v>
+        <v>1676.923950195312</v>
       </c>
       <c r="BT4" t="n">
-        <v>1135.166381835938</v>
+        <v>1694.299682617188</v>
       </c>
       <c r="BU4" t="n">
-        <v>1134.2705078125</v>
+        <v>1710.10009765625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1133.630249023438</v>
+        <v>1732.184936523438</v>
       </c>
       <c r="BW4" t="n">
-        <v>1133.126708984375</v>
+        <v>1757.854248046875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1132.738159179688</v>
+        <v>1783.043579101562</v>
       </c>
       <c r="BY4" t="n">
-        <v>1132.43603515625</v>
+        <v>1803.1552734375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1132.401733398438</v>
+        <v>1819.722412109375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1132.388427734375</v>
+        <v>1836.144897460938</v>
       </c>
       <c r="CB4" t="n">
-        <v>1132.340942382812</v>
+        <v>1850.302856445312</v>
       </c>
       <c r="CC4" t="n">
-        <v>1132.453125</v>
+        <v>1864.697265625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1132.536865234375</v>
+        <v>1878.33056640625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1132.670532226562</v>
+        <v>1895.59375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1132.855224609375</v>
+        <v>1913.469970703125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1133.173828125</v>
+        <v>1932.077392578125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1133.617065429688</v>
+        <v>1949.0087890625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1135.134643554688</v>
+        <v>1959.08935546875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1138.903930664062</v>
+        <v>1966.384155273438</v>
       </c>
       <c r="CK4" t="n">
-        <v>1145.672729492188</v>
+        <v>1973.57373046875</v>
       </c>
       <c r="CL4" t="n">
-        <v>1152.328979492188</v>
+        <v>1982.848999023438</v>
       </c>
       <c r="CM4" t="n">
-        <v>1158.297973632812</v>
+        <v>1993.08740234375</v>
       </c>
       <c r="CN4" t="n">
-        <v>1163.716674804688</v>
+        <v>2004.273559570312</v>
       </c>
       <c r="CO4" t="n">
-        <v>1168.162231445312</v>
+        <v>2013.707763671875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1171.104736328125</v>
+        <v>2022.740478515625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1172.645629882812</v>
+        <v>2030.503784179688</v>
       </c>
       <c r="CR4" t="n">
-        <v>1174.3779296875</v>
+        <v>2037.672485351562</v>
       </c>
       <c r="CS4" t="n">
-        <v>1175.081787109375</v>
+        <v>2045.143920898438</v>
       </c>
       <c r="CT4" t="n">
-        <v>1175.474609375</v>
+        <v>2061.173583984375</v>
       </c>
       <c r="CU4" t="n">
-        <v>1175.676635742188</v>
+        <v>2076.2900390625</v>
       </c>
       <c r="CV4" t="n">
-        <v>1175.76708984375</v>
+        <v>2089.88037109375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1175.800903320312</v>
+        <v>2099.558349609375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1175.82373046875</v>
+        <v>2109.57568359375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1175.833984375</v>
+        <v>2129.367431640625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1175.849853515625</v>
+        <v>2138.865234375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1175.804443359375</v>
+        <v>2150.8916015625</v>
       </c>
       <c r="DB4" t="n">
-        <v>1175.618286132812</v>
+        <v>2155.51513671875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1175.508178710938</v>
+        <v>2158.97021484375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1174.421142578125</v>
+        <v>2162.1865234375</v>
       </c>
       <c r="DE4" t="n">
-        <v>1172.801025390625</v>
+        <v>2164.6923828125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1169.664672851562</v>
+        <v>2166.47119140625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1165.08740234375</v>
+        <v>2169.486083984375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1151.507446289062</v>
+        <v>2176.118408203125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1142.593139648438</v>
+        <v>2177.910888671875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1133.022094726562</v>
+        <v>2178.45654296875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1123.649169921875</v>
+        <v>2179.9267578125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1114.036499023438</v>
+        <v>2181.9267578125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1104.506103515625</v>
+        <v>2183.075927734375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1092.010986328125</v>
+        <v>2183.68359375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1071.716552734375</v>
+        <v>2184.56298828125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1065.2763671875</v>
+        <v>2184.91259765625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1057.754028320312</v>
+        <v>2185.67041015625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1055.37255859375</v>
+        <v>2186.113525390625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1053.258666992188</v>
+        <v>2186.539306640625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1052.310424804688</v>
+        <v>2187.421875</v>
       </c>
       <c r="DU4" t="n">
-        <v>1053.5859375</v>
+        <v>2187.552734375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1055.475708007812</v>
+        <v>2187.66748046875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1058.873291015625</v>
+        <v>2187.8642578125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1059.883911132812</v>
+        <v>2187.848388671875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1061.075805664062</v>
+        <v>2187.8193359375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1063.437744140625</v>
+        <v>2186.975341796875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1070.375610351562</v>
+        <v>2186.378173828125</v>
       </c>
       <c r="EB4" t="n">
-        <v>1075.697265625</v>
+        <v>2185.443115234375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1078.344970703125</v>
+        <v>2181.8447265625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1085.194702148438</v>
+        <v>2179.463623046875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1095.618774414062</v>
+        <v>2172.199951171875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1102.80615234375</v>
+        <v>2166.025390625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1133.723876953125</v>
+        <v>2163.13671875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1165.810668945312</v>
+        <v>2163.211181640625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1180.191284179688</v>
+        <v>2163.413330078125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1195.581420898438</v>
+        <v>2163.4560546875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1233.884399414062</v>
+        <v>2163.614990234375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1254.223754882812</v>
+        <v>2163.749267578125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1279.009033203125</v>
+        <v>2163.86572265625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1285.975708007812</v>
+        <v>2163.86474609375</v>
       </c>
       <c r="EO4" t="n">
-        <v>1295.1494140625</v>
+        <v>2163.8525390625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1298.253173828125</v>
+        <v>2163.412109375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1299.91845703125</v>
+        <v>2160.256103515625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1299.425048828125</v>
+        <v>2153.34521484375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1296.69140625</v>
+        <v>2150.61328125</v>
       </c>
       <c r="ET4" t="n">
-        <v>1283.726928710938</v>
+        <v>2148.662109375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1263.384643554688</v>
+        <v>2148.249755859375</v>
       </c>
       <c r="EV4" t="n">
-        <v>1249.900024414062</v>
+        <v>2148.204833984375</v>
       </c>
       <c r="EW4" t="n">
-        <v>1224.34619140625</v>
+        <v>2148.18310546875</v>
       </c>
       <c r="EX4" t="n">
-        <v>1214.2197265625</v>
+        <v>2148.10791015625</v>
       </c>
       <c r="EY4" t="n">
-        <v>1205.186767578125</v>
+        <v>2147.975830078125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1189.580688476562</v>
+        <v>2147.76318359375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1176.678955078125</v>
+        <v>2147.36865234375</v>
       </c>
       <c r="FB4" t="n">
-        <v>1170.974609375</v>
+        <v>2147.26513671875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1160.196655273438</v>
+        <v>2147.20751953125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1152.980712890625</v>
+        <v>2147.1552734375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1133.913818359375</v>
+        <v>2147.141357421875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1122.916259765625</v>
+        <v>2147.219482421875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1098.488159179688</v>
+        <v>2147.261962890625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1069.4638671875</v>
+        <v>2147.31201171875</v>
       </c>
       <c r="FI4" t="n">
-        <v>1055.842895507812</v>
+        <v>2147.0029296875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1039.9404296875</v>
+        <v>2146.748046875</v>
       </c>
       <c r="FK4" t="n">
-        <v>1019.562561035156</v>
+        <v>2146.228271484375</v>
       </c>
       <c r="FL4" t="n">
-        <v>1013.093627929688</v>
+        <v>2145.810546875</v>
       </c>
       <c r="FM4" t="n">
-        <v>998.1504516601562</v>
+        <v>2145.0078125</v>
       </c>
       <c r="FN4" t="n">
-        <v>978.93212890625</v>
+        <v>2144.58349609375</v>
       </c>
       <c r="FO4" t="n">
-        <v>969.6790771484375</v>
+        <v>2143.955810546875</v>
       </c>
       <c r="FP4" t="n">
-        <v>960.1857299804688</v>
+        <v>2142.663330078125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>944.4000244140625</v>
+        <v>2141.490234375</v>
       </c>
       <c r="FR4" t="n">
-        <v>936.1836547851562</v>
+        <v>2140.78955078125</v>
       </c>
       <c r="FS4" t="n">
-        <v>919.4871826171875</v>
+        <v>2139.27392578125</v>
       </c>
       <c r="FT4" t="n">
-        <v>905.1416625976562</v>
+        <v>2138.874755859375</v>
       </c>
       <c r="FU4" t="n">
-        <v>894.1238403320312</v>
+        <v>2137.896240234375</v>
       </c>
       <c r="FV4" t="n">
-        <v>888.076171875</v>
+        <v>2137.3408203125</v>
       </c>
       <c r="FW4" t="n">
-        <v>871.21484375</v>
+        <v>2135.614990234375</v>
       </c>
       <c r="FX4" t="n">
-        <v>864.5833129882812</v>
+        <v>2135.0302734375</v>
       </c>
       <c r="FY4" t="n">
-        <v>849.1640625</v>
+        <v>2134.642578125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>838.4274291992188</v>
+        <v>2134.4111328125</v>
       </c>
       <c r="GA4" t="n">
-        <v>815.9698486328125</v>
+        <v>2133.592041015625</v>
       </c>
       <c r="GB4" t="n">
-        <v>806.8116455078125</v>
+        <v>2133.212158203125</v>
       </c>
       <c r="GC4" t="n">
-        <v>793.410400390625</v>
+        <v>2132.675048828125</v>
       </c>
       <c r="GD4" t="n">
-        <v>787.5679321289062</v>
+        <v>2132.869140625</v>
       </c>
       <c r="GE4" t="n">
-        <v>777.1865844726562</v>
+        <v>2133.189208984375</v>
       </c>
       <c r="GF4" t="n">
-        <v>769.3997192382812</v>
+        <v>2133.343994140625</v>
       </c>
       <c r="GG4" t="n">
-        <v>761.4971313476562</v>
+        <v>2132.72802734375</v>
       </c>
       <c r="GH4" t="n">
-        <v>748.8773193359375</v>
+        <v>2130.7685546875</v>
       </c>
       <c r="GI4" t="n">
-        <v>742.6244506835938</v>
+        <v>2129.9013671875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>736.9241333007812</v>
+        <v>2129.556884765625</v>
       </c>
       <c r="GK4" t="n">
-        <v>724.7099609375</v>
+        <v>2129.04150390625</v>
       </c>
       <c r="GL4" t="n">
-        <v>718.2449951171875</v>
+        <v>2128.66162109375</v>
       </c>
       <c r="GM4" t="n">
-        <v>698.9791259765625</v>
+        <v>2128.559814453125</v>
       </c>
       <c r="GN4" t="n">
-        <v>677.4736328125</v>
+        <v>2128.606689453125</v>
       </c>
       <c r="GO4" t="n">
-        <v>668.9393310546875</v>
+        <v>2128.627685546875</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2128.695556640625</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2128.7880859375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2128.97509765625</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2129.064208984375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2129.3154296875</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2129.4423828125</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2130.939208984375</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2133.17724609375</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2131.623291015625</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2122.98828125</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2105.08447265625</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2094.515869140625</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2076.38720703125</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2047.732666015625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2033.923095703125</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1991.967163085938</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1972.756591796875</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1918.79296875</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1865.133544921875</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1829.664306640625</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1810.747192382812</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1767.056640625</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1721.432983398438</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1694.32080078125</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1682.211181640625</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1653.772827148438</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1620.095458984375</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1586.783325195312</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1550.173461914062</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1512.274169921875</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1473.320434570312</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1433.1796875</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1411.04541015625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1369.290649414062</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1334.218872070312</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1290.118286132812</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1258.088745117188</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1226.518676757812</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1173.719970703125</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1155.63525390625</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1116.557006835938</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1076.343383789062</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1026.792114257812</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>972.2342529296875</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>913.6729125976562</v>
+      </c>
+      <c r="II4" t="n">
+        <v>853.8883666992188</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>803.5758056640625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>756.98095703125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>710.4844970703125</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>664.8402099609375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>596.867431640625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>568.8361206054688</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>558.3204345703125</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>561.6747436523438</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>570.0138549804688</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>586.0855712890625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>614.2954711914062</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>639.7340698242188</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>656.25390625</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>668.2500610351562</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>673.934814453125</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>674.9434204101562</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>675.4262084960938</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>687.2466430664062</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>741.604248046875</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>791.8778076171875</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>828.58056640625</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>860.69775390625</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>890.4599609375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>915.2567749023438</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>921.4180908203125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>921.888916015625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>904.2435302734375</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>877.572021484375</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>851.1831665039062</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>813.5680541992188</v>
       </c>
     </row>
   </sheetData>

--- a/left_collar_Data.xlsx
+++ b/left_collar_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>234.1031188964844</v>
+        <v>409.1794128417969</v>
       </c>
       <c r="B2" t="n">
-        <v>234.2976226806641</v>
+        <v>408.8568115234375</v>
       </c>
       <c r="C2" t="n">
-        <v>234.3125152587891</v>
+        <v>408.4871826171875</v>
       </c>
       <c r="D2" t="n">
-        <v>234.3147888183594</v>
+        <v>408.1604309082031</v>
       </c>
       <c r="E2" t="n">
-        <v>234.3178100585938</v>
+        <v>407.7055358886719</v>
       </c>
       <c r="F2" t="n">
-        <v>234.319580078125</v>
+        <v>407.0978393554688</v>
       </c>
       <c r="G2" t="n">
-        <v>234.3207092285156</v>
+        <v>406.3301086425781</v>
       </c>
       <c r="H2" t="n">
-        <v>234.321044921875</v>
+        <v>405.2749938964844</v>
       </c>
       <c r="I2" t="n">
-        <v>234.3218688964844</v>
+        <v>403.8209533691406</v>
       </c>
       <c r="J2" t="n">
-        <v>234.3225402832031</v>
+        <v>401.420166015625</v>
       </c>
       <c r="K2" t="n">
-        <v>234.3234405517578</v>
+        <v>398.1384582519531</v>
       </c>
       <c r="L2" t="n">
-        <v>234.3420104980469</v>
+        <v>394.0953063964844</v>
       </c>
       <c r="M2" t="n">
-        <v>234.364013671875</v>
+        <v>389.3326416015625</v>
       </c>
       <c r="N2" t="n">
-        <v>234.3860168457031</v>
+        <v>380.0267333984375</v>
       </c>
       <c r="O2" t="n">
-        <v>234.4068298339844</v>
+        <v>370.9364624023438</v>
       </c>
       <c r="P2" t="n">
-        <v>234.4058074951172</v>
+        <v>365.5050048828125</v>
       </c>
       <c r="Q2" t="n">
-        <v>234.3923034667969</v>
+        <v>362.419189453125</v>
       </c>
       <c r="R2" t="n">
-        <v>234.3753814697266</v>
+        <v>360.7453918457031</v>
       </c>
       <c r="S2" t="n">
-        <v>234.3424682617188</v>
+        <v>359.7300720214844</v>
       </c>
       <c r="T2" t="n">
-        <v>234.1312408447266</v>
+        <v>358.8350219726562</v>
       </c>
       <c r="U2" t="n">
-        <v>233.8280334472656</v>
+        <v>357.8788452148438</v>
       </c>
       <c r="V2" t="n">
-        <v>233.5475311279297</v>
+        <v>356.84814453125</v>
       </c>
       <c r="W2" t="n">
-        <v>233.973388671875</v>
+        <v>355.946533203125</v>
       </c>
       <c r="X2" t="n">
-        <v>235.6707458496094</v>
+        <v>355.3082885742188</v>
       </c>
       <c r="Y2" t="n">
-        <v>238.353271484375</v>
+        <v>354.7664794921875</v>
       </c>
       <c r="Z2" t="n">
-        <v>241.0313415527344</v>
+        <v>354.1819458007812</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.5456695556641</v>
+        <v>353.5175170898438</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.7817077636719</v>
+        <v>352.8399353027344</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.5886383056641</v>
+        <v>352.4420166015625</v>
       </c>
       <c r="AD2" t="n">
-        <v>249.9615173339844</v>
+        <v>352.4029541015625</v>
       </c>
       <c r="AE2" t="n">
-        <v>252.7147216796875</v>
+        <v>352.58740234375</v>
       </c>
       <c r="AF2" t="n">
-        <v>255.4171600341797</v>
+        <v>353.442138671875</v>
       </c>
       <c r="AG2" t="n">
-        <v>257.97607421875</v>
+        <v>354.8068237304688</v>
       </c>
       <c r="AH2" t="n">
-        <v>260.0272521972656</v>
+        <v>356.3179931640625</v>
       </c>
       <c r="AI2" t="n">
-        <v>261.9876403808594</v>
+        <v>357.7094116210938</v>
       </c>
       <c r="AJ2" t="n">
-        <v>263.9866333007812</v>
+        <v>359.1206665039062</v>
       </c>
       <c r="AK2" t="n">
-        <v>265.6824340820312</v>
+        <v>360.4644775390625</v>
       </c>
       <c r="AL2" t="n">
-        <v>268.0779418945312</v>
+        <v>361.5579833984375</v>
       </c>
       <c r="AM2" t="n">
-        <v>270.5730590820312</v>
+        <v>362.4098510742188</v>
       </c>
       <c r="AN2" t="n">
-        <v>273.3886413574219</v>
+        <v>362.9340209960938</v>
       </c>
       <c r="AO2" t="n">
-        <v>276.0224914550781</v>
+        <v>363.248779296875</v>
       </c>
       <c r="AP2" t="n">
-        <v>278.8183288574219</v>
+        <v>363.4408264160156</v>
       </c>
       <c r="AQ2" t="n">
-        <v>281.8262939453125</v>
+        <v>363.5780334472656</v>
       </c>
       <c r="AR2" t="n">
-        <v>284.8950500488281</v>
+        <v>363.6507568359375</v>
       </c>
       <c r="AS2" t="n">
-        <v>287.9283752441406</v>
+        <v>362.8008422851562</v>
       </c>
       <c r="AT2" t="n">
-        <v>290.1817626953125</v>
+        <v>360.7099914550781</v>
       </c>
       <c r="AU2" t="n">
-        <v>291.6988220214844</v>
+        <v>357.0399169921875</v>
       </c>
       <c r="AV2" t="n">
-        <v>293.0208129882812</v>
+        <v>352.3618774414062</v>
       </c>
       <c r="AW2" t="n">
-        <v>294.2611389160156</v>
+        <v>347.4942626953125</v>
       </c>
       <c r="AX2" t="n">
-        <v>295.5139770507812</v>
+        <v>339.935546875</v>
       </c>
       <c r="AY2" t="n">
-        <v>296.4040832519531</v>
+        <v>332.9945068359375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>297.0966491699219</v>
+        <v>324.8041076660156</v>
       </c>
       <c r="BA2" t="n">
-        <v>297.7236328125</v>
+        <v>316.3239440917969</v>
       </c>
       <c r="BB2" t="n">
-        <v>298.7440185546875</v>
+        <v>307.4945068359375</v>
       </c>
       <c r="BC2" t="n">
-        <v>300.4290466308594</v>
+        <v>299.693359375</v>
       </c>
       <c r="BD2" t="n">
-        <v>302.8448486328125</v>
+        <v>293.6231384277344</v>
       </c>
       <c r="BE2" t="n">
-        <v>304.8809814453125</v>
+        <v>286.0589294433594</v>
       </c>
       <c r="BF2" t="n">
-        <v>306.8573303222656</v>
+        <v>277.7982788085938</v>
       </c>
       <c r="BG2" t="n">
-        <v>308.8154907226562</v>
+        <v>270.8734130859375</v>
       </c>
       <c r="BH2" t="n">
-        <v>311.3588562011719</v>
+        <v>265.0396118164062</v>
       </c>
       <c r="BI2" t="n">
-        <v>315.6315002441406</v>
+        <v>260.6891784667969</v>
       </c>
       <c r="BJ2" t="n">
-        <v>317.8273010253906</v>
+        <v>257.3214111328125</v>
       </c>
       <c r="BK2" t="n">
-        <v>320.233642578125</v>
+        <v>254.5172729492188</v>
       </c>
       <c r="BL2" t="n">
-        <v>323.1101684570312</v>
+        <v>251.8219604492188</v>
       </c>
       <c r="BM2" t="n">
-        <v>325.6333923339844</v>
+        <v>248.2218322753906</v>
       </c>
       <c r="BN2" t="n">
-        <v>328.0628967285156</v>
+        <v>244.7596435546875</v>
       </c>
       <c r="BO2" t="n">
-        <v>330.6294250488281</v>
+        <v>241.9236450195312</v>
       </c>
       <c r="BP2" t="n">
-        <v>333.2720336914062</v>
+        <v>239.69873046875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>335.897705078125</v>
+        <v>238.0218505859375</v>
       </c>
       <c r="BR2" t="n">
-        <v>338.672119140625</v>
+        <v>236.5945739746094</v>
       </c>
       <c r="BS2" t="n">
-        <v>341.996826171875</v>
+        <v>235.5616149902344</v>
       </c>
       <c r="BT2" t="n">
-        <v>345.0640258789062</v>
+        <v>234.6653442382812</v>
       </c>
       <c r="BU2" t="n">
-        <v>348.583740234375</v>
+        <v>233.9800720214844</v>
       </c>
       <c r="BV2" t="n">
-        <v>351.4195556640625</v>
+        <v>233.5997772216797</v>
       </c>
       <c r="BW2" t="n">
-        <v>353.7434692382812</v>
+        <v>233.3849792480469</v>
       </c>
       <c r="BX2" t="n">
-        <v>355.4692993164062</v>
+        <v>233.1770629882812</v>
       </c>
       <c r="BY2" t="n">
-        <v>357.0136108398438</v>
+        <v>232.9133758544922</v>
       </c>
       <c r="BZ2" t="n">
-        <v>358.3740844726562</v>
+        <v>232.7181091308594</v>
       </c>
       <c r="CA2" t="n">
-        <v>359.9257202148438</v>
+        <v>232.5426025390625</v>
       </c>
       <c r="CB2" t="n">
-        <v>361.2053833007812</v>
+        <v>232.3890686035156</v>
       </c>
       <c r="CC2" t="n">
-        <v>362.1038208007812</v>
+        <v>232.2442016601562</v>
       </c>
       <c r="CD2" t="n">
-        <v>363.0831909179688</v>
+        <v>232.0957183837891</v>
       </c>
       <c r="CE2" t="n">
-        <v>363.5556640625</v>
+        <v>231.9567565917969</v>
       </c>
       <c r="CF2" t="n">
-        <v>363.8363647460938</v>
+        <v>231.8495483398438</v>
       </c>
       <c r="CG2" t="n">
-        <v>363.871826171875</v>
+        <v>232.0903015136719</v>
       </c>
       <c r="CH2" t="n">
-        <v>364.0370483398438</v>
+        <v>232.6217346191406</v>
       </c>
       <c r="CI2" t="n">
-        <v>364.4430847167969</v>
+        <v>233.2939453125</v>
       </c>
       <c r="CJ2" t="n">
-        <v>364.8605651855469</v>
+        <v>233.7623596191406</v>
       </c>
       <c r="CK2" t="n">
-        <v>364.9896850585938</v>
+        <v>234.0863952636719</v>
       </c>
       <c r="CL2" t="n">
-        <v>364.8401489257812</v>
+        <v>234.3511657714844</v>
       </c>
       <c r="CM2" t="n">
-        <v>364.5097351074219</v>
+        <v>234.4135284423828</v>
       </c>
       <c r="CN2" t="n">
-        <v>363.4776306152344</v>
+        <v>234.4689178466797</v>
       </c>
       <c r="CO2" t="n">
-        <v>362.14306640625</v>
+        <v>234.5202331542969</v>
       </c>
       <c r="CP2" t="n">
-        <v>360.6751098632812</v>
+        <v>234.5695190429688</v>
       </c>
       <c r="CQ2" t="n">
-        <v>359.2703857421875</v>
+        <v>234.6211395263672</v>
       </c>
       <c r="CR2" t="n">
-        <v>357.268310546875</v>
+        <v>234.7253112792969</v>
       </c>
       <c r="CS2" t="n">
-        <v>355.526611328125</v>
+        <v>234.7712860107422</v>
       </c>
       <c r="CT2" t="n">
-        <v>353.7498474121094</v>
+        <v>234.6498413085938</v>
       </c>
       <c r="CU2" t="n">
-        <v>351.836669921875</v>
+        <v>234.3237915039062</v>
       </c>
       <c r="CV2" t="n">
-        <v>350.0171508789062</v>
+        <v>233.8492584228516</v>
       </c>
       <c r="CW2" t="n">
-        <v>348.2441711425781</v>
+        <v>233.511474609375</v>
       </c>
       <c r="CX2" t="n">
-        <v>346.9977416992188</v>
+        <v>233.6366882324219</v>
       </c>
       <c r="CY2" t="n">
-        <v>344.8511352539062</v>
+        <v>234.4574279785156</v>
       </c>
       <c r="CZ2" t="n">
-        <v>343.6901550292969</v>
+        <v>235.4893188476562</v>
       </c>
       <c r="DA2" t="n">
-        <v>341.535888671875</v>
+        <v>236.8018493652344</v>
       </c>
       <c r="DB2" t="n">
-        <v>340.4913635253906</v>
+        <v>238.1583862304688</v>
       </c>
       <c r="DC2" t="n">
-        <v>339.4214477539062</v>
+        <v>239.2733612060547</v>
       </c>
       <c r="DD2" t="n">
-        <v>338.4933471679688</v>
+        <v>240.4540100097656</v>
       </c>
       <c r="DE2" t="n">
-        <v>337.66162109375</v>
+        <v>242.2560424804688</v>
       </c>
       <c r="DF2" t="n">
-        <v>336.9395141601562</v>
+        <v>244.4547882080078</v>
       </c>
       <c r="DG2" t="n">
-        <v>336.297119140625</v>
+        <v>247.2761840820312</v>
       </c>
       <c r="DH2" t="n">
-        <v>335.4472351074219</v>
+        <v>250.7810668945312</v>
       </c>
       <c r="DI2" t="n">
-        <v>335.1712646484375</v>
+        <v>254.7128295898438</v>
       </c>
       <c r="DJ2" t="n">
-        <v>334.9231567382812</v>
+        <v>258.6643676757812</v>
       </c>
       <c r="DK2" t="n">
-        <v>334.7005615234375</v>
+        <v>263.6023254394531</v>
       </c>
       <c r="DL2" t="n">
-        <v>334.4437866210938</v>
+        <v>274.1692199707031</v>
       </c>
       <c r="DM2" t="n">
-        <v>334.1815490722656</v>
+        <v>280.2905883789062</v>
       </c>
       <c r="DN2" t="n">
-        <v>333.8660278320312</v>
+        <v>289.9236145019531</v>
       </c>
       <c r="DO2" t="n">
-        <v>333.427978515625</v>
+        <v>299.9219360351562</v>
       </c>
       <c r="DP2" t="n">
-        <v>333.2262573242188</v>
+        <v>315.7998046875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>332.9921264648438</v>
+        <v>322.6428527832031</v>
       </c>
       <c r="DR2" t="n">
-        <v>332.8769226074219</v>
+        <v>329.2237854003906</v>
       </c>
       <c r="DS2" t="n">
-        <v>332.8388061523438</v>
+        <v>342.6075439453125</v>
       </c>
       <c r="DT2" t="n">
-        <v>332.6642456054688</v>
+        <v>349.2956237792969</v>
       </c>
       <c r="DU2" t="n">
-        <v>332.5985717773438</v>
+        <v>355.4247436523438</v>
       </c>
       <c r="DV2" t="n">
-        <v>332.5701599121094</v>
+        <v>365.22607421875</v>
       </c>
       <c r="DW2" t="n">
-        <v>332.5503234863281</v>
+        <v>373.2747802734375</v>
       </c>
       <c r="DX2" t="n">
-        <v>332.5463256835938</v>
+        <v>377.19921875</v>
       </c>
       <c r="DY2" t="n">
-        <v>332.546142578125</v>
+        <v>381.1931762695312</v>
       </c>
       <c r="DZ2" t="n">
-        <v>332.5498046875</v>
+        <v>385.8257751464844</v>
       </c>
       <c r="EA2" t="n">
-        <v>332.6261596679688</v>
+        <v>387.2813415527344</v>
       </c>
       <c r="EB2" t="n">
-        <v>332.7085876464844</v>
+        <v>390.2283935546875</v>
       </c>
       <c r="EC2" t="n">
-        <v>333.2283935546875</v>
+        <v>391.2603759765625</v>
       </c>
       <c r="ED2" t="n">
-        <v>333.6481018066406</v>
+        <v>392.5225219726562</v>
       </c>
       <c r="EE2" t="n">
-        <v>335.4000244140625</v>
+        <v>393.0328063964844</v>
       </c>
       <c r="EF2" t="n">
-        <v>336.0489501953125</v>
+        <v>393.3045043945312</v>
       </c>
       <c r="EG2" t="n">
-        <v>336.7107543945312</v>
+        <v>392.783935546875</v>
       </c>
       <c r="EH2" t="n">
-        <v>336.9231567382812</v>
+        <v>391.0849304199219</v>
       </c>
       <c r="EI2" t="n">
-        <v>337.3646850585938</v>
+        <v>382.5050354003906</v>
       </c>
       <c r="EJ2" t="n">
-        <v>337.6235961914062</v>
+        <v>376.3883056640625</v>
       </c>
       <c r="EK2" t="n">
-        <v>338.2644958496094</v>
+        <v>368.32470703125</v>
       </c>
       <c r="EL2" t="n">
-        <v>338.7137451171875</v>
+        <v>363.7281494140625</v>
       </c>
       <c r="EM2" t="n">
-        <v>339.3253173828125</v>
+        <v>350.9026794433594</v>
       </c>
       <c r="EN2" t="n">
-        <v>340.0014953613281</v>
+        <v>343.1945190429688</v>
       </c>
       <c r="EO2" t="n">
-        <v>340.4996337890625</v>
+        <v>329.1942749023438</v>
       </c>
       <c r="EP2" t="n">
-        <v>340.8276977539062</v>
+        <v>323.0839233398438</v>
       </c>
       <c r="EQ2" t="n">
-        <v>340.9244384765625</v>
+        <v>311.818359375</v>
       </c>
       <c r="ER2" t="n">
-        <v>341.0437316894531</v>
+        <v>304.8165893554688</v>
       </c>
       <c r="ES2" t="n">
-        <v>341.0755920410156</v>
+        <v>294.7241821289062</v>
       </c>
       <c r="ET2" t="n">
-        <v>341.100830078125</v>
+        <v>291.3282165527344</v>
       </c>
       <c r="EU2" t="n">
-        <v>341.106689453125</v>
+        <v>288.0070495605469</v>
       </c>
       <c r="EV2" t="n">
-        <v>341.1044311523438</v>
+        <v>280.4185485839844</v>
       </c>
       <c r="EW2" t="n">
-        <v>341.098876953125</v>
+        <v>269.7929077148438</v>
       </c>
       <c r="EX2" t="n">
-        <v>341.0951538085938</v>
+        <v>264.0835571289062</v>
       </c>
       <c r="EY2" t="n">
-        <v>341.0933837890625</v>
+        <v>253.4700317382812</v>
       </c>
       <c r="EZ2" t="n">
-        <v>341.0956420898438</v>
+        <v>244.5582275390625</v>
       </c>
       <c r="FA2" t="n">
-        <v>341.0994873046875</v>
+        <v>241.0923156738281</v>
       </c>
       <c r="FB2" t="n">
-        <v>341.1002807617188</v>
+        <v>238.5653076171875</v>
       </c>
       <c r="FC2" t="n">
-        <v>341.1007995605469</v>
+        <v>234.0730285644531</v>
       </c>
       <c r="FD2" t="n">
-        <v>341.1031494140625</v>
+        <v>231.6127777099609</v>
       </c>
       <c r="FE2" t="n">
-        <v>341.1130981445312</v>
+        <v>231.2288208007812</v>
       </c>
       <c r="FF2" t="n">
-        <v>341.1304321289062</v>
+        <v>231.5416259765625</v>
       </c>
       <c r="FG2" t="n">
-        <v>341.1395874023438</v>
+        <v>231.9730987548828</v>
       </c>
       <c r="FH2" t="n">
-        <v>341.1181030273438</v>
+        <v>233.9308013916016</v>
       </c>
       <c r="FI2" t="n">
-        <v>341.1001586914062</v>
+        <v>237.5879516601562</v>
       </c>
       <c r="FJ2" t="n">
-        <v>341.1143798828125</v>
+        <v>253.2408142089844</v>
       </c>
       <c r="FK2" t="n">
-        <v>341.2100830078125</v>
+        <v>265.3670959472656</v>
       </c>
       <c r="FL2" t="n">
-        <v>341.2720336914062</v>
+        <v>287.9917602539062</v>
       </c>
       <c r="FM2" t="n">
-        <v>341.3890380859375</v>
+        <v>297.0731201171875</v>
       </c>
       <c r="FN2" t="n">
-        <v>341.455322265625</v>
+        <v>306.4634704589844</v>
       </c>
       <c r="FO2" t="n">
-        <v>341.4929809570312</v>
+        <v>327.4808349609375</v>
       </c>
       <c r="FP2" t="n">
-        <v>341.535400390625</v>
+        <v>360.1256713867188</v>
       </c>
       <c r="FQ2" t="n">
-        <v>341.563720703125</v>
+        <v>378.1653442382812</v>
       </c>
       <c r="FR2" t="n">
-        <v>341.5750732421875</v>
+        <v>402.7217407226562</v>
       </c>
       <c r="FS2" t="n">
-        <v>341.610107421875</v>
+        <v>411.5848083496094</v>
       </c>
       <c r="FT2" t="n">
-        <v>341.6296997070312</v>
+        <v>419.4521484375</v>
       </c>
       <c r="FU2" t="n">
-        <v>341.6838989257812</v>
+        <v>441.6386108398438</v>
       </c>
       <c r="FV2" t="n">
-        <v>341.7145080566406</v>
+        <v>449.9332275390625</v>
       </c>
       <c r="FW2" t="n">
-        <v>341.8226623535156</v>
+        <v>462.6771850585938</v>
       </c>
       <c r="FX2" t="n">
-        <v>341.8554992675781</v>
+        <v>471.540283203125</v>
       </c>
       <c r="FY2" t="n">
-        <v>341.87109375</v>
+        <v>474.7561340332031</v>
       </c>
       <c r="FZ2" t="n">
-        <v>341.8742065429688</v>
+        <v>477.530029296875</v>
       </c>
       <c r="GA2" t="n">
-        <v>341.849853515625</v>
+        <v>480.6338195800781</v>
       </c>
       <c r="GB2" t="n">
-        <v>341.8193969726562</v>
+        <v>482.3740234375</v>
       </c>
       <c r="GC2" t="n">
-        <v>341.7528686523438</v>
+        <v>483.669677734375</v>
       </c>
       <c r="GD2" t="n">
-        <v>341.6690673828125</v>
+        <v>480.1823120117188</v>
       </c>
       <c r="GE2" t="n">
-        <v>341.6210327148438</v>
+        <v>475.9254455566406</v>
       </c>
       <c r="GF2" t="n">
-        <v>341.523681640625</v>
+        <v>469.2457580566406</v>
       </c>
       <c r="GG2" t="n">
-        <v>341.4812622070312</v>
+        <v>444.9397583007812</v>
       </c>
       <c r="GH2" t="n">
-        <v>341.3797302246094</v>
+        <v>432.0003662109375</v>
       </c>
       <c r="GI2" t="n">
-        <v>341.1107788085938</v>
+        <v>407.1681518554688</v>
       </c>
       <c r="GJ2" t="n">
-        <v>340.9754028320312</v>
+        <v>396.5603942871094</v>
       </c>
       <c r="GK2" t="n">
-        <v>340.7424621582031</v>
+        <v>381.2404174804688</v>
       </c>
       <c r="GL2" t="n">
-        <v>340.6204833984375</v>
+        <v>372.5553588867188</v>
       </c>
       <c r="GM2" t="n">
-        <v>340.4865112304688</v>
+        <v>353.7288818359375</v>
       </c>
       <c r="GN2" t="n">
-        <v>340.1119384765625</v>
+        <v>340.3467407226562</v>
       </c>
       <c r="GO2" t="n">
-        <v>339.5749206542969</v>
+        <v>336.8587646484375</v>
       </c>
       <c r="GP2" t="n">
-        <v>338.4284973144531</v>
+        <v>332.5522155761719</v>
       </c>
       <c r="GQ2" t="n">
-        <v>337.2790832519531</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>336.7193298339844</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>336.4360961914062</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>335.8499755859375</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>335.4075927734375</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>334.5288696289062</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>333.8098754882812</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>333.1775207519531</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>331.6310119628906</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>330.431640625</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>329.8009643554688</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>328.9248352050781</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>328.0241394042969</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>327.52978515625</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>326.2521057128906</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>326.1134643554688</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>326.0429077148438</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>326.0032653808594</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>325.7549438476562</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>325.6021423339844</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>325.331298828125</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>325.108154296875</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>324.8552856445312</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>324.6368408203125</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>323.9453735351562</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>321.7583618164062</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>318.9164123535156</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>315.9031372070312</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>312.5338134765625</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>308.322021484375</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>303.0368957519531</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>299.8037109375</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>292.4867248535156</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>285.4908752441406</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>280.2031860351562</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>275.546142578125</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>272.3576049804688</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>267.8650207519531</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>266.4813842773438</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>264.2442932128906</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>262.4927978515625</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>260.7848815917969</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>260.5970764160156</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>264.4114074707031</v>
-      </c>
-      <c r="II2" t="n">
-        <v>266.4906616210938</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>268.2469787597656</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>274.5996704101562</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>281.5523681640625</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>286.7675476074219</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>281.3580627441406</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>273.5006713867188</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>256.279052734375</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>242.0520324707031</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>235.8917999267578</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>237.6262512207031</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>237.3899993896484</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>227.9197387695312</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>214.0585021972656</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>194.9359283447266</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>177.9980163574219</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>161.7503051757812</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>155.4960327148438</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>157.7011871337891</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>169.05029296875</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>177.0022888183594</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>185.7939453125</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>193.9248657226562</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>202.3449554443359</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>215.8274078369141</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>220.6724243164062</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>221.7376556396484</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>217.8498992919922</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>209.2392883300781</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>203.9213409423828</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>197.7189025878906</v>
+        <v>327.1623229980469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>145.4246978759766</v>
+        <v>273.201904296875</v>
       </c>
       <c r="B3" t="n">
-        <v>145.294921875</v>
+        <v>270.2817077636719</v>
       </c>
       <c r="C3" t="n">
-        <v>145.2946014404297</v>
+        <v>267.0626220703125</v>
       </c>
       <c r="D3" t="n">
-        <v>145.2913208007812</v>
+        <v>265.1698913574219</v>
       </c>
       <c r="E3" t="n">
-        <v>145.2903747558594</v>
+        <v>263.8791198730469</v>
       </c>
       <c r="F3" t="n">
-        <v>145.2900543212891</v>
+        <v>262.6570129394531</v>
       </c>
       <c r="G3" t="n">
-        <v>145.2911682128906</v>
+        <v>260.6211242675781</v>
       </c>
       <c r="H3" t="n">
-        <v>145.2916107177734</v>
+        <v>257.9715881347656</v>
       </c>
       <c r="I3" t="n">
-        <v>145.2918701171875</v>
+        <v>254.6014099121094</v>
       </c>
       <c r="J3" t="n">
-        <v>145.2920379638672</v>
+        <v>250.0467071533203</v>
       </c>
       <c r="K3" t="n">
-        <v>145.2924957275391</v>
+        <v>244.6799163818359</v>
       </c>
       <c r="L3" t="n">
-        <v>145.2715911865234</v>
+        <v>238.7714233398438</v>
       </c>
       <c r="M3" t="n">
-        <v>145.2483825683594</v>
+        <v>232.1929321289062</v>
       </c>
       <c r="N3" t="n">
-        <v>145.2266845703125</v>
+        <v>220.3437805175781</v>
       </c>
       <c r="O3" t="n">
-        <v>145.2050170898438</v>
+        <v>208.1807250976562</v>
       </c>
       <c r="P3" t="n">
-        <v>145.1784820556641</v>
+        <v>197.5621795654297</v>
       </c>
       <c r="Q3" t="n">
-        <v>145.1463775634766</v>
+        <v>191.0338745117188</v>
       </c>
       <c r="R3" t="n">
-        <v>145.1114196777344</v>
+        <v>186.6524963378906</v>
       </c>
       <c r="S3" t="n">
-        <v>145.0635986328125</v>
+        <v>183.2132873535156</v>
       </c>
       <c r="T3" t="n">
-        <v>144.8493194580078</v>
+        <v>179.6550140380859</v>
       </c>
       <c r="U3" t="n">
-        <v>144.4815673828125</v>
+        <v>175.9697723388672</v>
       </c>
       <c r="V3" t="n">
-        <v>143.9826812744141</v>
+        <v>172.17919921875</v>
       </c>
       <c r="W3" t="n">
-        <v>143.4457550048828</v>
+        <v>168.7191772460938</v>
       </c>
       <c r="X3" t="n">
-        <v>142.9214172363281</v>
+        <v>165.7157135009766</v>
       </c>
       <c r="Y3" t="n">
-        <v>142.5291290283203</v>
+        <v>163.1867065429688</v>
       </c>
       <c r="Z3" t="n">
-        <v>142.1825714111328</v>
+        <v>161.0637359619141</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.8057098388672</v>
+        <v>159.4854583740234</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.4955902099609</v>
+        <v>158.2050933837891</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.3248596191406</v>
+        <v>157.1893920898438</v>
       </c>
       <c r="AD3" t="n">
-        <v>141.265869140625</v>
+        <v>156.4385070800781</v>
       </c>
       <c r="AE3" t="n">
-        <v>141.1547393798828</v>
+        <v>155.8703765869141</v>
       </c>
       <c r="AF3" t="n">
-        <v>140.9943695068359</v>
+        <v>155.2693939208984</v>
       </c>
       <c r="AG3" t="n">
-        <v>140.8373260498047</v>
+        <v>154.7732849121094</v>
       </c>
       <c r="AH3" t="n">
-        <v>140.7846221923828</v>
+        <v>154.4660186767578</v>
       </c>
       <c r="AI3" t="n">
-        <v>140.8581085205078</v>
+        <v>154.1781311035156</v>
       </c>
       <c r="AJ3" t="n">
-        <v>140.931396484375</v>
+        <v>153.8687591552734</v>
       </c>
       <c r="AK3" t="n">
-        <v>141.2986755371094</v>
+        <v>153.5035247802734</v>
       </c>
       <c r="AL3" t="n">
-        <v>142.1378479003906</v>
+        <v>153.1126403808594</v>
       </c>
       <c r="AM3" t="n">
-        <v>143.501220703125</v>
+        <v>152.7035980224609</v>
       </c>
       <c r="AN3" t="n">
-        <v>145.0883331298828</v>
+        <v>152.2891540527344</v>
       </c>
       <c r="AO3" t="n">
-        <v>146.8675384521484</v>
+        <v>151.9432067871094</v>
       </c>
       <c r="AP3" t="n">
-        <v>148.7024993896484</v>
+        <v>151.6697845458984</v>
       </c>
       <c r="AQ3" t="n">
-        <v>150.7093048095703</v>
+        <v>151.4326934814453</v>
       </c>
       <c r="AR3" t="n">
-        <v>152.9858856201172</v>
+        <v>151.3255615234375</v>
       </c>
       <c r="AS3" t="n">
-        <v>156.6077880859375</v>
+        <v>151.6593322753906</v>
       </c>
       <c r="AT3" t="n">
-        <v>161.7565155029297</v>
+        <v>152.2075958251953</v>
       </c>
       <c r="AU3" t="n">
-        <v>168.1164855957031</v>
+        <v>153.3757629394531</v>
       </c>
       <c r="AV3" t="n">
-        <v>178.9489593505859</v>
+        <v>154.5472259521484</v>
       </c>
       <c r="AW3" t="n">
-        <v>189.5704345703125</v>
+        <v>155.7410430908203</v>
       </c>
       <c r="AX3" t="n">
-        <v>195.8357849121094</v>
+        <v>156.6780548095703</v>
       </c>
       <c r="AY3" t="n">
-        <v>199.4583587646484</v>
+        <v>157.9396057128906</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201.7449035644531</v>
+        <v>159.2550964355469</v>
       </c>
       <c r="BA3" t="n">
-        <v>203.4808349609375</v>
+        <v>160.5893096923828</v>
       </c>
       <c r="BB3" t="n">
-        <v>204.7205047607422</v>
+        <v>161.7331085205078</v>
       </c>
       <c r="BC3" t="n">
-        <v>205.6554870605469</v>
+        <v>163.1893463134766</v>
       </c>
       <c r="BD3" t="n">
-        <v>205.8956756591797</v>
+        <v>164.3726501464844</v>
       </c>
       <c r="BE3" t="n">
-        <v>205.8173065185547</v>
+        <v>164.8867797851562</v>
       </c>
       <c r="BF3" t="n">
-        <v>204.7763214111328</v>
+        <v>164.7715759277344</v>
       </c>
       <c r="BG3" t="n">
-        <v>203.5793609619141</v>
+        <v>164.5084838867188</v>
       </c>
       <c r="BH3" t="n">
-        <v>203.1293029785156</v>
+        <v>164.0018920898438</v>
       </c>
       <c r="BI3" t="n">
-        <v>203.9576416015625</v>
+        <v>163.6232452392578</v>
       </c>
       <c r="BJ3" t="n">
-        <v>205.2899169921875</v>
+        <v>163.2174530029297</v>
       </c>
       <c r="BK3" t="n">
-        <v>206.8511199951172</v>
+        <v>162.9740295410156</v>
       </c>
       <c r="BL3" t="n">
-        <v>208.67626953125</v>
+        <v>162.785888671875</v>
       </c>
       <c r="BM3" t="n">
-        <v>210.4005432128906</v>
+        <v>162.7486724853516</v>
       </c>
       <c r="BN3" t="n">
-        <v>211.9612121582031</v>
+        <v>162.8372497558594</v>
       </c>
       <c r="BO3" t="n">
-        <v>213.7895202636719</v>
+        <v>162.9261627197266</v>
       </c>
       <c r="BP3" t="n">
-        <v>215.5179443359375</v>
+        <v>162.9995880126953</v>
       </c>
       <c r="BQ3" t="n">
-        <v>217.3070831298828</v>
+        <v>163.0530853271484</v>
       </c>
       <c r="BR3" t="n">
-        <v>218.8912963867188</v>
+        <v>163.0939178466797</v>
       </c>
       <c r="BS3" t="n">
-        <v>221.0885162353516</v>
+        <v>163.1490020751953</v>
       </c>
       <c r="BT3" t="n">
-        <v>223.7475891113281</v>
+        <v>163.2210693359375</v>
       </c>
       <c r="BU3" t="n">
-        <v>225.5182495117188</v>
+        <v>163.2956390380859</v>
       </c>
       <c r="BV3" t="n">
-        <v>226.8177032470703</v>
+        <v>163.371826171875</v>
       </c>
       <c r="BW3" t="n">
-        <v>227.5655059814453</v>
+        <v>163.5023651123047</v>
       </c>
       <c r="BX3" t="n">
-        <v>228.0747222900391</v>
+        <v>163.6657867431641</v>
       </c>
       <c r="BY3" t="n">
-        <v>228.5721893310547</v>
+        <v>163.8621368408203</v>
       </c>
       <c r="BZ3" t="n">
-        <v>229.1517181396484</v>
+        <v>164.0941467285156</v>
       </c>
       <c r="CA3" t="n">
-        <v>229.9473266601562</v>
+        <v>164.3808898925781</v>
       </c>
       <c r="CB3" t="n">
-        <v>230.3929901123047</v>
+        <v>164.6937561035156</v>
       </c>
       <c r="CC3" t="n">
-        <v>230.6572570800781</v>
+        <v>165.0393218994141</v>
       </c>
       <c r="CD3" t="n">
-        <v>230.8106231689453</v>
+        <v>165.404541015625</v>
       </c>
       <c r="CE3" t="n">
-        <v>230.7711639404297</v>
+        <v>165.7603302001953</v>
       </c>
       <c r="CF3" t="n">
-        <v>230.6259460449219</v>
+        <v>166.1139526367188</v>
       </c>
       <c r="CG3" t="n">
-        <v>230.6018829345703</v>
+        <v>166.4581756591797</v>
       </c>
       <c r="CH3" t="n">
-        <v>230.6475830078125</v>
+        <v>166.7772216796875</v>
       </c>
       <c r="CI3" t="n">
-        <v>230.6856842041016</v>
+        <v>167.0752105712891</v>
       </c>
       <c r="CJ3" t="n">
-        <v>230.7225646972656</v>
+        <v>167.4611358642578</v>
       </c>
       <c r="CK3" t="n">
-        <v>231.1040802001953</v>
+        <v>167.8023071289062</v>
       </c>
       <c r="CL3" t="n">
-        <v>232.0380706787109</v>
+        <v>168.1646118164062</v>
       </c>
       <c r="CM3" t="n">
-        <v>232.8690185546875</v>
+        <v>168.3680877685547</v>
       </c>
       <c r="CN3" t="n">
-        <v>233.7661743164062</v>
+        <v>168.5735626220703</v>
       </c>
       <c r="CO3" t="n">
-        <v>234.4109649658203</v>
+        <v>168.68212890625</v>
       </c>
       <c r="CP3" t="n">
-        <v>235.6426391601562</v>
+        <v>168.770751953125</v>
       </c>
       <c r="CQ3" t="n">
-        <v>236.5965270996094</v>
+        <v>168.8573913574219</v>
       </c>
       <c r="CR3" t="n">
-        <v>237.495361328125</v>
+        <v>169.0372314453125</v>
       </c>
       <c r="CS3" t="n">
-        <v>238.4571685791016</v>
+        <v>169.1000061035156</v>
       </c>
       <c r="CT3" t="n">
-        <v>238.8718414306641</v>
+        <v>169.1545562744141</v>
       </c>
       <c r="CU3" t="n">
-        <v>239.0801696777344</v>
+        <v>169.2127838134766</v>
       </c>
       <c r="CV3" t="n">
-        <v>239.21240234375</v>
+        <v>169.2298278808594</v>
       </c>
       <c r="CW3" t="n">
-        <v>239.2611236572266</v>
+        <v>169.2018585205078</v>
       </c>
       <c r="CX3" t="n">
-        <v>239.3101196289062</v>
+        <v>169.1921539306641</v>
       </c>
       <c r="CY3" t="n">
-        <v>239.6656494140625</v>
+        <v>169.2029571533203</v>
       </c>
       <c r="CZ3" t="n">
-        <v>239.9780731201172</v>
+        <v>169.2386322021484</v>
       </c>
       <c r="DA3" t="n">
-        <v>240.77099609375</v>
+        <v>169.3283386230469</v>
       </c>
       <c r="DB3" t="n">
-        <v>241.3585815429688</v>
+        <v>169.4375610351562</v>
       </c>
       <c r="DC3" t="n">
-        <v>241.9363403320312</v>
+        <v>169.4886169433594</v>
       </c>
       <c r="DD3" t="n">
-        <v>242.4027404785156</v>
+        <v>169.5068511962891</v>
       </c>
       <c r="DE3" t="n">
-        <v>242.5966033935547</v>
+        <v>169.5121307373047</v>
       </c>
       <c r="DF3" t="n">
-        <v>242.7203979492188</v>
+        <v>169.5132904052734</v>
       </c>
       <c r="DG3" t="n">
-        <v>242.8459167480469</v>
+        <v>169.5094757080078</v>
       </c>
       <c r="DH3" t="n">
-        <v>242.8919830322266</v>
+        <v>169.4948883056641</v>
       </c>
       <c r="DI3" t="n">
-        <v>242.9300537109375</v>
+        <v>169.4720611572266</v>
       </c>
       <c r="DJ3" t="n">
-        <v>242.9424743652344</v>
+        <v>169.4030303955078</v>
       </c>
       <c r="DK3" t="n">
-        <v>242.9769592285156</v>
+        <v>169.2052917480469</v>
       </c>
       <c r="DL3" t="n">
-        <v>243.0298461914062</v>
+        <v>168.4264984130859</v>
       </c>
       <c r="DM3" t="n">
-        <v>243.0692443847656</v>
+        <v>168.13037109375</v>
       </c>
       <c r="DN3" t="n">
-        <v>243.0896759033203</v>
+        <v>169.09814453125</v>
       </c>
       <c r="DO3" t="n">
-        <v>243.1048126220703</v>
+        <v>170.2310638427734</v>
       </c>
       <c r="DP3" t="n">
-        <v>243.1355590820312</v>
+        <v>171.4351196289062</v>
       </c>
       <c r="DQ3" t="n">
-        <v>243.2321472167969</v>
+        <v>171.7090606689453</v>
       </c>
       <c r="DR3" t="n">
-        <v>243.2791290283203</v>
+        <v>171.6759490966797</v>
       </c>
       <c r="DS3" t="n">
-        <v>243.2992248535156</v>
+        <v>171.4456329345703</v>
       </c>
       <c r="DT3" t="n">
-        <v>243.3112640380859</v>
+        <v>171.3314666748047</v>
       </c>
       <c r="DU3" t="n">
-        <v>243.3170928955078</v>
+        <v>171.177978515625</v>
       </c>
       <c r="DV3" t="n">
-        <v>243.3189544677734</v>
+        <v>168.1066436767578</v>
       </c>
       <c r="DW3" t="n">
-        <v>243.3190460205078</v>
+        <v>163.3389282226562</v>
       </c>
       <c r="DX3" t="n">
-        <v>243.3212432861328</v>
+        <v>161.5871276855469</v>
       </c>
       <c r="DY3" t="n">
-        <v>243.321044921875</v>
+        <v>160.5279693603516</v>
       </c>
       <c r="DZ3" t="n">
-        <v>243.2913208007812</v>
+        <v>159.4743194580078</v>
       </c>
       <c r="EA3" t="n">
-        <v>243.2649078369141</v>
+        <v>159.0986480712891</v>
       </c>
       <c r="EB3" t="n">
-        <v>243.2234497070312</v>
+        <v>158.3100891113281</v>
       </c>
       <c r="EC3" t="n">
-        <v>243.1280364990234</v>
+        <v>157.8898468017578</v>
       </c>
       <c r="ED3" t="n">
-        <v>243.1065826416016</v>
+        <v>156.9147033691406</v>
       </c>
       <c r="EE3" t="n">
-        <v>243.1533050537109</v>
+        <v>156.2906036376953</v>
       </c>
       <c r="EF3" t="n">
-        <v>243.2246856689453</v>
+        <v>155.54541015625</v>
       </c>
       <c r="EG3" t="n">
-        <v>243.2723541259766</v>
+        <v>153.9616851806641</v>
       </c>
       <c r="EH3" t="n">
-        <v>243.2741546630859</v>
+        <v>153.9347991943359</v>
       </c>
       <c r="EI3" t="n">
-        <v>243.2758941650391</v>
+        <v>154.1422729492188</v>
       </c>
       <c r="EJ3" t="n">
-        <v>243.27587890625</v>
+        <v>154.3769073486328</v>
       </c>
       <c r="EK3" t="n">
-        <v>243.2814483642578</v>
+        <v>154.2702331542969</v>
       </c>
       <c r="EL3" t="n">
-        <v>243.2858581542969</v>
+        <v>154.2330169677734</v>
       </c>
       <c r="EM3" t="n">
-        <v>243.2888946533203</v>
+        <v>152.6144866943359</v>
       </c>
       <c r="EN3" t="n">
-        <v>243.1851501464844</v>
+        <v>151.9356536865234</v>
       </c>
       <c r="EO3" t="n">
-        <v>243.1172332763672</v>
+        <v>151.6831970214844</v>
       </c>
       <c r="EP3" t="n">
-        <v>242.9431304931641</v>
+        <v>153.0057220458984</v>
       </c>
       <c r="EQ3" t="n">
-        <v>242.8638305664062</v>
+        <v>154.1604309082031</v>
       </c>
       <c r="ER3" t="n">
-        <v>242.7282104492188</v>
+        <v>153.9093475341797</v>
       </c>
       <c r="ES3" t="n">
-        <v>242.6563415527344</v>
+        <v>154.1625366210938</v>
       </c>
       <c r="ET3" t="n">
-        <v>242.4952087402344</v>
+        <v>154.8234100341797</v>
       </c>
       <c r="EU3" t="n">
-        <v>242.4629364013672</v>
+        <v>155.2610015869141</v>
       </c>
       <c r="EV3" t="n">
-        <v>242.4292602539062</v>
+        <v>154.3820648193359</v>
       </c>
       <c r="EW3" t="n">
-        <v>242.3392944335938</v>
+        <v>153.0972595214844</v>
       </c>
       <c r="EX3" t="n">
-        <v>242.2820739746094</v>
+        <v>152.347900390625</v>
       </c>
       <c r="EY3" t="n">
-        <v>242.2183532714844</v>
+        <v>149.9562683105469</v>
       </c>
       <c r="EZ3" t="n">
-        <v>242.1531219482422</v>
+        <v>146.403076171875</v>
       </c>
       <c r="FA3" t="n">
-        <v>242.0821075439453</v>
+        <v>144.0479278564453</v>
       </c>
       <c r="FB3" t="n">
-        <v>242.0506134033203</v>
+        <v>141.5287475585938</v>
       </c>
       <c r="FC3" t="n">
-        <v>242.0173950195312</v>
+        <v>140.89697265625</v>
       </c>
       <c r="FD3" t="n">
-        <v>241.9555358886719</v>
+        <v>143.7684020996094</v>
       </c>
       <c r="FE3" t="n">
-        <v>241.8605499267578</v>
+        <v>147.2495269775391</v>
       </c>
       <c r="FF3" t="n">
-        <v>241.8115386962891</v>
+        <v>156.6182556152344</v>
       </c>
       <c r="FG3" t="n">
-        <v>241.7877349853516</v>
+        <v>161.9562225341797</v>
       </c>
       <c r="FH3" t="n">
-        <v>241.6994171142578</v>
+        <v>173.0940093994141</v>
       </c>
       <c r="FI3" t="n">
-        <v>241.6120452880859</v>
+        <v>179.0933837890625</v>
       </c>
       <c r="FJ3" t="n">
-        <v>241.5233154296875</v>
+        <v>198.6159515380859</v>
       </c>
       <c r="FK3" t="n">
-        <v>241.4692535400391</v>
+        <v>213.2338562011719</v>
       </c>
       <c r="FL3" t="n">
-        <v>241.4523620605469</v>
+        <v>233.4686126708984</v>
       </c>
       <c r="FM3" t="n">
-        <v>241.4183197021484</v>
+        <v>239.5564880371094</v>
       </c>
       <c r="FN3" t="n">
-        <v>241.4152374267578</v>
+        <v>244.5251922607422</v>
       </c>
       <c r="FO3" t="n">
-        <v>241.4147796630859</v>
+        <v>256.3699340820312</v>
       </c>
       <c r="FP3" t="n">
-        <v>241.4117736816406</v>
+        <v>273.51025390625</v>
       </c>
       <c r="FQ3" t="n">
-        <v>241.4102325439453</v>
+        <v>280.4767456054688</v>
       </c>
       <c r="FR3" t="n">
-        <v>241.4152374267578</v>
+        <v>282.20263671875</v>
       </c>
       <c r="FS3" t="n">
-        <v>241.4221496582031</v>
+        <v>277.566650390625</v>
       </c>
       <c r="FT3" t="n">
-        <v>241.4196472167969</v>
+        <v>271.9951782226562</v>
       </c>
       <c r="FU3" t="n">
-        <v>241.4086608886719</v>
+        <v>260.370849609375</v>
       </c>
       <c r="FV3" t="n">
-        <v>241.4001617431641</v>
+        <v>258.2989807128906</v>
       </c>
       <c r="FW3" t="n">
-        <v>241.3832702636719</v>
+        <v>259.13720703125</v>
       </c>
       <c r="FX3" t="n">
-        <v>241.3845672607422</v>
+        <v>261.4566040039062</v>
       </c>
       <c r="FY3" t="n">
-        <v>241.3898010253906</v>
+        <v>262.9064331054688</v>
       </c>
       <c r="FZ3" t="n">
-        <v>241.3934936523438</v>
+        <v>264.4114074707031</v>
       </c>
       <c r="GA3" t="n">
-        <v>241.4058227539062</v>
+        <v>266.3641662597656</v>
       </c>
       <c r="GB3" t="n">
-        <v>241.4127502441406</v>
+        <v>266.7196044921875</v>
       </c>
       <c r="GC3" t="n">
-        <v>241.4310913085938</v>
+        <v>266.9901428222656</v>
       </c>
       <c r="GD3" t="n">
-        <v>241.4409790039062</v>
+        <v>267.4342346191406</v>
       </c>
       <c r="GE3" t="n">
-        <v>241.4439239501953</v>
+        <v>267.63232421875</v>
       </c>
       <c r="GF3" t="n">
-        <v>241.4492492675781</v>
+        <v>267.8387451171875</v>
       </c>
       <c r="GG3" t="n">
-        <v>241.4310302734375</v>
+        <v>270.9263610839844</v>
       </c>
       <c r="GH3" t="n">
-        <v>241.3667144775391</v>
+        <v>274.5984191894531</v>
       </c>
       <c r="GI3" t="n">
-        <v>241.3353881835938</v>
+        <v>282.271728515625</v>
       </c>
       <c r="GJ3" t="n">
-        <v>241.3213653564453</v>
+        <v>284.0227355957031</v>
       </c>
       <c r="GK3" t="n">
-        <v>241.2977905273438</v>
+        <v>288.6238098144531</v>
       </c>
       <c r="GL3" t="n">
-        <v>241.2808227539062</v>
+        <v>290.8289489746094</v>
       </c>
       <c r="GM3" t="n">
-        <v>241.2763824462891</v>
+        <v>293.1347045898438</v>
       </c>
       <c r="GN3" t="n">
-        <v>241.2787017822266</v>
+        <v>294.1372680664062</v>
       </c>
       <c r="GO3" t="n">
-        <v>241.2802734375</v>
+        <v>293.6620178222656</v>
       </c>
       <c r="GP3" t="n">
-        <v>241.2801055908203</v>
+        <v>289.4629516601562</v>
       </c>
       <c r="GQ3" t="n">
-        <v>241.2738342285156</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>241.2751312255859</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>241.2779541015625</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>241.2962493896484</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>241.3072814941406</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>241.3683471679688</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>241.4419860839844</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>241.47802734375</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>241.5388793945312</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>241.3847961425781</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>241.1960754394531</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>240.9204711914062</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>239.8013610839844</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>239.4780578613281</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>238.6027069091797</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>238.5129241943359</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>238.2711944580078</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>236.7185668945312</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>231.9631195068359</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>229.4889678955078</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>226.154541015625</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>224.8697662353516</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>224.2973175048828</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>224.0069885253906</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>220.7389526367188</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>216.5922698974609</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>214.6070251464844</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>213.6226196289062</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>212.8346862792969</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>211.7566833496094</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>209.7963256835938</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>208.5498352050781</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>202.3072509765625</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>195.3145446777344</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>191.7867584228516</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>190.1170043945312</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>187.9461517333984</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>179.9113922119141</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>177.7264709472656</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>174.0259246826172</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>170.3794555664062</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>165.7384033203125</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>160.8995819091797</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>155.4045104980469</v>
-      </c>
-      <c r="II3" t="n">
-        <v>149.1682891845703</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>142.8406829833984</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>138.8302917480469</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>143.82763671875</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>157.6132507324219</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>217.8635101318359</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>256.2923889160156</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>272.612548828125</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>264.4095153808594</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>250.2119598388672</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>236.9613800048828</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>218.4082183837891</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>195.9527587890625</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>178.2371826171875</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>162.0221557617188</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>160.0196685791016</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>184.7888641357422</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>221.8826141357422</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>253.3333129882812</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>291.7667236328125</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>301.96923828125</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>296.7943115234375</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>289.5440368652344</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>286.7252502441406</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>287.3688049316406</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>290.4348754882812</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>292.5612182617188</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>294.6344909667969</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>296.9288635253906</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>298.625732421875</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>301.2367553710938</v>
+        <v>279.70361328125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>938.6353149414062</v>
+        <v>1190.583129882812</v>
       </c>
       <c r="B4" t="n">
-        <v>938.9343872070312</v>
+        <v>1190.0107421875</v>
       </c>
       <c r="C4" t="n">
-        <v>939.0162353515625</v>
+        <v>1189.556274414062</v>
       </c>
       <c r="D4" t="n">
-        <v>939.0165405273438</v>
+        <v>1187.157592773438</v>
       </c>
       <c r="E4" t="n">
-        <v>939.0250854492188</v>
+        <v>1183.470458984375</v>
       </c>
       <c r="F4" t="n">
-        <v>939.03955078125</v>
+        <v>1179.192749023438</v>
       </c>
       <c r="G4" t="n">
-        <v>939.0540771484375</v>
+        <v>1174.54736328125</v>
       </c>
       <c r="H4" t="n">
-        <v>939.0595703125</v>
+        <v>1170.218139648438</v>
       </c>
       <c r="I4" t="n">
-        <v>939.0640869140625</v>
+        <v>1167.64599609375</v>
       </c>
       <c r="J4" t="n">
-        <v>939.06787109375</v>
+        <v>1166.473510742188</v>
       </c>
       <c r="K4" t="n">
-        <v>939.0740966796875</v>
+        <v>1166.402587890625</v>
       </c>
       <c r="L4" t="n">
-        <v>938.935791015625</v>
+        <v>1168.636962890625</v>
       </c>
       <c r="M4" t="n">
-        <v>938.7824096679688</v>
+        <v>1176.90771484375</v>
       </c>
       <c r="N4" t="n">
-        <v>938.6397705078125</v>
+        <v>1196.178344726562</v>
       </c>
       <c r="O4" t="n">
-        <v>938.5040283203125</v>
+        <v>1218.431396484375</v>
       </c>
       <c r="P4" t="n">
-        <v>938.3440551757812</v>
+        <v>1237.75927734375</v>
       </c>
       <c r="Q4" t="n">
-        <v>938.1535034179688</v>
+        <v>1251.241821289062</v>
       </c>
       <c r="R4" t="n">
-        <v>937.9447021484375</v>
+        <v>1260.756958007812</v>
       </c>
       <c r="S4" t="n">
-        <v>937.5682983398438</v>
+        <v>1269.126708984375</v>
       </c>
       <c r="T4" t="n">
-        <v>935.2225952148438</v>
+        <v>1279.151000976562</v>
       </c>
       <c r="U4" t="n">
-        <v>931.149658203125</v>
+        <v>1290.911865234375</v>
       </c>
       <c r="V4" t="n">
-        <v>926.1126098632812</v>
+        <v>1303.231689453125</v>
       </c>
       <c r="W4" t="n">
-        <v>920.9335327148438</v>
+        <v>1314.349243164062</v>
       </c>
       <c r="X4" t="n">
-        <v>916.0821533203125</v>
+        <v>1323.685791015625</v>
       </c>
       <c r="Y4" t="n">
-        <v>912.0623779296875</v>
+        <v>1330.619750976562</v>
       </c>
       <c r="Z4" t="n">
-        <v>908.2998046875</v>
+        <v>1336.384033203125</v>
       </c>
       <c r="AA4" t="n">
-        <v>904.2611083984375</v>
+        <v>1340.876708984375</v>
       </c>
       <c r="AB4" t="n">
-        <v>900.8627319335938</v>
+        <v>1343.785034179688</v>
       </c>
       <c r="AC4" t="n">
-        <v>898.6552124023438</v>
+        <v>1344.49267578125</v>
       </c>
       <c r="AD4" t="n">
-        <v>897.5398559570312</v>
+        <v>1343.6171875</v>
       </c>
       <c r="AE4" t="n">
-        <v>896.319580078125</v>
+        <v>1341.4560546875</v>
       </c>
       <c r="AF4" t="n">
-        <v>895.0607299804688</v>
+        <v>1338.15771484375</v>
       </c>
       <c r="AG4" t="n">
-        <v>894.017578125</v>
+        <v>1334.709716796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>894.0679931640625</v>
+        <v>1331.666625976562</v>
       </c>
       <c r="AI4" t="n">
-        <v>895.5472412109375</v>
+        <v>1327.708984375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>896.919677734375</v>
+        <v>1322.772094726562</v>
       </c>
       <c r="AK4" t="n">
-        <v>900.5072631835938</v>
+        <v>1316.86181640625</v>
       </c>
       <c r="AL4" t="n">
-        <v>908.093505859375</v>
+        <v>1310.723510742188</v>
       </c>
       <c r="AM4" t="n">
-        <v>919.9351806640625</v>
+        <v>1304.489135742188</v>
       </c>
       <c r="AN4" t="n">
-        <v>933.8814697265625</v>
+        <v>1298.3154296875</v>
       </c>
       <c r="AO4" t="n">
-        <v>950.2672119140625</v>
+        <v>1293.3349609375</v>
       </c>
       <c r="AP4" t="n">
-        <v>968.4791870117188</v>
+        <v>1289.520629882812</v>
       </c>
       <c r="AQ4" t="n">
-        <v>989.46630859375</v>
+        <v>1286.271240234375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1013.178466796875</v>
+        <v>1283.475830078125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1039.355590820312</v>
+        <v>1281.014770507812</v>
       </c>
       <c r="AT4" t="n">
-        <v>1066.494262695312</v>
+        <v>1278.3623046875</v>
       </c>
       <c r="AU4" t="n">
-        <v>1093.759765625</v>
+        <v>1273.748657226562</v>
       </c>
       <c r="AV4" t="n">
-        <v>1133.658935546875</v>
+        <v>1270.236450195312</v>
       </c>
       <c r="AW4" t="n">
-        <v>1175.9072265625</v>
+        <v>1268.213256835938</v>
       </c>
       <c r="AX4" t="n">
-        <v>1214.386962890625</v>
+        <v>1267.67431640625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1244.375610351562</v>
+        <v>1268.946411132812</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1268.474853515625</v>
+        <v>1272.856323242188</v>
       </c>
       <c r="BA4" t="n">
-        <v>1289.017944335938</v>
+        <v>1278.279052734375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1316.1904296875</v>
+        <v>1286.111450195312</v>
       </c>
       <c r="BC4" t="n">
-        <v>1344.698608398438</v>
+        <v>1291.9326171875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1372.1416015625</v>
+        <v>1296.646484375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1394.904907226562</v>
+        <v>1302.439697265625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1414.4091796875</v>
+        <v>1308.614624023438</v>
       </c>
       <c r="BG4" t="n">
-        <v>1434.720947265625</v>
+        <v>1316.134521484375</v>
       </c>
       <c r="BH4" t="n">
-        <v>1451.751342773438</v>
+        <v>1322.263305664062</v>
       </c>
       <c r="BI4" t="n">
-        <v>1485.933471679688</v>
+        <v>1326.740234375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1501.946411132812</v>
+        <v>1330.146606445312</v>
       </c>
       <c r="BK4" t="n">
-        <v>1518.048583984375</v>
+        <v>1333.24658203125</v>
       </c>
       <c r="BL4" t="n">
-        <v>1539.04638671875</v>
+        <v>1335.825805664062</v>
       </c>
       <c r="BM4" t="n">
-        <v>1560.269775390625</v>
+        <v>1337.94970703125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1578.400390625</v>
+        <v>1340.0908203125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1596.003540039062</v>
+        <v>1341.7314453125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1616.646484375</v>
+        <v>1343.240356445312</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1637.400756835938</v>
+        <v>1344.333984375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1657.111328125</v>
+        <v>1344.883422851562</v>
       </c>
       <c r="BS4" t="n">
-        <v>1676.923950195312</v>
+        <v>1345.272583007812</v>
       </c>
       <c r="BT4" t="n">
-        <v>1694.299682617188</v>
+        <v>1345.655395507812</v>
       </c>
       <c r="BU4" t="n">
-        <v>1710.10009765625</v>
+        <v>1346.007446289062</v>
       </c>
       <c r="BV4" t="n">
-        <v>1732.184936523438</v>
+        <v>1346.176147460938</v>
       </c>
       <c r="BW4" t="n">
-        <v>1757.854248046875</v>
+        <v>1346.226318359375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1783.043579101562</v>
+        <v>1346.274536132812</v>
       </c>
       <c r="BY4" t="n">
-        <v>1803.1552734375</v>
+        <v>1346.316650390625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1819.722412109375</v>
+        <v>1346.36181640625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1836.144897460938</v>
+        <v>1346.427490234375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1850.302856445312</v>
+        <v>1346.506103515625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1864.697265625</v>
+        <v>1346.592041015625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1878.33056640625</v>
+        <v>1346.67919921875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1895.59375</v>
+        <v>1346.7705078125</v>
       </c>
       <c r="CF4" t="n">
-        <v>1913.469970703125</v>
+        <v>1346.908813476562</v>
       </c>
       <c r="CG4" t="n">
-        <v>1932.077392578125</v>
+        <v>1347.116455078125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1949.0087890625</v>
+        <v>1347.483520507812</v>
       </c>
       <c r="CI4" t="n">
-        <v>1959.08935546875</v>
+        <v>1347.990234375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1966.384155273438</v>
+        <v>1349.508178710938</v>
       </c>
       <c r="CK4" t="n">
-        <v>1973.57373046875</v>
+        <v>1351.50537109375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1982.848999023438</v>
+        <v>1353.894409179688</v>
       </c>
       <c r="CM4" t="n">
-        <v>1993.08740234375</v>
+        <v>1354.594970703125</v>
       </c>
       <c r="CN4" t="n">
-        <v>2004.273559570312</v>
+        <v>1355.244140625</v>
       </c>
       <c r="CO4" t="n">
-        <v>2013.707763671875</v>
+        <v>1355.889038085938</v>
       </c>
       <c r="CP4" t="n">
-        <v>2022.740478515625</v>
+        <v>1356.52685546875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2030.503784179688</v>
+        <v>1357.170532226562</v>
       </c>
       <c r="CR4" t="n">
-        <v>2037.672485351562</v>
+        <v>1358.42431640625</v>
       </c>
       <c r="CS4" t="n">
-        <v>2045.143920898438</v>
+        <v>1359.041137695312</v>
       </c>
       <c r="CT4" t="n">
-        <v>2061.173583984375</v>
+        <v>1359.383544921875</v>
       </c>
       <c r="CU4" t="n">
-        <v>2076.2900390625</v>
+        <v>1359.425903320312</v>
       </c>
       <c r="CV4" t="n">
-        <v>2089.88037109375</v>
+        <v>1358.681396484375</v>
       </c>
       <c r="CW4" t="n">
-        <v>2099.558349609375</v>
+        <v>1357.874755859375</v>
       </c>
       <c r="CX4" t="n">
-        <v>2109.57568359375</v>
+        <v>1357.497436523438</v>
       </c>
       <c r="CY4" t="n">
-        <v>2129.367431640625</v>
+        <v>1357.34033203125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2138.865234375</v>
+        <v>1357.4931640625</v>
       </c>
       <c r="DA4" t="n">
-        <v>2150.8916015625</v>
+        <v>1358.322509765625</v>
       </c>
       <c r="DB4" t="n">
-        <v>2155.51513671875</v>
+        <v>1359.526733398438</v>
       </c>
       <c r="DC4" t="n">
-        <v>2158.97021484375</v>
+        <v>1360.08544921875</v>
       </c>
       <c r="DD4" t="n">
-        <v>2162.1865234375</v>
+        <v>1360.2548828125</v>
       </c>
       <c r="DE4" t="n">
-        <v>2164.6923828125</v>
+        <v>1360.28466796875</v>
       </c>
       <c r="DF4" t="n">
-        <v>2166.47119140625</v>
+        <v>1360.271850585938</v>
       </c>
       <c r="DG4" t="n">
-        <v>2169.486083984375</v>
+        <v>1360.249145507812</v>
       </c>
       <c r="DH4" t="n">
-        <v>2176.118408203125</v>
+        <v>1360.190185546875</v>
       </c>
       <c r="DI4" t="n">
-        <v>2177.910888671875</v>
+        <v>1359.993530273438</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2178.45654296875</v>
+        <v>1358.733276367188</v>
       </c>
       <c r="DK4" t="n">
-        <v>2179.9267578125</v>
+        <v>1355.731323242188</v>
       </c>
       <c r="DL4" t="n">
-        <v>2181.9267578125</v>
+        <v>1344.146240234375</v>
       </c>
       <c r="DM4" t="n">
-        <v>2183.075927734375</v>
+        <v>1339.150512695312</v>
       </c>
       <c r="DN4" t="n">
-        <v>2183.68359375</v>
+        <v>1334.99560546875</v>
       </c>
       <c r="DO4" t="n">
-        <v>2184.56298828125</v>
+        <v>1331.681640625</v>
       </c>
       <c r="DP4" t="n">
-        <v>2184.91259765625</v>
+        <v>1325.974853515625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2185.67041015625</v>
+        <v>1322.047729492188</v>
       </c>
       <c r="DR4" t="n">
-        <v>2186.113525390625</v>
+        <v>1317.718627929688</v>
       </c>
       <c r="DS4" t="n">
-        <v>2186.539306640625</v>
+        <v>1309.557250976562</v>
       </c>
       <c r="DT4" t="n">
-        <v>2187.421875</v>
+        <v>1306.324462890625</v>
       </c>
       <c r="DU4" t="n">
-        <v>2187.552734375</v>
+        <v>1303.413818359375</v>
       </c>
       <c r="DV4" t="n">
-        <v>2187.66748046875</v>
+        <v>1300.733642578125</v>
       </c>
       <c r="DW4" t="n">
-        <v>2187.8642578125</v>
+        <v>1297.255737304688</v>
       </c>
       <c r="DX4" t="n">
-        <v>2187.848388671875</v>
+        <v>1295.106201171875</v>
       </c>
       <c r="DY4" t="n">
-        <v>2187.8193359375</v>
+        <v>1292.155151367188</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2186.975341796875</v>
+        <v>1285.658813476562</v>
       </c>
       <c r="EA4" t="n">
-        <v>2186.378173828125</v>
+        <v>1281.501220703125</v>
       </c>
       <c r="EB4" t="n">
-        <v>2185.443115234375</v>
+        <v>1270.903076171875</v>
       </c>
       <c r="EC4" t="n">
-        <v>2181.8447265625</v>
+        <v>1265.244750976562</v>
       </c>
       <c r="ED4" t="n">
-        <v>2179.463623046875</v>
+        <v>1252.03466796875</v>
       </c>
       <c r="EE4" t="n">
-        <v>2172.199951171875</v>
+        <v>1244.030639648438</v>
       </c>
       <c r="EF4" t="n">
-        <v>2166.025390625</v>
+        <v>1235.401733398438</v>
       </c>
       <c r="EG4" t="n">
-        <v>2163.13671875</v>
+        <v>1217.920532226562</v>
       </c>
       <c r="EH4" t="n">
-        <v>2163.211181640625</v>
+        <v>1209.195678710938</v>
       </c>
       <c r="EI4" t="n">
-        <v>2163.413330078125</v>
+        <v>1182.446533203125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2163.4560546875</v>
+        <v>1163.969848632812</v>
       </c>
       <c r="EK4" t="n">
-        <v>2163.614990234375</v>
+        <v>1127.599243164062</v>
       </c>
       <c r="EL4" t="n">
-        <v>2163.749267578125</v>
+        <v>1114.2490234375</v>
       </c>
       <c r="EM4" t="n">
-        <v>2163.86572265625</v>
+        <v>1080.74169921875</v>
       </c>
       <c r="EN4" t="n">
-        <v>2163.86474609375</v>
+        <v>1063.253784179688</v>
       </c>
       <c r="EO4" t="n">
-        <v>2163.8525390625</v>
+        <v>1031.492065429688</v>
       </c>
       <c r="EP4" t="n">
-        <v>2163.412109375</v>
+        <v>1020.881469726562</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2160.256103515625</v>
+        <v>1000.281311035156</v>
       </c>
       <c r="ER4" t="n">
-        <v>2153.34521484375</v>
+        <v>990.6607666015625</v>
       </c>
       <c r="ES4" t="n">
-        <v>2150.61328125</v>
+        <v>973.5769653320312</v>
       </c>
       <c r="ET4" t="n">
-        <v>2148.662109375</v>
+        <v>963.8900146484375</v>
       </c>
       <c r="EU4" t="n">
-        <v>2148.249755859375</v>
+        <v>954.2145385742188</v>
       </c>
       <c r="EV4" t="n">
-        <v>2148.204833984375</v>
+        <v>933.5751953125</v>
       </c>
       <c r="EW4" t="n">
-        <v>2148.18310546875</v>
+        <v>908.6570434570312</v>
       </c>
       <c r="EX4" t="n">
-        <v>2148.10791015625</v>
+        <v>894.2344360351562</v>
       </c>
       <c r="EY4" t="n">
-        <v>2147.975830078125</v>
+        <v>865.0670776367188</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2147.76318359375</v>
+        <v>836.366943359375</v>
       </c>
       <c r="FA4" t="n">
-        <v>2147.36865234375</v>
+        <v>820.03466796875</v>
       </c>
       <c r="FB4" t="n">
-        <v>2147.26513671875</v>
+        <v>803.7134399414062</v>
       </c>
       <c r="FC4" t="n">
-        <v>2147.20751953125</v>
+        <v>775.6781005859375</v>
       </c>
       <c r="FD4" t="n">
-        <v>2147.1552734375</v>
+        <v>756.0753784179688</v>
       </c>
       <c r="FE4" t="n">
-        <v>2147.141357421875</v>
+        <v>749.7859497070312</v>
       </c>
       <c r="FF4" t="n">
-        <v>2147.219482421875</v>
+        <v>743.9725341796875</v>
       </c>
       <c r="FG4" t="n">
-        <v>2147.261962890625</v>
+        <v>742.6072387695312</v>
       </c>
       <c r="FH4" t="n">
-        <v>2147.31201171875</v>
+        <v>746.21826171875</v>
       </c>
       <c r="FI4" t="n">
-        <v>2147.0029296875</v>
+        <v>750.8103637695312</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2146.748046875</v>
+        <v>761.0516967773438</v>
       </c>
       <c r="FK4" t="n">
-        <v>2146.228271484375</v>
+        <v>764.3950805664062</v>
       </c>
       <c r="FL4" t="n">
-        <v>2145.810546875</v>
+        <v>766.4186401367188</v>
       </c>
       <c r="FM4" t="n">
-        <v>2145.0078125</v>
+        <v>767.4299926757812</v>
       </c>
       <c r="FN4" t="n">
-        <v>2144.58349609375</v>
+        <v>767.3897094726562</v>
       </c>
       <c r="FO4" t="n">
-        <v>2143.955810546875</v>
+        <v>768.20263671875</v>
       </c>
       <c r="FP4" t="n">
-        <v>2142.663330078125</v>
+        <v>778.4434814453125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2141.490234375</v>
+        <v>786.1019287109375</v>
       </c>
       <c r="FR4" t="n">
-        <v>2140.78955078125</v>
+        <v>803.7684936523438</v>
       </c>
       <c r="FS4" t="n">
-        <v>2139.27392578125</v>
+        <v>816.5986938476562</v>
       </c>
       <c r="FT4" t="n">
-        <v>2138.874755859375</v>
+        <v>828.332763671875</v>
       </c>
       <c r="FU4" t="n">
-        <v>2137.896240234375</v>
+        <v>845.96337890625</v>
       </c>
       <c r="FV4" t="n">
-        <v>2137.3408203125</v>
+        <v>851.2530517578125</v>
       </c>
       <c r="FW4" t="n">
-        <v>2135.614990234375</v>
+        <v>858.6580200195312</v>
       </c>
       <c r="FX4" t="n">
-        <v>2135.0302734375</v>
+        <v>863.5693359375</v>
       </c>
       <c r="FY4" t="n">
-        <v>2134.642578125</v>
+        <v>865.7770385742188</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2134.4111328125</v>
+        <v>867.340087890625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2133.592041015625</v>
+        <v>868.616943359375</v>
       </c>
       <c r="GB4" t="n">
-        <v>2133.212158203125</v>
+        <v>868.8634033203125</v>
       </c>
       <c r="GC4" t="n">
-        <v>2132.675048828125</v>
+        <v>861.1837768554688</v>
       </c>
       <c r="GD4" t="n">
-        <v>2132.869140625</v>
+        <v>846.0133666992188</v>
       </c>
       <c r="GE4" t="n">
-        <v>2133.189208984375</v>
+        <v>838.2911376953125</v>
       </c>
       <c r="GF4" t="n">
-        <v>2133.343994140625</v>
+        <v>831.3184814453125</v>
       </c>
       <c r="GG4" t="n">
-        <v>2132.72802734375</v>
+        <v>821.6427001953125</v>
       </c>
       <c r="GH4" t="n">
-        <v>2130.7685546875</v>
+        <v>816.4120483398438</v>
       </c>
       <c r="GI4" t="n">
-        <v>2129.9013671875</v>
+        <v>805.0257568359375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2129.556884765625</v>
+        <v>798.0880126953125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2129.04150390625</v>
+        <v>779.3399047851562</v>
       </c>
       <c r="GL4" t="n">
-        <v>2128.66162109375</v>
+        <v>769.6234741210938</v>
       </c>
       <c r="GM4" t="n">
-        <v>2128.559814453125</v>
+        <v>754.006591796875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2128.606689453125</v>
+        <v>743.560791015625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2128.627685546875</v>
+        <v>739.3930053710938</v>
       </c>
       <c r="GP4" t="n">
-        <v>2128.695556640625</v>
+        <v>733.031494140625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2128.7880859375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2128.97509765625</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2129.064208984375</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2129.3154296875</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2129.4423828125</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2130.939208984375</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2133.17724609375</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2131.623291015625</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2122.98828125</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2105.08447265625</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2094.515869140625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2076.38720703125</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>2047.732666015625</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>2033.923095703125</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1991.967163085938</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1972.756591796875</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1918.79296875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1865.133544921875</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1829.664306640625</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1810.747192382812</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1767.056640625</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1721.432983398438</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1694.32080078125</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1682.211181640625</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1653.772827148438</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1620.095458984375</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1586.783325195312</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1550.173461914062</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1512.274169921875</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1473.320434570312</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1433.1796875</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1411.04541015625</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1369.290649414062</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1334.218872070312</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1290.118286132812</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1258.088745117188</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1226.518676757812</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1173.719970703125</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1155.63525390625</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1116.557006835938</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1076.343383789062</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>1026.792114257812</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>972.2342529296875</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>913.6729125976562</v>
-      </c>
-      <c r="II4" t="n">
-        <v>853.8883666992188</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>803.5758056640625</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>756.98095703125</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>710.4844970703125</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>664.8402099609375</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>596.867431640625</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>568.8361206054688</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>558.3204345703125</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>561.6747436523438</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>570.0138549804688</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>586.0855712890625</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>614.2954711914062</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>639.7340698242188</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>656.25390625</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>668.2500610351562</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>673.934814453125</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>674.9434204101562</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>675.4262084960938</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>687.2466430664062</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>741.604248046875</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>791.8778076171875</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>828.58056640625</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>860.69775390625</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>890.4599609375</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>915.2567749023438</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>921.4180908203125</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>921.888916015625</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>904.2435302734375</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>877.572021484375</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>851.1831665039062</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>813.5680541992188</v>
+        <v>729.8331909179688</v>
       </c>
     </row>
   </sheetData>

--- a/left_collar_Data.xlsx
+++ b/left_collar_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>409.1794128417969</v>
+        <v>336.5530700683594</v>
       </c>
       <c r="B2" t="n">
-        <v>408.8568115234375</v>
+        <v>332.9967651367188</v>
       </c>
       <c r="C2" t="n">
-        <v>408.4871826171875</v>
+        <v>331.3675537109375</v>
       </c>
       <c r="D2" t="n">
-        <v>408.1604309082031</v>
+        <v>330.304931640625</v>
       </c>
       <c r="E2" t="n">
-        <v>407.7055358886719</v>
+        <v>329.0433959960938</v>
       </c>
       <c r="F2" t="n">
-        <v>407.0978393554688</v>
+        <v>328.0774536132812</v>
       </c>
       <c r="G2" t="n">
-        <v>406.3301086425781</v>
+        <v>327.5747375488281</v>
       </c>
       <c r="H2" t="n">
-        <v>405.2749938964844</v>
+        <v>327.307373046875</v>
       </c>
       <c r="I2" t="n">
-        <v>403.8209533691406</v>
+        <v>327.4303588867188</v>
       </c>
       <c r="J2" t="n">
-        <v>401.420166015625</v>
+        <v>327.5616760253906</v>
       </c>
       <c r="K2" t="n">
-        <v>398.1384582519531</v>
+        <v>328.0154418945312</v>
       </c>
       <c r="L2" t="n">
-        <v>394.0953063964844</v>
+        <v>328.8306274414062</v>
       </c>
       <c r="M2" t="n">
-        <v>389.3326416015625</v>
+        <v>329.5331420898438</v>
       </c>
       <c r="N2" t="n">
-        <v>380.0267333984375</v>
+        <v>330.2307434082031</v>
       </c>
       <c r="O2" t="n">
-        <v>370.9364624023438</v>
+        <v>330.6727600097656</v>
       </c>
       <c r="P2" t="n">
-        <v>365.5050048828125</v>
+        <v>331.0016479492188</v>
       </c>
       <c r="Q2" t="n">
-        <v>362.419189453125</v>
+        <v>331.1101684570312</v>
       </c>
       <c r="R2" t="n">
-        <v>360.7453918457031</v>
+        <v>331.1459045410156</v>
       </c>
       <c r="S2" t="n">
-        <v>359.7300720214844</v>
+        <v>331.0380859375</v>
       </c>
       <c r="T2" t="n">
-        <v>358.8350219726562</v>
+        <v>330.8245849609375</v>
       </c>
       <c r="U2" t="n">
-        <v>357.8788452148438</v>
+        <v>330.5060424804688</v>
       </c>
       <c r="V2" t="n">
-        <v>356.84814453125</v>
+        <v>329.8907470703125</v>
       </c>
       <c r="W2" t="n">
-        <v>355.946533203125</v>
+        <v>329.1373901367188</v>
       </c>
       <c r="X2" t="n">
-        <v>355.3082885742188</v>
+        <v>327.7081909179688</v>
       </c>
       <c r="Y2" t="n">
-        <v>354.7664794921875</v>
+        <v>325.8865661621094</v>
       </c>
       <c r="Z2" t="n">
-        <v>354.1819458007812</v>
+        <v>324.3077087402344</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.5175170898438</v>
+        <v>323.0198364257812</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.8399353027344</v>
+        <v>321.5633850097656</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.4420166015625</v>
+        <v>320.3121337890625</v>
       </c>
       <c r="AD2" t="n">
-        <v>352.4029541015625</v>
+        <v>319.2672729492188</v>
       </c>
       <c r="AE2" t="n">
-        <v>352.58740234375</v>
+        <v>318.2755126953125</v>
       </c>
       <c r="AF2" t="n">
-        <v>353.442138671875</v>
+        <v>317.6294250488281</v>
       </c>
       <c r="AG2" t="n">
-        <v>354.8068237304688</v>
+        <v>317.1838684082031</v>
       </c>
       <c r="AH2" t="n">
-        <v>356.3179931640625</v>
+        <v>316.8749389648438</v>
       </c>
       <c r="AI2" t="n">
-        <v>357.7094116210938</v>
+        <v>316.6539306640625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>359.1206665039062</v>
+        <v>316.3743896484375</v>
       </c>
       <c r="AK2" t="n">
-        <v>360.4644775390625</v>
+        <v>316.2538146972656</v>
       </c>
       <c r="AL2" t="n">
-        <v>361.5579833984375</v>
+        <v>316.2125244140625</v>
       </c>
       <c r="AM2" t="n">
-        <v>362.4098510742188</v>
+        <v>316.2007751464844</v>
       </c>
       <c r="AN2" t="n">
-        <v>362.9340209960938</v>
+        <v>316.2713928222656</v>
       </c>
       <c r="AO2" t="n">
-        <v>363.248779296875</v>
+        <v>316.457763671875</v>
       </c>
       <c r="AP2" t="n">
-        <v>363.4408264160156</v>
+        <v>317.170166015625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>363.5780334472656</v>
+        <v>318.5612182617188</v>
       </c>
       <c r="AR2" t="n">
-        <v>363.6507568359375</v>
+        <v>320.3762817382812</v>
       </c>
       <c r="AS2" t="n">
-        <v>362.8008422851562</v>
+        <v>322.0470581054688</v>
       </c>
       <c r="AT2" t="n">
-        <v>360.7099914550781</v>
+        <v>323.4351196289062</v>
       </c>
       <c r="AU2" t="n">
-        <v>357.0399169921875</v>
+        <v>324.3668212890625</v>
       </c>
       <c r="AV2" t="n">
-        <v>352.3618774414062</v>
+        <v>325.0863952636719</v>
       </c>
       <c r="AW2" t="n">
-        <v>347.4942626953125</v>
+        <v>325.7498474121094</v>
       </c>
       <c r="AX2" t="n">
-        <v>339.935546875</v>
+        <v>326.2474975585938</v>
       </c>
       <c r="AY2" t="n">
-        <v>332.9945068359375</v>
+        <v>326.4845275878906</v>
       </c>
       <c r="AZ2" t="n">
-        <v>324.8041076660156</v>
+        <v>326.6318359375</v>
       </c>
       <c r="BA2" t="n">
-        <v>316.3239440917969</v>
+        <v>326.6985473632812</v>
       </c>
       <c r="BB2" t="n">
-        <v>307.4945068359375</v>
+        <v>326.7267456054688</v>
       </c>
       <c r="BC2" t="n">
-        <v>299.693359375</v>
+        <v>326.7321166992188</v>
       </c>
       <c r="BD2" t="n">
-        <v>293.6231384277344</v>
+        <v>326.7286376953125</v>
       </c>
       <c r="BE2" t="n">
-        <v>286.0589294433594</v>
+        <v>326.6936645507812</v>
       </c>
       <c r="BF2" t="n">
-        <v>277.7982788085938</v>
+        <v>326.5867919921875</v>
       </c>
       <c r="BG2" t="n">
-        <v>270.8734130859375</v>
+        <v>326.353515625</v>
       </c>
       <c r="BH2" t="n">
-        <v>265.0396118164062</v>
+        <v>326.0612487792969</v>
       </c>
       <c r="BI2" t="n">
-        <v>260.6891784667969</v>
+        <v>325.6438903808594</v>
       </c>
       <c r="BJ2" t="n">
-        <v>257.3214111328125</v>
+        <v>325.1426696777344</v>
       </c>
       <c r="BK2" t="n">
-        <v>254.5172729492188</v>
+        <v>324.5494995117188</v>
       </c>
       <c r="BL2" t="n">
-        <v>251.8219604492188</v>
+        <v>323.8812561035156</v>
       </c>
       <c r="BM2" t="n">
-        <v>248.2218322753906</v>
+        <v>323.3180236816406</v>
       </c>
       <c r="BN2" t="n">
-        <v>244.7596435546875</v>
+        <v>322.9296264648438</v>
       </c>
       <c r="BO2" t="n">
-        <v>241.9236450195312</v>
+        <v>322.6497802734375</v>
       </c>
       <c r="BP2" t="n">
-        <v>239.69873046875</v>
+        <v>322.4553833007812</v>
       </c>
       <c r="BQ2" t="n">
-        <v>238.0218505859375</v>
+        <v>322.2985229492188</v>
       </c>
       <c r="BR2" t="n">
-        <v>236.5945739746094</v>
+        <v>322.2355346679688</v>
       </c>
       <c r="BS2" t="n">
-        <v>235.5616149902344</v>
+        <v>322.2080993652344</v>
       </c>
       <c r="BT2" t="n">
-        <v>234.6653442382812</v>
+        <v>322.1806335449219</v>
       </c>
       <c r="BU2" t="n">
-        <v>233.9800720214844</v>
+        <v>322.15234375</v>
       </c>
       <c r="BV2" t="n">
-        <v>233.5997772216797</v>
+        <v>322.1281433105469</v>
       </c>
       <c r="BW2" t="n">
-        <v>233.3849792480469</v>
+        <v>322.1057434082031</v>
       </c>
       <c r="BX2" t="n">
-        <v>233.1770629882812</v>
+        <v>322.0736083984375</v>
       </c>
       <c r="BY2" t="n">
-        <v>232.9133758544922</v>
+        <v>322.0589599609375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>232.7181091308594</v>
+        <v>322.0428161621094</v>
       </c>
       <c r="CA2" t="n">
-        <v>232.5426025390625</v>
+        <v>322.0092163085938</v>
       </c>
       <c r="CB2" t="n">
-        <v>232.3890686035156</v>
+        <v>321.9844970703125</v>
       </c>
       <c r="CC2" t="n">
-        <v>232.2442016601562</v>
+        <v>321.9594116210938</v>
       </c>
       <c r="CD2" t="n">
-        <v>232.0957183837891</v>
+        <v>321.9263916015625</v>
       </c>
       <c r="CE2" t="n">
-        <v>231.9567565917969</v>
+        <v>321.8954772949219</v>
       </c>
       <c r="CF2" t="n">
-        <v>231.8495483398438</v>
+        <v>321.8655090332031</v>
       </c>
       <c r="CG2" t="n">
-        <v>232.0903015136719</v>
+        <v>321.8327331542969</v>
       </c>
       <c r="CH2" t="n">
-        <v>232.6217346191406</v>
+        <v>321.798828125</v>
       </c>
       <c r="CI2" t="n">
-        <v>233.2939453125</v>
+        <v>321.7647094726562</v>
       </c>
       <c r="CJ2" t="n">
-        <v>233.7623596191406</v>
+        <v>321.7279663085938</v>
       </c>
       <c r="CK2" t="n">
-        <v>234.0863952636719</v>
+        <v>321.6931457519531</v>
       </c>
       <c r="CL2" t="n">
-        <v>234.3511657714844</v>
+        <v>321.6664123535156</v>
       </c>
       <c r="CM2" t="n">
-        <v>234.4135284423828</v>
+        <v>321.6327514648438</v>
       </c>
       <c r="CN2" t="n">
-        <v>234.4689178466797</v>
+        <v>321.5995788574219</v>
       </c>
       <c r="CO2" t="n">
-        <v>234.5202331542969</v>
+        <v>321.57080078125</v>
       </c>
       <c r="CP2" t="n">
-        <v>234.5695190429688</v>
+        <v>321.5386352539062</v>
       </c>
       <c r="CQ2" t="n">
-        <v>234.6211395263672</v>
+        <v>321.5072021484375</v>
       </c>
       <c r="CR2" t="n">
-        <v>234.7253112792969</v>
+        <v>321.4573974609375</v>
       </c>
       <c r="CS2" t="n">
-        <v>234.7712860107422</v>
+        <v>321.40576171875</v>
       </c>
       <c r="CT2" t="n">
-        <v>234.6498413085938</v>
+        <v>321.3558349609375</v>
       </c>
       <c r="CU2" t="n">
-        <v>234.3237915039062</v>
+        <v>321.3008117675781</v>
       </c>
       <c r="CV2" t="n">
-        <v>233.8492584228516</v>
+        <v>321.2301635742188</v>
       </c>
       <c r="CW2" t="n">
-        <v>233.511474609375</v>
+        <v>321.15185546875</v>
       </c>
       <c r="CX2" t="n">
-        <v>233.6366882324219</v>
+        <v>321.0731201171875</v>
       </c>
       <c r="CY2" t="n">
-        <v>234.4574279785156</v>
+        <v>320.9921569824219</v>
       </c>
       <c r="CZ2" t="n">
-        <v>235.4893188476562</v>
+        <v>320.9148559570312</v>
       </c>
       <c r="DA2" t="n">
-        <v>236.8018493652344</v>
+        <v>320.8387756347656</v>
       </c>
       <c r="DB2" t="n">
-        <v>238.1583862304688</v>
+        <v>320.6837768554688</v>
       </c>
       <c r="DC2" t="n">
-        <v>239.2733612060547</v>
+        <v>320.6070556640625</v>
       </c>
       <c r="DD2" t="n">
-        <v>240.4540100097656</v>
+        <v>320.5286254882812</v>
       </c>
       <c r="DE2" t="n">
-        <v>242.2560424804688</v>
+        <v>320.447265625</v>
       </c>
       <c r="DF2" t="n">
-        <v>244.4547882080078</v>
+        <v>320.369873046875</v>
       </c>
       <c r="DG2" t="n">
-        <v>247.2761840820312</v>
+        <v>320.2901916503906</v>
       </c>
       <c r="DH2" t="n">
-        <v>250.7810668945312</v>
+        <v>320.1690979003906</v>
       </c>
       <c r="DI2" t="n">
-        <v>254.7128295898438</v>
+        <v>320.025390625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>258.6643676757812</v>
+        <v>319.8849182128906</v>
       </c>
       <c r="DK2" t="n">
-        <v>263.6023254394531</v>
+        <v>319.6279907226562</v>
       </c>
       <c r="DL2" t="n">
-        <v>274.1692199707031</v>
+        <v>319.3838500976562</v>
       </c>
       <c r="DM2" t="n">
-        <v>280.2905883789062</v>
+        <v>319.27734375</v>
       </c>
       <c r="DN2" t="n">
-        <v>289.9236145019531</v>
+        <v>319.1200256347656</v>
       </c>
       <c r="DO2" t="n">
-        <v>299.9219360351562</v>
+        <v>319.0695190429688</v>
       </c>
       <c r="DP2" t="n">
-        <v>315.7998046875</v>
+        <v>319.0112915039062</v>
       </c>
       <c r="DQ2" t="n">
-        <v>322.6428527832031</v>
+        <v>318.9519653320312</v>
       </c>
       <c r="DR2" t="n">
-        <v>329.2237854003906</v>
+        <v>318.8935546875</v>
       </c>
       <c r="DS2" t="n">
-        <v>342.6075439453125</v>
+        <v>318.8285827636719</v>
       </c>
       <c r="DT2" t="n">
-        <v>349.2956237792969</v>
+        <v>318.6962280273438</v>
       </c>
       <c r="DU2" t="n">
-        <v>355.4247436523438</v>
+        <v>318.6325988769531</v>
       </c>
       <c r="DV2" t="n">
-        <v>365.22607421875</v>
+        <v>318.4999389648438</v>
       </c>
       <c r="DW2" t="n">
-        <v>373.2747802734375</v>
+        <v>318.4345703125</v>
       </c>
       <c r="DX2" t="n">
-        <v>377.19921875</v>
+        <v>318.3672790527344</v>
       </c>
       <c r="DY2" t="n">
-        <v>381.1931762695312</v>
+        <v>318.2231140136719</v>
       </c>
       <c r="DZ2" t="n">
-        <v>385.8257751464844</v>
+        <v>318.1476440429688</v>
       </c>
       <c r="EA2" t="n">
-        <v>387.2813415527344</v>
+        <v>317.97705078125</v>
       </c>
       <c r="EB2" t="n">
-        <v>390.2283935546875</v>
+        <v>317.8994140625</v>
       </c>
       <c r="EC2" t="n">
-        <v>391.2603759765625</v>
+        <v>317.8026733398438</v>
       </c>
       <c r="ED2" t="n">
-        <v>392.5225219726562</v>
+        <v>317.6204223632812</v>
       </c>
       <c r="EE2" t="n">
-        <v>393.0328063964844</v>
+        <v>317.5274353027344</v>
       </c>
       <c r="EF2" t="n">
-        <v>393.3045043945312</v>
+        <v>317.3464660644531</v>
       </c>
       <c r="EG2" t="n">
-        <v>392.783935546875</v>
+        <v>317.2536315917969</v>
       </c>
       <c r="EH2" t="n">
-        <v>391.0849304199219</v>
+        <v>317.1811828613281</v>
       </c>
       <c r="EI2" t="n">
-        <v>382.5050354003906</v>
+        <v>317.0999755859375</v>
       </c>
       <c r="EJ2" t="n">
-        <v>376.3883056640625</v>
+        <v>317.0982666015625</v>
       </c>
       <c r="EK2" t="n">
-        <v>368.32470703125</v>
+        <v>317.0850219726562</v>
       </c>
       <c r="EL2" t="n">
-        <v>363.7281494140625</v>
+        <v>317.0785522460938</v>
       </c>
       <c r="EM2" t="n">
-        <v>350.9026794433594</v>
+        <v>317.0840759277344</v>
       </c>
       <c r="EN2" t="n">
-        <v>343.1945190429688</v>
+        <v>317.0879516601562</v>
       </c>
       <c r="EO2" t="n">
-        <v>329.1942749023438</v>
+        <v>317.0868835449219</v>
       </c>
       <c r="EP2" t="n">
-        <v>323.0839233398438</v>
+        <v>317.0880737304688</v>
       </c>
       <c r="EQ2" t="n">
-        <v>311.818359375</v>
+        <v>317.0957336425781</v>
       </c>
       <c r="ER2" t="n">
-        <v>304.8165893554688</v>
+        <v>317.1051330566406</v>
       </c>
       <c r="ES2" t="n">
-        <v>294.7241821289062</v>
+        <v>317.1094360351562</v>
       </c>
       <c r="ET2" t="n">
-        <v>291.3282165527344</v>
+        <v>317.1172790527344</v>
       </c>
       <c r="EU2" t="n">
-        <v>288.0070495605469</v>
+        <v>317.1211547851562</v>
       </c>
       <c r="EV2" t="n">
-        <v>280.4185485839844</v>
+        <v>317.12451171875</v>
       </c>
       <c r="EW2" t="n">
-        <v>269.7929077148438</v>
+        <v>317.1319274902344</v>
       </c>
       <c r="EX2" t="n">
-        <v>264.0835571289062</v>
+        <v>317.1446838378906</v>
       </c>
       <c r="EY2" t="n">
-        <v>253.4700317382812</v>
+        <v>317.1595458984375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>244.5582275390625</v>
+        <v>317.1669006347656</v>
       </c>
       <c r="FA2" t="n">
-        <v>241.0923156738281</v>
+        <v>317.1770629882812</v>
       </c>
       <c r="FB2" t="n">
-        <v>238.5653076171875</v>
+        <v>317.1800537109375</v>
       </c>
       <c r="FC2" t="n">
-        <v>234.0730285644531</v>
+        <v>317.1805114746094</v>
       </c>
       <c r="FD2" t="n">
-        <v>231.6127777099609</v>
+        <v>317.1792602539062</v>
       </c>
       <c r="FE2" t="n">
-        <v>231.2288208007812</v>
+        <v>317.1782836914062</v>
       </c>
       <c r="FF2" t="n">
-        <v>231.5416259765625</v>
+        <v>317.1768188476562</v>
       </c>
       <c r="FG2" t="n">
-        <v>231.9730987548828</v>
+        <v>317.1716003417969</v>
       </c>
       <c r="FH2" t="n">
-        <v>233.9308013916016</v>
+        <v>317.1666564941406</v>
       </c>
       <c r="FI2" t="n">
-        <v>237.5879516601562</v>
+        <v>317.0780639648438</v>
       </c>
       <c r="FJ2" t="n">
-        <v>253.2408142089844</v>
+        <v>316.9253540039062</v>
       </c>
       <c r="FK2" t="n">
-        <v>265.3670959472656</v>
+        <v>316.8164672851562</v>
       </c>
       <c r="FL2" t="n">
-        <v>287.9917602539062</v>
+        <v>316.3741149902344</v>
       </c>
       <c r="FM2" t="n">
-        <v>297.0731201171875</v>
+        <v>315.9795837402344</v>
       </c>
       <c r="FN2" t="n">
-        <v>306.4634704589844</v>
+        <v>315.3594665527344</v>
       </c>
       <c r="FO2" t="n">
-        <v>327.4808349609375</v>
+        <v>315.1731567382812</v>
       </c>
       <c r="FP2" t="n">
-        <v>360.1256713867188</v>
+        <v>315.0567932128906</v>
       </c>
       <c r="FQ2" t="n">
-        <v>378.1653442382812</v>
+        <v>315.0196838378906</v>
       </c>
       <c r="FR2" t="n">
-        <v>402.7217407226562</v>
+        <v>314.98876953125</v>
       </c>
       <c r="FS2" t="n">
-        <v>411.5848083496094</v>
+        <v>314.9764404296875</v>
       </c>
       <c r="FT2" t="n">
-        <v>419.4521484375</v>
+        <v>314.9515686035156</v>
       </c>
       <c r="FU2" t="n">
-        <v>441.6386108398438</v>
+        <v>314.9302673339844</v>
       </c>
       <c r="FV2" t="n">
-        <v>449.9332275390625</v>
+        <v>314.9158020019531</v>
       </c>
       <c r="FW2" t="n">
-        <v>462.6771850585938</v>
+        <v>314.8880004882812</v>
       </c>
       <c r="FX2" t="n">
-        <v>471.540283203125</v>
+        <v>314.8746032714844</v>
       </c>
       <c r="FY2" t="n">
-        <v>474.7561340332031</v>
+        <v>314.8301391601562</v>
       </c>
       <c r="FZ2" t="n">
-        <v>477.530029296875</v>
+        <v>314.8126220703125</v>
       </c>
       <c r="GA2" t="n">
-        <v>480.6338195800781</v>
+        <v>314.7896728515625</v>
       </c>
       <c r="GB2" t="n">
-        <v>482.3740234375</v>
+        <v>314.7802734375</v>
       </c>
       <c r="GC2" t="n">
-        <v>483.669677734375</v>
+        <v>314.7648010253906</v>
       </c>
       <c r="GD2" t="n">
-        <v>480.1823120117188</v>
+        <v>314.75341796875</v>
       </c>
       <c r="GE2" t="n">
-        <v>475.9254455566406</v>
+        <v>314.7320251464844</v>
       </c>
       <c r="GF2" t="n">
-        <v>469.2457580566406</v>
+        <v>314.7095642089844</v>
       </c>
       <c r="GG2" t="n">
-        <v>444.9397583007812</v>
+        <v>314.70556640625</v>
       </c>
       <c r="GH2" t="n">
-        <v>432.0003662109375</v>
+        <v>314.6985473632812</v>
       </c>
       <c r="GI2" t="n">
-        <v>407.1681518554688</v>
+        <v>314.6958923339844</v>
       </c>
       <c r="GJ2" t="n">
-        <v>396.5603942871094</v>
+        <v>314.6955261230469</v>
       </c>
       <c r="GK2" t="n">
-        <v>381.2404174804688</v>
+        <v>314.6964721679688</v>
       </c>
       <c r="GL2" t="n">
-        <v>372.5553588867188</v>
+        <v>314.7001342773438</v>
       </c>
       <c r="GM2" t="n">
-        <v>353.7288818359375</v>
+        <v>314.7147216796875</v>
       </c>
       <c r="GN2" t="n">
-        <v>340.3467407226562</v>
+        <v>314.7180786132812</v>
       </c>
       <c r="GO2" t="n">
-        <v>336.8587646484375</v>
+        <v>314.7203369140625</v>
       </c>
       <c r="GP2" t="n">
-        <v>332.5522155761719</v>
+        <v>314.7204895019531</v>
       </c>
       <c r="GQ2" t="n">
-        <v>327.1623229980469</v>
+        <v>314.717529296875</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>314.7159423828125</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>314.7127990722656</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>314.6968383789062</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>314.6817626953125</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>314.6642150878906</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>314.6469421386719</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>314.6302185058594</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>314.6171875</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>314.6093444824219</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>314.6014709472656</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>314.5998229980469</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>314.59814453125</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>314.5969848632812</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>314.5946960449219</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>314.5910034179688</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>314.5785217285156</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>314.5708923339844</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>314.5719299316406</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>314.572509765625</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>314.5728759765625</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>314.5726623535156</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>314.5721740722656</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>314.5708618164062</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>314.5692443847656</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>314.5672607421875</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>314.565673828125</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>314.5707397460938</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>314.5801391601562</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>314.5848999023438</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>314.5819702148438</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>314.5785217285156</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>314.5755004882812</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>314.5687866210938</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>314.554931640625</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>314.5465393066406</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>314.5165710449219</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>314.4896545410156</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>314.4408569335938</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>314.3973083496094</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>314.3510131835938</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>314.3650207519531</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>314.3787536621094</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>314.3646545410156</v>
+      </c>
+      <c r="II2" t="n">
+        <v>314.3486328125</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>314.3345947265625</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>314.31982421875</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>314.3053588867188</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>314.2759399414062</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>314.2505187988281</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>314.2340698242188</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>314.2245483398438</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>314.2236328125</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>314.2239685058594</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>314.2258911132812</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>314.2283325195312</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>314.23046875</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>314.4094543457031</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>314.5145874023438</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>314.5599365234375</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>314.5649108886719</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>314.5619201660156</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>314.5588684082031</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>314.5543518066406</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>314.5448913574219</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>314.5027770996094</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>314.4363403320312</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>314.3684997558594</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>314.2475280761719</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>313.9620971679688</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>313.5690002441406</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>313.1204833984375</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>312.6708068847656</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>312.2374572753906</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>311.9974060058594</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>311.8149719238281</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>311.768798828125</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>311.7648620605469</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>311.8043518066406</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>311.93115234375</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>312.0310668945312</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>312.0702209472656</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>312.0771789550781</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>312.0799865722656</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>312.0706176757812</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>311.9571533203125</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>311.8505249023438</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>311.7222595214844</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>311.1155395507812</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>310.5603942871094</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>309.3409423828125</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>307.0430908203125</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>306.6166381835938</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>306.0195007324219</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>304.8925476074219</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>304.4690856933594</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>304.1998901367188</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>304.2946166992188</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>304.3100891113281</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>305.3935852050781</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>308.0036926269531</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>312.3495483398438</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>318.0380249023438</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>321.2061767578125</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>323.2985229492188</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>324.891357421875</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>325.8738708496094</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>325.9697265625</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>324.3897094726562</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>321.796875</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>319.5725402832031</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>314.729248046875</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>311.7217712402344</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>310.1118469238281</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>308.1504516601562</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>307.2926635742188</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>306.70068359375</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>306.0949096679688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>273.201904296875</v>
+        <v>213.4801330566406</v>
       </c>
       <c r="B3" t="n">
-        <v>270.2817077636719</v>
+        <v>209.9940795898438</v>
       </c>
       <c r="C3" t="n">
-        <v>267.0626220703125</v>
+        <v>208.8441619873047</v>
       </c>
       <c r="D3" t="n">
-        <v>265.1698913574219</v>
+        <v>208.8296508789062</v>
       </c>
       <c r="E3" t="n">
-        <v>263.8791198730469</v>
+        <v>209.0157012939453</v>
       </c>
       <c r="F3" t="n">
-        <v>262.6570129394531</v>
+        <v>210.1569061279297</v>
       </c>
       <c r="G3" t="n">
-        <v>260.6211242675781</v>
+        <v>211.7159271240234</v>
       </c>
       <c r="H3" t="n">
-        <v>257.9715881347656</v>
+        <v>213.1863708496094</v>
       </c>
       <c r="I3" t="n">
-        <v>254.6014099121094</v>
+        <v>214.8677825927734</v>
       </c>
       <c r="J3" t="n">
-        <v>250.0467071533203</v>
+        <v>216.8956909179688</v>
       </c>
       <c r="K3" t="n">
-        <v>244.6799163818359</v>
+        <v>220.6732025146484</v>
       </c>
       <c r="L3" t="n">
-        <v>238.7714233398438</v>
+        <v>224.4920501708984</v>
       </c>
       <c r="M3" t="n">
-        <v>232.1929321289062</v>
+        <v>228.420166015625</v>
       </c>
       <c r="N3" t="n">
-        <v>220.3437805175781</v>
+        <v>230.7613067626953</v>
       </c>
       <c r="O3" t="n">
-        <v>208.1807250976562</v>
+        <v>232.0701293945312</v>
       </c>
       <c r="P3" t="n">
-        <v>197.5621795654297</v>
+        <v>232.6383209228516</v>
       </c>
       <c r="Q3" t="n">
-        <v>191.0338745117188</v>
+        <v>231.8291778564453</v>
       </c>
       <c r="R3" t="n">
-        <v>186.6524963378906</v>
+        <v>229.8756256103516</v>
       </c>
       <c r="S3" t="n">
-        <v>183.2132873535156</v>
+        <v>228.7227783203125</v>
       </c>
       <c r="T3" t="n">
-        <v>179.6550140380859</v>
+        <v>228.0555114746094</v>
       </c>
       <c r="U3" t="n">
-        <v>175.9697723388672</v>
+        <v>227.8637390136719</v>
       </c>
       <c r="V3" t="n">
-        <v>172.17919921875</v>
+        <v>228.3296203613281</v>
       </c>
       <c r="W3" t="n">
-        <v>168.7191772460938</v>
+        <v>231.0579681396484</v>
       </c>
       <c r="X3" t="n">
-        <v>165.7157135009766</v>
+        <v>234.1562805175781</v>
       </c>
       <c r="Y3" t="n">
-        <v>163.1867065429688</v>
+        <v>236.8217468261719</v>
       </c>
       <c r="Z3" t="n">
-        <v>161.0637359619141</v>
+        <v>239.9911193847656</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.4854583740234</v>
+        <v>243.6703796386719</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.2050933837891</v>
+        <v>246.7469177246094</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.1893920898438</v>
+        <v>249.8459014892578</v>
       </c>
       <c r="AD3" t="n">
-        <v>156.4385070800781</v>
+        <v>252.1090850830078</v>
       </c>
       <c r="AE3" t="n">
-        <v>155.8703765869141</v>
+        <v>253.3826904296875</v>
       </c>
       <c r="AF3" t="n">
-        <v>155.2693939208984</v>
+        <v>254.5889282226562</v>
       </c>
       <c r="AG3" t="n">
-        <v>154.7732849121094</v>
+        <v>255.5707397460938</v>
       </c>
       <c r="AH3" t="n">
-        <v>154.4660186767578</v>
+        <v>256.3558349609375</v>
       </c>
       <c r="AI3" t="n">
-        <v>154.1781311035156</v>
+        <v>256.7070007324219</v>
       </c>
       <c r="AJ3" t="n">
-        <v>153.8687591552734</v>
+        <v>256.7483215332031</v>
       </c>
       <c r="AK3" t="n">
-        <v>153.5035247802734</v>
+        <v>256.7008361816406</v>
       </c>
       <c r="AL3" t="n">
-        <v>153.1126403808594</v>
+        <v>256.6769409179688</v>
       </c>
       <c r="AM3" t="n">
-        <v>152.7035980224609</v>
+        <v>256.6783142089844</v>
       </c>
       <c r="AN3" t="n">
-        <v>152.2891540527344</v>
+        <v>256.6845092773438</v>
       </c>
       <c r="AO3" t="n">
-        <v>151.9432067871094</v>
+        <v>256.6985473632812</v>
       </c>
       <c r="AP3" t="n">
-        <v>151.6697845458984</v>
+        <v>256.68212890625</v>
       </c>
       <c r="AQ3" t="n">
-        <v>151.4326934814453</v>
+        <v>256.6380310058594</v>
       </c>
       <c r="AR3" t="n">
-        <v>151.3255615234375</v>
+        <v>256.5811157226562</v>
       </c>
       <c r="AS3" t="n">
-        <v>151.6593322753906</v>
+        <v>256.537841796875</v>
       </c>
       <c r="AT3" t="n">
-        <v>152.2075958251953</v>
+        <v>256.5025024414062</v>
       </c>
       <c r="AU3" t="n">
-        <v>153.3757629394531</v>
+        <v>256.6459655761719</v>
       </c>
       <c r="AV3" t="n">
-        <v>154.5472259521484</v>
+        <v>257.261962890625</v>
       </c>
       <c r="AW3" t="n">
-        <v>155.7410430908203</v>
+        <v>258.2886352539062</v>
       </c>
       <c r="AX3" t="n">
-        <v>156.6780548095703</v>
+        <v>259.3235168457031</v>
       </c>
       <c r="AY3" t="n">
-        <v>157.9396057128906</v>
+        <v>260.0051574707031</v>
       </c>
       <c r="AZ3" t="n">
-        <v>159.2550964355469</v>
+        <v>260.5069885253906</v>
       </c>
       <c r="BA3" t="n">
-        <v>160.5893096923828</v>
+        <v>260.7375793457031</v>
       </c>
       <c r="BB3" t="n">
-        <v>161.7331085205078</v>
+        <v>260.8435363769531</v>
       </c>
       <c r="BC3" t="n">
-        <v>163.1893463134766</v>
+        <v>260.8900146484375</v>
       </c>
       <c r="BD3" t="n">
-        <v>164.3726501464844</v>
+        <v>260.8994750976562</v>
       </c>
       <c r="BE3" t="n">
-        <v>164.8867797851562</v>
+        <v>260.9167175292969</v>
       </c>
       <c r="BF3" t="n">
-        <v>164.7715759277344</v>
+        <v>260.8911437988281</v>
       </c>
       <c r="BG3" t="n">
-        <v>164.5084838867188</v>
+        <v>260.8322448730469</v>
       </c>
       <c r="BH3" t="n">
-        <v>164.0018920898438</v>
+        <v>260.7894592285156</v>
       </c>
       <c r="BI3" t="n">
-        <v>163.6232452392578</v>
+        <v>260.7456359863281</v>
       </c>
       <c r="BJ3" t="n">
-        <v>163.2174530029297</v>
+        <v>260.6871032714844</v>
       </c>
       <c r="BK3" t="n">
-        <v>162.9740295410156</v>
+        <v>260.6268005371094</v>
       </c>
       <c r="BL3" t="n">
-        <v>162.785888671875</v>
+        <v>260.6392211914062</v>
       </c>
       <c r="BM3" t="n">
-        <v>162.7486724853516</v>
+        <v>260.6963806152344</v>
       </c>
       <c r="BN3" t="n">
-        <v>162.8372497558594</v>
+        <v>260.7437744140625</v>
       </c>
       <c r="BO3" t="n">
-        <v>162.9261627197266</v>
+        <v>260.7788391113281</v>
       </c>
       <c r="BP3" t="n">
-        <v>162.9995880126953</v>
+        <v>260.8165588378906</v>
       </c>
       <c r="BQ3" t="n">
-        <v>163.0530853271484</v>
+        <v>260.8211059570312</v>
       </c>
       <c r="BR3" t="n">
-        <v>163.0939178466797</v>
+        <v>260.8236389160156</v>
       </c>
       <c r="BS3" t="n">
-        <v>163.1490020751953</v>
+        <v>260.8250122070312</v>
       </c>
       <c r="BT3" t="n">
-        <v>163.2210693359375</v>
+        <v>260.8315734863281</v>
       </c>
       <c r="BU3" t="n">
-        <v>163.2956390380859</v>
+        <v>260.83349609375</v>
       </c>
       <c r="BV3" t="n">
-        <v>163.371826171875</v>
+        <v>260.8350524902344</v>
       </c>
       <c r="BW3" t="n">
-        <v>163.5023651123047</v>
+        <v>260.8374938964844</v>
       </c>
       <c r="BX3" t="n">
-        <v>163.6657867431641</v>
+        <v>260.8374328613281</v>
       </c>
       <c r="BY3" t="n">
-        <v>163.8621368408203</v>
+        <v>260.8358459472656</v>
       </c>
       <c r="BZ3" t="n">
-        <v>164.0941467285156</v>
+        <v>260.8325500488281</v>
       </c>
       <c r="CA3" t="n">
-        <v>164.3808898925781</v>
+        <v>260.8407592773438</v>
       </c>
       <c r="CB3" t="n">
-        <v>164.6937561035156</v>
+        <v>260.8694763183594</v>
       </c>
       <c r="CC3" t="n">
-        <v>165.0393218994141</v>
+        <v>260.8992614746094</v>
       </c>
       <c r="CD3" t="n">
-        <v>165.404541015625</v>
+        <v>260.9275512695312</v>
       </c>
       <c r="CE3" t="n">
-        <v>165.7603302001953</v>
+        <v>260.9634094238281</v>
       </c>
       <c r="CF3" t="n">
-        <v>166.1139526367188</v>
+        <v>260.9990234375</v>
       </c>
       <c r="CG3" t="n">
-        <v>166.4581756591797</v>
+        <v>261.0348205566406</v>
       </c>
       <c r="CH3" t="n">
-        <v>166.7772216796875</v>
+        <v>261.0671691894531</v>
       </c>
       <c r="CI3" t="n">
-        <v>167.0752105712891</v>
+        <v>261.1168823242188</v>
       </c>
       <c r="CJ3" t="n">
-        <v>167.4611358642578</v>
+        <v>261.1707763671875</v>
       </c>
       <c r="CK3" t="n">
-        <v>167.8023071289062</v>
+        <v>261.2086181640625</v>
       </c>
       <c r="CL3" t="n">
-        <v>168.1646118164062</v>
+        <v>261.2439575195312</v>
       </c>
       <c r="CM3" t="n">
-        <v>168.3680877685547</v>
+        <v>261.2796325683594</v>
       </c>
       <c r="CN3" t="n">
-        <v>168.5735626220703</v>
+        <v>261.3470764160156</v>
       </c>
       <c r="CO3" t="n">
-        <v>168.68212890625</v>
+        <v>261.4255065917969</v>
       </c>
       <c r="CP3" t="n">
-        <v>168.770751953125</v>
+        <v>261.4990539550781</v>
       </c>
       <c r="CQ3" t="n">
-        <v>168.8573913574219</v>
+        <v>261.5783386230469</v>
       </c>
       <c r="CR3" t="n">
-        <v>169.0372314453125</v>
+        <v>261.6529235839844</v>
       </c>
       <c r="CS3" t="n">
-        <v>169.1000061035156</v>
+        <v>261.6775817871094</v>
       </c>
       <c r="CT3" t="n">
-        <v>169.1545562744141</v>
+        <v>261.6933288574219</v>
       </c>
       <c r="CU3" t="n">
-        <v>169.2127838134766</v>
+        <v>261.6928405761719</v>
       </c>
       <c r="CV3" t="n">
-        <v>169.2298278808594</v>
+        <v>261.6661376953125</v>
       </c>
       <c r="CW3" t="n">
-        <v>169.2018585205078</v>
+        <v>261.6103210449219</v>
       </c>
       <c r="CX3" t="n">
-        <v>169.1921539306641</v>
+        <v>261.5707397460938</v>
       </c>
       <c r="CY3" t="n">
-        <v>169.2029571533203</v>
+        <v>261.5697631835938</v>
       </c>
       <c r="CZ3" t="n">
-        <v>169.2386322021484</v>
+        <v>261.6366271972656</v>
       </c>
       <c r="DA3" t="n">
-        <v>169.3283386230469</v>
+        <v>261.71337890625</v>
       </c>
       <c r="DB3" t="n">
-        <v>169.4375610351562</v>
+        <v>261.7863464355469</v>
       </c>
       <c r="DC3" t="n">
-        <v>169.4886169433594</v>
+        <v>261.8297119140625</v>
       </c>
       <c r="DD3" t="n">
-        <v>169.5068511962891</v>
+        <v>261.8806762695312</v>
       </c>
       <c r="DE3" t="n">
-        <v>169.5121307373047</v>
+        <v>261.9404602050781</v>
       </c>
       <c r="DF3" t="n">
-        <v>169.5132904052734</v>
+        <v>261.9835510253906</v>
       </c>
       <c r="DG3" t="n">
-        <v>169.5094757080078</v>
+        <v>262.0345764160156</v>
       </c>
       <c r="DH3" t="n">
-        <v>169.4948883056641</v>
+        <v>262.08447265625</v>
       </c>
       <c r="DI3" t="n">
-        <v>169.4720611572266</v>
+        <v>262.092041015625</v>
       </c>
       <c r="DJ3" t="n">
-        <v>169.4030303955078</v>
+        <v>262.1005859375</v>
       </c>
       <c r="DK3" t="n">
-        <v>169.2052917480469</v>
+        <v>262.1353759765625</v>
       </c>
       <c r="DL3" t="n">
-        <v>168.4264984130859</v>
+        <v>262.4501342773438</v>
       </c>
       <c r="DM3" t="n">
-        <v>168.13037109375</v>
+        <v>262.6299133300781</v>
       </c>
       <c r="DN3" t="n">
-        <v>169.09814453125</v>
+        <v>262.8348388671875</v>
       </c>
       <c r="DO3" t="n">
-        <v>170.2310638427734</v>
+        <v>262.8596801757812</v>
       </c>
       <c r="DP3" t="n">
-        <v>171.4351196289062</v>
+        <v>262.8735961914062</v>
       </c>
       <c r="DQ3" t="n">
-        <v>171.7090606689453</v>
+        <v>262.8935852050781</v>
       </c>
       <c r="DR3" t="n">
-        <v>171.6759490966797</v>
+        <v>262.9090270996094</v>
       </c>
       <c r="DS3" t="n">
-        <v>171.4456329345703</v>
+        <v>262.9374389648438</v>
       </c>
       <c r="DT3" t="n">
-        <v>171.3314666748047</v>
+        <v>263.0071716308594</v>
       </c>
       <c r="DU3" t="n">
-        <v>171.177978515625</v>
+        <v>263.0668640136719</v>
       </c>
       <c r="DV3" t="n">
-        <v>168.1066436767578</v>
+        <v>263.1773071289062</v>
       </c>
       <c r="DW3" t="n">
-        <v>163.3389282226562</v>
+        <v>263.2320251464844</v>
       </c>
       <c r="DX3" t="n">
-        <v>161.5871276855469</v>
+        <v>263.2906188964844</v>
       </c>
       <c r="DY3" t="n">
-        <v>160.5279693603516</v>
+        <v>263.3167724609375</v>
       </c>
       <c r="DZ3" t="n">
-        <v>159.4743194580078</v>
+        <v>263.3185119628906</v>
       </c>
       <c r="EA3" t="n">
-        <v>159.0986480712891</v>
+        <v>263.3248901367188</v>
       </c>
       <c r="EB3" t="n">
-        <v>158.3100891113281</v>
+        <v>263.3291931152344</v>
       </c>
       <c r="EC3" t="n">
-        <v>157.8898468017578</v>
+        <v>263.3348999023438</v>
       </c>
       <c r="ED3" t="n">
-        <v>156.9147033691406</v>
+        <v>263.3456726074219</v>
       </c>
       <c r="EE3" t="n">
-        <v>156.2906036376953</v>
+        <v>263.3655700683594</v>
       </c>
       <c r="EF3" t="n">
-        <v>155.54541015625</v>
+        <v>263.4505920410156</v>
       </c>
       <c r="EG3" t="n">
-        <v>153.9616851806641</v>
+        <v>263.5246887207031</v>
       </c>
       <c r="EH3" t="n">
-        <v>153.9347991943359</v>
+        <v>263.5960998535156</v>
       </c>
       <c r="EI3" t="n">
-        <v>154.1422729492188</v>
+        <v>263.732666015625</v>
       </c>
       <c r="EJ3" t="n">
-        <v>154.3769073486328</v>
+        <v>263.7603454589844</v>
       </c>
       <c r="EK3" t="n">
-        <v>154.2702331542969</v>
+        <v>263.7755126953125</v>
       </c>
       <c r="EL3" t="n">
-        <v>154.2330169677734</v>
+        <v>263.7772521972656</v>
       </c>
       <c r="EM3" t="n">
-        <v>152.6144866943359</v>
+        <v>263.7383422851562</v>
       </c>
       <c r="EN3" t="n">
-        <v>151.9356536865234</v>
+        <v>263.6692504882812</v>
       </c>
       <c r="EO3" t="n">
-        <v>151.6831970214844</v>
+        <v>263.4703369140625</v>
       </c>
       <c r="EP3" t="n">
-        <v>153.0057220458984</v>
+        <v>263.4168701171875</v>
       </c>
       <c r="EQ3" t="n">
-        <v>154.1604309082031</v>
+        <v>263.3335876464844</v>
       </c>
       <c r="ER3" t="n">
-        <v>153.9093475341797</v>
+        <v>263.2688598632812</v>
       </c>
       <c r="ES3" t="n">
-        <v>154.1625366210938</v>
+        <v>263.2465209960938</v>
       </c>
       <c r="ET3" t="n">
-        <v>154.8234100341797</v>
+        <v>263.2022399902344</v>
       </c>
       <c r="EU3" t="n">
-        <v>155.2610015869141</v>
+        <v>263.193359375</v>
       </c>
       <c r="EV3" t="n">
-        <v>154.3820648193359</v>
+        <v>263.1853942871094</v>
       </c>
       <c r="EW3" t="n">
-        <v>153.0972595214844</v>
+        <v>263.1630249023438</v>
       </c>
       <c r="EX3" t="n">
-        <v>152.347900390625</v>
+        <v>263.1353149414062</v>
       </c>
       <c r="EY3" t="n">
-        <v>149.9562683105469</v>
+        <v>263.153076171875</v>
       </c>
       <c r="EZ3" t="n">
-        <v>146.403076171875</v>
+        <v>263.1994934082031</v>
       </c>
       <c r="FA3" t="n">
-        <v>144.0479278564453</v>
+        <v>263.3228149414062</v>
       </c>
       <c r="FB3" t="n">
-        <v>141.5287475585938</v>
+        <v>263.369384765625</v>
       </c>
       <c r="FC3" t="n">
-        <v>140.89697265625</v>
+        <v>263.3798828125</v>
       </c>
       <c r="FD3" t="n">
-        <v>143.7684020996094</v>
+        <v>263.3850708007812</v>
       </c>
       <c r="FE3" t="n">
-        <v>147.2495269775391</v>
+        <v>263.3913269042969</v>
       </c>
       <c r="FF3" t="n">
-        <v>156.6182556152344</v>
+        <v>263.3879089355469</v>
       </c>
       <c r="FG3" t="n">
-        <v>161.9562225341797</v>
+        <v>263.4197387695312</v>
       </c>
       <c r="FH3" t="n">
-        <v>173.0940093994141</v>
+        <v>263.4373474121094</v>
       </c>
       <c r="FI3" t="n">
-        <v>179.0933837890625</v>
+        <v>263.4731140136719</v>
       </c>
       <c r="FJ3" t="n">
-        <v>198.6159515380859</v>
+        <v>263.4957885742188</v>
       </c>
       <c r="FK3" t="n">
-        <v>213.2338562011719</v>
+        <v>263.5042419433594</v>
       </c>
       <c r="FL3" t="n">
-        <v>233.4686126708984</v>
+        <v>263.519287109375</v>
       </c>
       <c r="FM3" t="n">
-        <v>239.5564880371094</v>
+        <v>263.5205078125</v>
       </c>
       <c r="FN3" t="n">
-        <v>244.5251922607422</v>
+        <v>263.5281982421875</v>
       </c>
       <c r="FO3" t="n">
-        <v>256.3699340820312</v>
+        <v>263.5329284667969</v>
       </c>
       <c r="FP3" t="n">
-        <v>273.51025390625</v>
+        <v>263.5437316894531</v>
       </c>
       <c r="FQ3" t="n">
-        <v>280.4767456054688</v>
+        <v>263.5470886230469</v>
       </c>
       <c r="FR3" t="n">
-        <v>282.20263671875</v>
+        <v>263.5479736328125</v>
       </c>
       <c r="FS3" t="n">
-        <v>277.566650390625</v>
+        <v>263.5445861816406</v>
       </c>
       <c r="FT3" t="n">
-        <v>271.9951782226562</v>
+        <v>263.5396728515625</v>
       </c>
       <c r="FU3" t="n">
-        <v>260.370849609375</v>
+        <v>263.5384826660156</v>
       </c>
       <c r="FV3" t="n">
-        <v>258.2989807128906</v>
+        <v>263.5365295410156</v>
       </c>
       <c r="FW3" t="n">
-        <v>259.13720703125</v>
+        <v>263.5246887207031</v>
       </c>
       <c r="FX3" t="n">
-        <v>261.4566040039062</v>
+        <v>263.5162048339844</v>
       </c>
       <c r="FY3" t="n">
-        <v>262.9064331054688</v>
+        <v>263.4054870605469</v>
       </c>
       <c r="FZ3" t="n">
-        <v>264.4114074707031</v>
+        <v>263.3174438476562</v>
       </c>
       <c r="GA3" t="n">
-        <v>266.3641662597656</v>
+        <v>263.2461547851562</v>
       </c>
       <c r="GB3" t="n">
-        <v>266.7196044921875</v>
+        <v>263.22900390625</v>
       </c>
       <c r="GC3" t="n">
-        <v>266.9901428222656</v>
+        <v>263.2007446289062</v>
       </c>
       <c r="GD3" t="n">
-        <v>267.4342346191406</v>
+        <v>263.1833801269531</v>
       </c>
       <c r="GE3" t="n">
-        <v>267.63232421875</v>
+        <v>263.1598815917969</v>
       </c>
       <c r="GF3" t="n">
-        <v>267.8387451171875</v>
+        <v>263.1491088867188</v>
       </c>
       <c r="GG3" t="n">
-        <v>270.9263610839844</v>
+        <v>263.1471252441406</v>
       </c>
       <c r="GH3" t="n">
-        <v>274.5984191894531</v>
+        <v>263.1440734863281</v>
       </c>
       <c r="GI3" t="n">
-        <v>282.271728515625</v>
+        <v>263.1433715820312</v>
       </c>
       <c r="GJ3" t="n">
-        <v>284.0227355957031</v>
+        <v>263.1436462402344</v>
       </c>
       <c r="GK3" t="n">
-        <v>288.6238098144531</v>
+        <v>263.1473693847656</v>
       </c>
       <c r="GL3" t="n">
-        <v>290.8289489746094</v>
+        <v>263.1954650878906</v>
       </c>
       <c r="GM3" t="n">
-        <v>293.1347045898438</v>
+        <v>263.386962890625</v>
       </c>
       <c r="GN3" t="n">
-        <v>294.1372680664062</v>
+        <v>263.4236450195312</v>
       </c>
       <c r="GO3" t="n">
-        <v>293.6620178222656</v>
+        <v>263.4345703125</v>
       </c>
       <c r="GP3" t="n">
-        <v>289.4629516601562</v>
+        <v>263.4373474121094</v>
       </c>
       <c r="GQ3" t="n">
-        <v>279.70361328125</v>
+        <v>263.47314453125</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>263.4916687011719</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>263.52734375</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>263.5158996582031</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>263.5098571777344</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>263.5221862792969</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>263.5456848144531</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>263.5582580566406</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>263.5602111816406</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>263.5608215332031</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>263.5609741210938</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>263.5610046386719</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>263.5610046386719</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>263.5609130859375</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>263.5497741699219</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>263.4862976074219</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>263.2741088867188</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>263.1749267578125</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>263.1596069335938</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>263.1587524414062</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>263.1654357910156</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>263.1654052734375</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>263.1646728515625</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>263.1638793945312</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>263.1664123535156</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>263.1705017089844</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>263.1759338378906</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>263.2850952148438</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>263.4461669921875</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>263.5215454101562</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>263.5047302246094</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>263.4893798828125</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>263.4809265136719</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>263.4788818359375</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>263.4766845703125</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>263.4725952148438</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>263.4699401855469</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>263.4681091308594</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>263.4744262695312</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>263.4924621582031</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>263.5110168457031</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>263.5259094238281</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>263.5311889648438</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>263.53271484375</v>
+      </c>
+      <c r="II3" t="n">
+        <v>263.533935546875</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>263.5343933105469</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>263.5347595214844</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>263.5349731445312</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>263.4317626953125</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>263.2405090332031</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>263.1749267578125</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>263.1497497558594</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>263.1168212890625</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>263.0832214355469</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>263.0818481445312</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>263.0965881347656</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>263.1071166992188</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>263.1202392578125</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>263.1441040039062</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>263.2296447753906</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>263.2593688964844</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>263.2452392578125</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>263.2291870117188</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>263.2079772949219</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>263.243896484375</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>263.3912963867188</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>263.4756774902344</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>263.506591796875</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>263.5093994140625</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>263.5098266601562</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>263.5083923339844</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>263.505615234375</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>263.5022277832031</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>263.5000915527344</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>263.4992065429688</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>263.5001525878906</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>263.5013732910156</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>263.5017395019531</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>263.46875</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>263.2494506835938</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>263.1286315917969</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>262.9349975585938</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>262.8861389160156</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>262.8908386230469</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>262.9887390136719</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>263.1727294921875</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>263.3139038085938</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>263.3163452148438</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>263.4352111816406</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>263.5556335449219</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>263.5322570800781</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>262.7887268066406</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>262.2946472167969</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>261.7334289550781</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>261.4085083007812</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>261.122802734375</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>260.26123046875</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>258.2716979980469</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>257.3961791992188</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>257.4188232421875</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>257.7469787597656</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>256.3692321777344</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>244.8740692138672</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>240.9664306640625</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>238.2817077636719</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>234.2928924560547</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>224.4053649902344</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>220.8179321289062</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>218.1546020507812</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>217.33740234375</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>216.2713775634766</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>211.1389465332031</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>204.6346282958984</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>197.2276306152344</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>190.4527893066406</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>188.0734405517578</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>186.6350402832031</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>185.0873260498047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1190.583129882812</v>
+        <v>895.9421997070312</v>
       </c>
       <c r="B4" t="n">
-        <v>1190.0107421875</v>
+        <v>913.5899047851562</v>
       </c>
       <c r="C4" t="n">
-        <v>1189.556274414062</v>
+        <v>931.90478515625</v>
       </c>
       <c r="D4" t="n">
-        <v>1187.157592773438</v>
+        <v>950.6141967773438</v>
       </c>
       <c r="E4" t="n">
-        <v>1183.470458984375</v>
+        <v>974.6793823242188</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.192749023438</v>
+        <v>1011.046081542969</v>
       </c>
       <c r="G4" t="n">
-        <v>1174.54736328125</v>
+        <v>1051.63037109375</v>
       </c>
       <c r="H4" t="n">
-        <v>1170.218139648438</v>
+        <v>1093.10791015625</v>
       </c>
       <c r="I4" t="n">
-        <v>1167.64599609375</v>
+        <v>1132.162841796875</v>
       </c>
       <c r="J4" t="n">
-        <v>1166.473510742188</v>
+        <v>1170.029052734375</v>
       </c>
       <c r="K4" t="n">
-        <v>1166.402587890625</v>
+        <v>1207.766723632812</v>
       </c>
       <c r="L4" t="n">
-        <v>1168.636962890625</v>
+        <v>1246.482299804688</v>
       </c>
       <c r="M4" t="n">
-        <v>1176.90771484375</v>
+        <v>1286.66455078125</v>
       </c>
       <c r="N4" t="n">
-        <v>1196.178344726562</v>
+        <v>1325.710083007812</v>
       </c>
       <c r="O4" t="n">
-        <v>1218.431396484375</v>
+        <v>1364.47998046875</v>
       </c>
       <c r="P4" t="n">
-        <v>1237.75927734375</v>
+        <v>1400.347412109375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1251.241821289062</v>
+        <v>1433.279907226562</v>
       </c>
       <c r="R4" t="n">
-        <v>1260.756958007812</v>
+        <v>1465.010864257812</v>
       </c>
       <c r="S4" t="n">
-        <v>1269.126708984375</v>
+        <v>1494.015502929688</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.151000976562</v>
+        <v>1520.130004882812</v>
       </c>
       <c r="U4" t="n">
-        <v>1290.911865234375</v>
+        <v>1548.898681640625</v>
       </c>
       <c r="V4" t="n">
-        <v>1303.231689453125</v>
+        <v>1576.958618164062</v>
       </c>
       <c r="W4" t="n">
-        <v>1314.349243164062</v>
+        <v>1604.041748046875</v>
       </c>
       <c r="X4" t="n">
-        <v>1323.685791015625</v>
+        <v>1632.113403320312</v>
       </c>
       <c r="Y4" t="n">
-        <v>1330.619750976562</v>
+        <v>1665.452758789062</v>
       </c>
       <c r="Z4" t="n">
-        <v>1336.384033203125</v>
+        <v>1695.761352539062</v>
       </c>
       <c r="AA4" t="n">
-        <v>1340.876708984375</v>
+        <v>1721.593872070312</v>
       </c>
       <c r="AB4" t="n">
-        <v>1343.785034179688</v>
+        <v>1749.1767578125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1344.49267578125</v>
+        <v>1782.048706054688</v>
       </c>
       <c r="AD4" t="n">
-        <v>1343.6171875</v>
+        <v>1816.397827148438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1341.4560546875</v>
+        <v>1842.765625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1338.15771484375</v>
+        <v>1863.7080078125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1334.709716796875</v>
+        <v>1885.458618164062</v>
       </c>
       <c r="AH4" t="n">
-        <v>1331.666625976562</v>
+        <v>1909.938232421875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1327.708984375</v>
+        <v>1937.373901367188</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1322.772094726562</v>
+        <v>1962.594848632812</v>
       </c>
       <c r="AK4" t="n">
-        <v>1316.86181640625</v>
+        <v>1980.2939453125</v>
       </c>
       <c r="AL4" t="n">
-        <v>1310.723510742188</v>
+        <v>1992.237670898438</v>
       </c>
       <c r="AM4" t="n">
-        <v>1304.489135742188</v>
+        <v>2001.375854492188</v>
       </c>
       <c r="AN4" t="n">
-        <v>1298.3154296875</v>
+        <v>2009.087036132812</v>
       </c>
       <c r="AO4" t="n">
-        <v>1293.3349609375</v>
+        <v>2015.778442382812</v>
       </c>
       <c r="AP4" t="n">
-        <v>1289.520629882812</v>
+        <v>2021.794311523438</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1286.271240234375</v>
+        <v>2028.374145507812</v>
       </c>
       <c r="AR4" t="n">
-        <v>1283.475830078125</v>
+        <v>2035.17138671875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1281.014770507812</v>
+        <v>2041.311279296875</v>
       </c>
       <c r="AT4" t="n">
-        <v>1278.3623046875</v>
+        <v>2047.460205078125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1273.748657226562</v>
+        <v>2052.5029296875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1270.236450195312</v>
+        <v>2058.607666015625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1268.213256835938</v>
+        <v>2065.34130859375</v>
       </c>
       <c r="AX4" t="n">
-        <v>1267.67431640625</v>
+        <v>2074.167724609375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1268.946411132812</v>
+        <v>2084.83203125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1272.856323242188</v>
+        <v>2092.9931640625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1278.279052734375</v>
+        <v>2098.423095703125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1286.111450195312</v>
+        <v>2101.6904296875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1291.9326171875</v>
+        <v>2105.40625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1296.646484375</v>
+        <v>2109.0146484375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1302.439697265625</v>
+        <v>2111.45703125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1308.614624023438</v>
+        <v>2114.416015625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1316.134521484375</v>
+        <v>2118.668212890625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1322.263305664062</v>
+        <v>2121.962890625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1326.740234375</v>
+        <v>2124.931640625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1330.146606445312</v>
+        <v>2128.666748046875</v>
       </c>
       <c r="BK4" t="n">
-        <v>1333.24658203125</v>
+        <v>2132.326171875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1335.825805664062</v>
+        <v>2134.749755859375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1337.94970703125</v>
+        <v>2136.270751953125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1340.0908203125</v>
+        <v>2137.3251953125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1341.7314453125</v>
+        <v>2137.996337890625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1343.240356445312</v>
+        <v>2138.68408203125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1344.333984375</v>
+        <v>2138.50048828125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1344.883422851562</v>
+        <v>2138.25537109375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1345.272583007812</v>
+        <v>2137.981201171875</v>
       </c>
       <c r="BT4" t="n">
-        <v>1345.655395507812</v>
+        <v>2137.83447265625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1346.007446289062</v>
+        <v>2137.563720703125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1346.176147460938</v>
+        <v>2137.25732421875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1346.226318359375</v>
+        <v>2136.968505859375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1346.274536132812</v>
+        <v>2136.629150390625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1346.316650390625</v>
+        <v>2136.207763671875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1346.36181640625</v>
+        <v>2135.733154296875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1346.427490234375</v>
+        <v>2134.95263671875</v>
       </c>
       <c r="CB4" t="n">
-        <v>1346.506103515625</v>
+        <v>2134.4599609375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1346.592041015625</v>
+        <v>2133.93408203125</v>
       </c>
       <c r="CD4" t="n">
-        <v>1346.67919921875</v>
+        <v>2133.445556640625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1346.7705078125</v>
+        <v>2132.505615234375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1346.908813476562</v>
+        <v>2131.514404296875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1347.116455078125</v>
+        <v>2130.486083984375</v>
       </c>
       <c r="CH4" t="n">
-        <v>1347.483520507812</v>
+        <v>2129.53466796875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1347.990234375</v>
+        <v>2128.424560546875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1349.508178710938</v>
+        <v>2127.310546875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1351.50537109375</v>
+        <v>2126.797607421875</v>
       </c>
       <c r="CL4" t="n">
-        <v>1353.894409179688</v>
+        <v>2126.56591796875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1354.594970703125</v>
+        <v>2126.45263671875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1355.244140625</v>
+        <v>2126.38427734375</v>
       </c>
       <c r="CO4" t="n">
-        <v>1355.889038085938</v>
+        <v>2126.339111328125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1356.52685546875</v>
+        <v>2126.306884765625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1357.170532226562</v>
+        <v>2126.279296875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1358.42431640625</v>
+        <v>2126.414306640625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1359.041137695312</v>
+        <v>2128.9013671875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1359.383544921875</v>
+        <v>2131.842041015625</v>
       </c>
       <c r="CU4" t="n">
-        <v>1359.425903320312</v>
+        <v>2133.098876953125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1358.681396484375</v>
+        <v>2133.4951171875</v>
       </c>
       <c r="CW4" t="n">
-        <v>1357.874755859375</v>
+        <v>2135.1923828125</v>
       </c>
       <c r="CX4" t="n">
-        <v>1357.497436523438</v>
+        <v>2136.60205078125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1357.34033203125</v>
+        <v>2137.808349609375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1357.4931640625</v>
+        <v>2138.368408203125</v>
       </c>
       <c r="DA4" t="n">
-        <v>1358.322509765625</v>
+        <v>2138.56640625</v>
       </c>
       <c r="DB4" t="n">
-        <v>1359.526733398438</v>
+        <v>2138.617919921875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1360.08544921875</v>
+        <v>2138.617919921875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1360.2548828125</v>
+        <v>2138.609619140625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1360.28466796875</v>
+        <v>2138.60009765625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1360.271850585938</v>
+        <v>2138.59130859375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1360.249145507812</v>
+        <v>2138.583984375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1360.190185546875</v>
+        <v>2138.575927734375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1359.993530273438</v>
+        <v>2138.5810546875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1358.733276367188</v>
+        <v>2138.580810546875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1355.731323242188</v>
+        <v>2138.562255859375</v>
       </c>
       <c r="DL4" t="n">
-        <v>1344.146240234375</v>
+        <v>2134.093994140625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1339.150512695312</v>
+        <v>2132.7060546875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1334.99560546875</v>
+        <v>2130.6142578125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1331.681640625</v>
+        <v>2130.08251953125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1325.974853515625</v>
+        <v>2129.72802734375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1322.047729492188</v>
+        <v>2129.4951171875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1317.718627929688</v>
+        <v>2129.317626953125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1309.557250976562</v>
+        <v>2129.201416015625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1306.324462890625</v>
+        <v>2129.0166015625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1303.413818359375</v>
+        <v>2128.9306640625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1300.733642578125</v>
+        <v>2128.7685546875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1297.255737304688</v>
+        <v>2128.697021484375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1295.106201171875</v>
+        <v>2128.574462890625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1292.155151367188</v>
+        <v>2128.227294921875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1285.658813476562</v>
+        <v>2127.980224609375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1281.501220703125</v>
+        <v>2127.57373046875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1270.903076171875</v>
+        <v>2127.52587890625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1265.244750976562</v>
+        <v>2127.5126953125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1252.03466796875</v>
+        <v>2127.482666015625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1244.030639648438</v>
+        <v>2127.464599609375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1235.401733398438</v>
+        <v>2127.4228515625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1217.920532226562</v>
+        <v>2127.405029296875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1209.195678710938</v>
+        <v>2127.3896484375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1182.446533203125</v>
+        <v>2127.359619140625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1163.969848632812</v>
+        <v>2127.35595703125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1127.599243164062</v>
+        <v>2127.35986328125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1114.2490234375</v>
+        <v>2127.361572265625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1080.74169921875</v>
+        <v>2127.37255859375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1063.253784179688</v>
+        <v>2126.537353515625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1031.492065429688</v>
+        <v>2124.679931640625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1020.881469726562</v>
+        <v>2124.844970703125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1000.281311035156</v>
+        <v>2126.52294921875</v>
       </c>
       <c r="ER4" t="n">
-        <v>990.6607666015625</v>
+        <v>2127.884765625</v>
       </c>
       <c r="ES4" t="n">
-        <v>973.5769653320312</v>
+        <v>2127.984130859375</v>
       </c>
       <c r="ET4" t="n">
-        <v>963.8900146484375</v>
+        <v>2127.843505859375</v>
       </c>
       <c r="EU4" t="n">
-        <v>954.2145385742188</v>
+        <v>2127.8173828125</v>
       </c>
       <c r="EV4" t="n">
-        <v>933.5751953125</v>
+        <v>2127.795166015625</v>
       </c>
       <c r="EW4" t="n">
-        <v>908.6570434570312</v>
+        <v>2127.829833984375</v>
       </c>
       <c r="EX4" t="n">
-        <v>894.2344360351562</v>
+        <v>2127.958740234375</v>
       </c>
       <c r="EY4" t="n">
-        <v>865.0670776367188</v>
+        <v>2128.506103515625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>836.366943359375</v>
+        <v>2129.482421875</v>
       </c>
       <c r="FA4" t="n">
-        <v>820.03466796875</v>
+        <v>2132.28369140625</v>
       </c>
       <c r="FB4" t="n">
-        <v>803.7134399414062</v>
+        <v>2133.37158203125</v>
       </c>
       <c r="FC4" t="n">
-        <v>775.6781005859375</v>
+        <v>2133.61865234375</v>
       </c>
       <c r="FD4" t="n">
-        <v>756.0753784179688</v>
+        <v>2133.163330078125</v>
       </c>
       <c r="FE4" t="n">
-        <v>749.7859497070312</v>
+        <v>2132.78125</v>
       </c>
       <c r="FF4" t="n">
-        <v>743.9725341796875</v>
+        <v>2132.195556640625</v>
       </c>
       <c r="FG4" t="n">
-        <v>742.6072387695312</v>
+        <v>2129.448974609375</v>
       </c>
       <c r="FH4" t="n">
-        <v>746.21826171875</v>
+        <v>2127.990966796875</v>
       </c>
       <c r="FI4" t="n">
-        <v>750.8103637695312</v>
+        <v>2125.95166015625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>761.0516967773438</v>
+        <v>2124.8037109375</v>
       </c>
       <c r="FK4" t="n">
-        <v>764.3950805664062</v>
+        <v>2124.45068359375</v>
       </c>
       <c r="FL4" t="n">
-        <v>766.4186401367188</v>
+        <v>2123.814453125</v>
       </c>
       <c r="FM4" t="n">
-        <v>767.4299926757812</v>
+        <v>2123.69189453125</v>
       </c>
       <c r="FN4" t="n">
-        <v>767.3897094726562</v>
+        <v>2123.244140625</v>
       </c>
       <c r="FO4" t="n">
-        <v>768.20263671875</v>
+        <v>2123.017822265625</v>
       </c>
       <c r="FP4" t="n">
-        <v>778.4434814453125</v>
+        <v>2123.165771484375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>786.1019287109375</v>
+        <v>2123.23779296875</v>
       </c>
       <c r="FR4" t="n">
-        <v>803.7684936523438</v>
+        <v>2123.494140625</v>
       </c>
       <c r="FS4" t="n">
-        <v>816.5986938476562</v>
+        <v>2123.717529296875</v>
       </c>
       <c r="FT4" t="n">
-        <v>828.332763671875</v>
+        <v>2124.220703125</v>
       </c>
       <c r="FU4" t="n">
-        <v>845.96337890625</v>
+        <v>2124.767822265625</v>
       </c>
       <c r="FV4" t="n">
-        <v>851.2530517578125</v>
+        <v>2125.055908203125</v>
       </c>
       <c r="FW4" t="n">
-        <v>858.6580200195312</v>
+        <v>2125.56787109375</v>
       </c>
       <c r="FX4" t="n">
-        <v>863.5693359375</v>
+        <v>2125.899169921875</v>
       </c>
       <c r="FY4" t="n">
-        <v>865.7770385742188</v>
+        <v>2124.8837890625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>867.340087890625</v>
+        <v>2123.85693359375</v>
       </c>
       <c r="GA4" t="n">
-        <v>868.616943359375</v>
+        <v>2123.795166015625</v>
       </c>
       <c r="GB4" t="n">
-        <v>868.8634033203125</v>
+        <v>2124.080078125</v>
       </c>
       <c r="GC4" t="n">
-        <v>861.1837768554688</v>
+        <v>2124.876708984375</v>
       </c>
       <c r="GD4" t="n">
-        <v>846.0133666992188</v>
+        <v>2125.295654296875</v>
       </c>
       <c r="GE4" t="n">
-        <v>838.2911376953125</v>
+        <v>2125.771240234375</v>
       </c>
       <c r="GF4" t="n">
-        <v>831.3184814453125</v>
+        <v>2125.73486328125</v>
       </c>
       <c r="GG4" t="n">
-        <v>821.6427001953125</v>
+        <v>2125.696044921875</v>
       </c>
       <c r="GH4" t="n">
-        <v>816.4120483398438</v>
+        <v>2125.646484375</v>
       </c>
       <c r="GI4" t="n">
-        <v>805.0257568359375</v>
+        <v>2125.635009765625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>798.0880126953125</v>
+        <v>2125.6396484375</v>
       </c>
       <c r="GK4" t="n">
-        <v>779.3399047851562</v>
+        <v>2125.709716796875</v>
       </c>
       <c r="GL4" t="n">
-        <v>769.6234741210938</v>
+        <v>2126.517333984375</v>
       </c>
       <c r="GM4" t="n">
-        <v>754.006591796875</v>
+        <v>2130.117431640625</v>
       </c>
       <c r="GN4" t="n">
-        <v>743.560791015625</v>
+        <v>2130.897216796875</v>
       </c>
       <c r="GO4" t="n">
-        <v>739.3930053710938</v>
+        <v>2130.99267578125</v>
       </c>
       <c r="GP4" t="n">
-        <v>733.031494140625</v>
+        <v>2130.7236328125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>729.8331909179688</v>
+        <v>2129.248779296875</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2128.510009765625</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2127.080322265625</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2125.25244140625</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2124.326416015625</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2123.478515625</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2122.478759765625</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2121.885498046875</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2121.83837890625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2121.839111328125</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2121.846435546875</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2121.850341796875</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2121.853759765625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2121.855224609375</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>2121.623291015625</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>2121.51025390625</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>2119.830322265625</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>2118.91357421875</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>2119.370849609375</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>2119.54541015625</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>2119.7626953125</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>2119.8076171875</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>2119.81298828125</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>2119.838623046875</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>2119.920654296875</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>2120.041015625</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>2120.19384765625</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>2122.11279296875</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>2125.22216796875</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>2126.879638671875</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>2126.447021484375</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2126.054931640625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2125.8203125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2125.7509765625</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2125.65478515625</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2125.51611328125</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2125.32666015625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2125.22900390625</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2124.6767578125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2123.82470703125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2122.9970703125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2122.37353515625</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2122.1572265625</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2122.110595703125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2122.076416015625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2122.065673828125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2122.057373046875</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2122.052978515625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2119.923095703125</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2116.738037109375</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2115.861328125</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2115.839599609375</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2116.07958984375</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2116.461181640625</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2116.89892578125</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2117.502197265625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2118.048828125</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2118.736328125</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2120.145751953125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2122.54638671875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2123.373291015625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2123.06689453125</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2122.718017578125</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2122.065185546875</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2119.291259765625</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2112.658447265625</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2108.60498046875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2107.1806640625</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2107.099365234375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2107.118896484375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2107.18505859375</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2107.29345703125</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2107.421630859375</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2107.51318359375</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2107.603271484375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2107.65966796875</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2107.708251953125</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2107.74560546875</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2107.515625</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2105.943359375</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2105.857177734375</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2106.270263671875</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2106.362548828125</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2106.481201171875</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2103.181884765625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2093.836181640625</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2084.587890625</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2076.056640625</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2065.0146484375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2059.181640625</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2052.238037109375</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2040.61767578125</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2036.143432617188</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2028.06591796875</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2011.20849609375</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1988.56689453125</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1962.802612304688</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1924.552490234375</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1869.531005859375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1817.862548828125</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1763.359497070312</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1696.712280273438</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1620.373901367188</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1561.914916992188</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1508.70458984375</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1458.268798828125</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1381.383911132812</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1318.635131835938</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1216.312133789062</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1146.885864257812</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1075.818115234375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>980.3291015625</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>925.0206909179688</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>880.6959228515625</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>831.75244140625</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>807.261962890625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>788.9198608398438</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>770.171630859375</v>
       </c>
     </row>
   </sheetData>

--- a/left_collar_Data.xlsx
+++ b/left_collar_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>336.5530700683594</v>
+        <v>307.6666259765625</v>
       </c>
       <c r="B2" t="n">
-        <v>332.9967651367188</v>
+        <v>306.2948303222656</v>
       </c>
       <c r="C2" t="n">
-        <v>331.3675537109375</v>
+        <v>305.4284057617188</v>
       </c>
       <c r="D2" t="n">
-        <v>330.304931640625</v>
+        <v>303.9150085449219</v>
       </c>
       <c r="E2" t="n">
-        <v>329.0433959960938</v>
+        <v>302.204833984375</v>
       </c>
       <c r="F2" t="n">
-        <v>328.0774536132812</v>
+        <v>299.5404357910156</v>
       </c>
       <c r="G2" t="n">
-        <v>327.5747375488281</v>
+        <v>296.1476135253906</v>
       </c>
       <c r="H2" t="n">
-        <v>327.307373046875</v>
+        <v>293.6556701660156</v>
       </c>
       <c r="I2" t="n">
-        <v>327.4303588867188</v>
+        <v>291.9985961914062</v>
       </c>
       <c r="J2" t="n">
-        <v>327.5616760253906</v>
+        <v>291.0833129882812</v>
       </c>
       <c r="K2" t="n">
-        <v>328.0154418945312</v>
+        <v>290.4396667480469</v>
       </c>
       <c r="L2" t="n">
-        <v>328.8306274414062</v>
+        <v>290.1737976074219</v>
       </c>
       <c r="M2" t="n">
-        <v>329.5331420898438</v>
+        <v>289.7659606933594</v>
       </c>
       <c r="N2" t="n">
-        <v>330.2307434082031</v>
+        <v>289.5545654296875</v>
       </c>
       <c r="O2" t="n">
-        <v>330.6727600097656</v>
+        <v>289.6374206542969</v>
       </c>
       <c r="P2" t="n">
-        <v>331.0016479492188</v>
+        <v>289.5228271484375</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.1101684570312</v>
+        <v>289.7190551757812</v>
       </c>
       <c r="R2" t="n">
-        <v>331.1459045410156</v>
+        <v>290.1754760742188</v>
       </c>
       <c r="S2" t="n">
-        <v>331.0380859375</v>
+        <v>290.8550720214844</v>
       </c>
       <c r="T2" t="n">
-        <v>330.8245849609375</v>
+        <v>291.6634826660156</v>
       </c>
       <c r="U2" t="n">
-        <v>330.5060424804688</v>
+        <v>293.3255920410156</v>
       </c>
       <c r="V2" t="n">
-        <v>329.8907470703125</v>
+        <v>295.4688415527344</v>
       </c>
       <c r="W2" t="n">
-        <v>329.1373901367188</v>
+        <v>297.4219970703125</v>
       </c>
       <c r="X2" t="n">
-        <v>327.7081909179688</v>
+        <v>299.6258239746094</v>
       </c>
       <c r="Y2" t="n">
-        <v>325.8865661621094</v>
+        <v>301.5118103027344</v>
       </c>
       <c r="Z2" t="n">
-        <v>324.3077087402344</v>
+        <v>303.4975280761719</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.0198364257812</v>
+        <v>305.5444946289062</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.5633850097656</v>
+        <v>307.2542419433594</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.3121337890625</v>
+        <v>308.7461242675781</v>
       </c>
       <c r="AD2" t="n">
-        <v>319.2672729492188</v>
+        <v>310.2053833007812</v>
       </c>
       <c r="AE2" t="n">
-        <v>318.2755126953125</v>
+        <v>311.4659118652344</v>
       </c>
       <c r="AF2" t="n">
-        <v>317.6294250488281</v>
+        <v>312.4797668457031</v>
       </c>
       <c r="AG2" t="n">
-        <v>317.1838684082031</v>
+        <v>313.29931640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>316.8749389648438</v>
+        <v>314.0668029785156</v>
       </c>
       <c r="AI2" t="n">
-        <v>316.6539306640625</v>
+        <v>314.528076171875</v>
       </c>
       <c r="AJ2" t="n">
-        <v>316.3743896484375</v>
+        <v>314.8158569335938</v>
       </c>
       <c r="AK2" t="n">
-        <v>316.2538146972656</v>
+        <v>314.9996032714844</v>
       </c>
       <c r="AL2" t="n">
-        <v>316.2125244140625</v>
+        <v>315.0062561035156</v>
       </c>
       <c r="AM2" t="n">
-        <v>316.2007751464844</v>
+        <v>314.9514770507812</v>
       </c>
       <c r="AN2" t="n">
-        <v>316.2713928222656</v>
+        <v>314.8823852539062</v>
       </c>
       <c r="AO2" t="n">
-        <v>316.457763671875</v>
+        <v>314.1864318847656</v>
       </c>
       <c r="AP2" t="n">
-        <v>317.170166015625</v>
+        <v>312.8555603027344</v>
       </c>
       <c r="AQ2" t="n">
-        <v>318.5612182617188</v>
+        <v>311.6458129882812</v>
       </c>
       <c r="AR2" t="n">
-        <v>320.3762817382812</v>
+        <v>310.3770446777344</v>
       </c>
       <c r="AS2" t="n">
-        <v>322.0470581054688</v>
+        <v>309.4641723632812</v>
       </c>
       <c r="AT2" t="n">
-        <v>323.4351196289062</v>
+        <v>308.2100219726562</v>
       </c>
       <c r="AU2" t="n">
-        <v>324.3668212890625</v>
+        <v>306.8149719238281</v>
       </c>
       <c r="AV2" t="n">
-        <v>325.0863952636719</v>
+        <v>305.5133361816406</v>
       </c>
       <c r="AW2" t="n">
-        <v>325.7498474121094</v>
+        <v>304.4974365234375</v>
       </c>
       <c r="AX2" t="n">
-        <v>326.2474975585938</v>
+        <v>303.5234985351562</v>
       </c>
       <c r="AY2" t="n">
-        <v>326.4845275878906</v>
+        <v>302.7525024414062</v>
       </c>
       <c r="AZ2" t="n">
-        <v>326.6318359375</v>
+        <v>302.38037109375</v>
       </c>
       <c r="BA2" t="n">
-        <v>326.6985473632812</v>
+        <v>302.1244201660156</v>
       </c>
       <c r="BB2" t="n">
-        <v>326.7267456054688</v>
+        <v>301.7593078613281</v>
       </c>
       <c r="BC2" t="n">
-        <v>326.7321166992188</v>
+        <v>301.3634643554688</v>
       </c>
       <c r="BD2" t="n">
-        <v>326.7286376953125</v>
+        <v>301.1940612792969</v>
       </c>
       <c r="BE2" t="n">
-        <v>326.6936645507812</v>
+        <v>301.0915222167969</v>
       </c>
       <c r="BF2" t="n">
-        <v>326.5867919921875</v>
+        <v>301.3088073730469</v>
       </c>
       <c r="BG2" t="n">
-        <v>326.353515625</v>
+        <v>301.5232543945312</v>
       </c>
       <c r="BH2" t="n">
-        <v>326.0612487792969</v>
+        <v>301.8218688964844</v>
       </c>
       <c r="BI2" t="n">
-        <v>325.6438903808594</v>
+        <v>302.4737854003906</v>
       </c>
       <c r="BJ2" t="n">
-        <v>325.1426696777344</v>
+        <v>303.5831909179688</v>
       </c>
       <c r="BK2" t="n">
-        <v>324.5494995117188</v>
+        <v>305.0469665527344</v>
       </c>
       <c r="BL2" t="n">
-        <v>323.8812561035156</v>
+        <v>306.6439514160156</v>
       </c>
       <c r="BM2" t="n">
-        <v>323.3180236816406</v>
+        <v>308.0763244628906</v>
       </c>
       <c r="BN2" t="n">
-        <v>322.9296264648438</v>
+        <v>309.4204711914062</v>
       </c>
       <c r="BO2" t="n">
-        <v>322.6497802734375</v>
+        <v>310.5574645996094</v>
       </c>
       <c r="BP2" t="n">
-        <v>322.4553833007812</v>
+        <v>311.4122924804688</v>
       </c>
       <c r="BQ2" t="n">
-        <v>322.2985229492188</v>
+        <v>312.1257019042969</v>
       </c>
       <c r="BR2" t="n">
-        <v>322.2355346679688</v>
+        <v>312.813720703125</v>
       </c>
       <c r="BS2" t="n">
-        <v>322.2080993652344</v>
+        <v>313.3501586914062</v>
       </c>
       <c r="BT2" t="n">
-        <v>322.1806335449219</v>
+        <v>313.6487121582031</v>
       </c>
       <c r="BU2" t="n">
-        <v>322.15234375</v>
+        <v>313.7830505371094</v>
       </c>
       <c r="BV2" t="n">
-        <v>322.1281433105469</v>
+        <v>313.8441162109375</v>
       </c>
       <c r="BW2" t="n">
-        <v>322.1057434082031</v>
+        <v>313.8469848632812</v>
       </c>
       <c r="BX2" t="n">
-        <v>322.0736083984375</v>
+        <v>313.7912292480469</v>
       </c>
       <c r="BY2" t="n">
-        <v>322.0589599609375</v>
+        <v>313.6686401367188</v>
       </c>
       <c r="BZ2" t="n">
-        <v>322.0428161621094</v>
+        <v>313.0546264648438</v>
       </c>
       <c r="CA2" t="n">
-        <v>322.0092163085938</v>
+        <v>312.1373901367188</v>
       </c>
       <c r="CB2" t="n">
-        <v>321.9844970703125</v>
+        <v>311.065673828125</v>
       </c>
       <c r="CC2" t="n">
-        <v>321.9594116210938</v>
+        <v>310.2083740234375</v>
       </c>
       <c r="CD2" t="n">
-        <v>321.9263916015625</v>
+        <v>309.1000671386719</v>
       </c>
       <c r="CE2" t="n">
-        <v>321.8954772949219</v>
+        <v>308.7610778808594</v>
       </c>
       <c r="CF2" t="n">
-        <v>321.8655090332031</v>
+        <v>308.4674377441406</v>
       </c>
       <c r="CG2" t="n">
-        <v>321.8327331542969</v>
+        <v>308.2062683105469</v>
       </c>
       <c r="CH2" t="n">
-        <v>321.798828125</v>
+        <v>307.888671875</v>
       </c>
       <c r="CI2" t="n">
-        <v>321.7647094726562</v>
+        <v>307.7431640625</v>
       </c>
       <c r="CJ2" t="n">
-        <v>321.7279663085938</v>
+        <v>307.6029357910156</v>
       </c>
       <c r="CK2" t="n">
-        <v>321.6931457519531</v>
+        <v>307.482666015625</v>
       </c>
       <c r="CL2" t="n">
-        <v>321.6664123535156</v>
+        <v>307.4286499023438</v>
       </c>
       <c r="CM2" t="n">
-        <v>321.6327514648438</v>
+        <v>307.3749694824219</v>
       </c>
       <c r="CN2" t="n">
-        <v>321.5995788574219</v>
+        <v>307.3150024414062</v>
       </c>
       <c r="CO2" t="n">
-        <v>321.57080078125</v>
+        <v>307.2561950683594</v>
       </c>
       <c r="CP2" t="n">
-        <v>321.5386352539062</v>
+        <v>307.1317443847656</v>
       </c>
       <c r="CQ2" t="n">
-        <v>321.5072021484375</v>
+        <v>307.0714721679688</v>
       </c>
       <c r="CR2" t="n">
-        <v>321.4573974609375</v>
+        <v>307.0069274902344</v>
       </c>
       <c r="CS2" t="n">
-        <v>321.40576171875</v>
+        <v>306.9080810546875</v>
       </c>
       <c r="CT2" t="n">
-        <v>321.3558349609375</v>
+        <v>306.86962890625</v>
       </c>
       <c r="CU2" t="n">
-        <v>321.3008117675781</v>
+        <v>306.7900085449219</v>
       </c>
       <c r="CV2" t="n">
-        <v>321.2301635742188</v>
+        <v>306.7464294433594</v>
       </c>
       <c r="CW2" t="n">
-        <v>321.15185546875</v>
+        <v>306.6614685058594</v>
       </c>
       <c r="CX2" t="n">
-        <v>321.0731201171875</v>
+        <v>306.6188354492188</v>
       </c>
       <c r="CY2" t="n">
-        <v>320.9921569824219</v>
+        <v>306.5778503417969</v>
       </c>
       <c r="CZ2" t="n">
-        <v>320.9148559570312</v>
+        <v>306.5424194335938</v>
       </c>
       <c r="DA2" t="n">
-        <v>320.8387756347656</v>
+        <v>306.5266418457031</v>
       </c>
       <c r="DB2" t="n">
-        <v>320.6837768554688</v>
+        <v>306.467529296875</v>
       </c>
       <c r="DC2" t="n">
-        <v>320.6070556640625</v>
+        <v>306.4290466308594</v>
       </c>
       <c r="DD2" t="n">
-        <v>320.5286254882812</v>
+        <v>306.3626708984375</v>
       </c>
       <c r="DE2" t="n">
-        <v>320.447265625</v>
+        <v>306.3427429199219</v>
       </c>
       <c r="DF2" t="n">
-        <v>320.369873046875</v>
+        <v>306.3257141113281</v>
       </c>
       <c r="DG2" t="n">
-        <v>320.2901916503906</v>
+        <v>306.3283996582031</v>
       </c>
       <c r="DH2" t="n">
-        <v>320.1690979003906</v>
+        <v>306.3474426269531</v>
       </c>
       <c r="DI2" t="n">
-        <v>320.025390625</v>
+        <v>306.4092407226562</v>
       </c>
       <c r="DJ2" t="n">
-        <v>319.8849182128906</v>
+        <v>306.4571838378906</v>
       </c>
       <c r="DK2" t="n">
-        <v>319.6279907226562</v>
+        <v>306.4830932617188</v>
       </c>
       <c r="DL2" t="n">
-        <v>319.3838500976562</v>
+        <v>306.4896850585938</v>
       </c>
       <c r="DM2" t="n">
-        <v>319.27734375</v>
+        <v>306.4929504394531</v>
       </c>
       <c r="DN2" t="n">
-        <v>319.1200256347656</v>
+        <v>306.4935607910156</v>
       </c>
       <c r="DO2" t="n">
-        <v>319.0695190429688</v>
+        <v>306.4936828613281</v>
       </c>
       <c r="DP2" t="n">
-        <v>319.0112915039062</v>
+        <v>306.4938049316406</v>
       </c>
       <c r="DQ2" t="n">
-        <v>318.9519653320312</v>
+        <v>306.4938354492188</v>
       </c>
       <c r="DR2" t="n">
-        <v>318.8935546875</v>
+        <v>306.4938354492188</v>
       </c>
       <c r="DS2" t="n">
-        <v>318.8285827636719</v>
+        <v>306.4938354492188</v>
       </c>
       <c r="DT2" t="n">
-        <v>318.6962280273438</v>
+        <v>306.4938354492188</v>
       </c>
       <c r="DU2" t="n">
-        <v>318.6325988769531</v>
+        <v>306.4938354492188</v>
       </c>
       <c r="DV2" t="n">
-        <v>318.4999389648438</v>
+        <v>306.4938354492188</v>
       </c>
       <c r="DW2" t="n">
-        <v>318.4345703125</v>
+        <v>306.4937133789062</v>
       </c>
       <c r="DX2" t="n">
-        <v>318.3672790527344</v>
+        <v>306.4936828613281</v>
       </c>
       <c r="DY2" t="n">
-        <v>318.2231140136719</v>
+        <v>306.49365234375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>318.1476440429688</v>
+        <v>306.49365234375</v>
       </c>
       <c r="EA2" t="n">
-        <v>317.97705078125</v>
+        <v>306.4936828613281</v>
       </c>
       <c r="EB2" t="n">
-        <v>317.8994140625</v>
+        <v>306.4971923828125</v>
       </c>
       <c r="EC2" t="n">
-        <v>317.8026733398438</v>
+        <v>306.4993591308594</v>
       </c>
       <c r="ED2" t="n">
-        <v>317.6204223632812</v>
+        <v>306.5014343261719</v>
       </c>
       <c r="EE2" t="n">
-        <v>317.5274353027344</v>
+        <v>306.5085754394531</v>
       </c>
       <c r="EF2" t="n">
-        <v>317.3464660644531</v>
+        <v>306.5133666992188</v>
       </c>
       <c r="EG2" t="n">
-        <v>317.2536315917969</v>
+        <v>306.5215454101562</v>
       </c>
       <c r="EH2" t="n">
-        <v>317.1811828613281</v>
+        <v>306.5416564941406</v>
       </c>
       <c r="EI2" t="n">
-        <v>317.0999755859375</v>
+        <v>306.5620422363281</v>
       </c>
       <c r="EJ2" t="n">
-        <v>317.0982666015625</v>
+        <v>306.5800476074219</v>
       </c>
       <c r="EK2" t="n">
-        <v>317.0850219726562</v>
+        <v>306.5870666503906</v>
       </c>
       <c r="EL2" t="n">
-        <v>317.0785522460938</v>
+        <v>306.5880432128906</v>
       </c>
       <c r="EM2" t="n">
-        <v>317.0840759277344</v>
+        <v>306.5873413085938</v>
       </c>
       <c r="EN2" t="n">
-        <v>317.0879516601562</v>
+        <v>306.5873413085938</v>
       </c>
       <c r="EO2" t="n">
-        <v>317.0868835449219</v>
+        <v>306.5871276855469</v>
       </c>
       <c r="EP2" t="n">
-        <v>317.0880737304688</v>
+        <v>306.5868835449219</v>
       </c>
       <c r="EQ2" t="n">
-        <v>317.0957336425781</v>
+        <v>306.5867309570312</v>
       </c>
       <c r="ER2" t="n">
-        <v>317.1051330566406</v>
+        <v>306.586669921875</v>
       </c>
       <c r="ES2" t="n">
-        <v>317.1094360351562</v>
+        <v>306.5848388671875</v>
       </c>
       <c r="ET2" t="n">
-        <v>317.1172790527344</v>
+        <v>306.5630798339844</v>
       </c>
       <c r="EU2" t="n">
-        <v>317.1211547851562</v>
+        <v>306.5354309082031</v>
       </c>
       <c r="EV2" t="n">
-        <v>317.12451171875</v>
+        <v>306.5418090820312</v>
       </c>
       <c r="EW2" t="n">
-        <v>317.1319274902344</v>
+        <v>306.5445556640625</v>
       </c>
       <c r="EX2" t="n">
-        <v>317.1446838378906</v>
+        <v>306.546630859375</v>
       </c>
       <c r="EY2" t="n">
-        <v>317.1595458984375</v>
+        <v>306.5481567382812</v>
       </c>
       <c r="EZ2" t="n">
-        <v>317.1669006347656</v>
+        <v>306.5501403808594</v>
       </c>
       <c r="FA2" t="n">
-        <v>317.1770629882812</v>
+        <v>306.5525512695312</v>
       </c>
       <c r="FB2" t="n">
-        <v>317.1800537109375</v>
+        <v>306.5551452636719</v>
       </c>
       <c r="FC2" t="n">
-        <v>317.1805114746094</v>
+        <v>306.5570068359375</v>
       </c>
       <c r="FD2" t="n">
-        <v>317.1792602539062</v>
+        <v>306.5577697753906</v>
       </c>
       <c r="FE2" t="n">
-        <v>317.1782836914062</v>
+        <v>306.5594177246094</v>
       </c>
       <c r="FF2" t="n">
-        <v>317.1768188476562</v>
+        <v>306.5613708496094</v>
       </c>
       <c r="FG2" t="n">
-        <v>317.1716003417969</v>
+        <v>306.5621948242188</v>
       </c>
       <c r="FH2" t="n">
-        <v>317.1666564941406</v>
+        <v>306.5802307128906</v>
       </c>
       <c r="FI2" t="n">
-        <v>317.0780639648438</v>
+        <v>306.6158447265625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>316.9253540039062</v>
+        <v>306.6273498535156</v>
       </c>
       <c r="FK2" t="n">
-        <v>316.8164672851562</v>
+        <v>306.6345520019531</v>
       </c>
       <c r="FL2" t="n">
-        <v>316.3741149902344</v>
+        <v>306.6365051269531</v>
       </c>
       <c r="FM2" t="n">
-        <v>315.9795837402344</v>
+        <v>306.6372985839844</v>
       </c>
       <c r="FN2" t="n">
-        <v>315.3594665527344</v>
+        <v>306.6371765136719</v>
       </c>
       <c r="FO2" t="n">
-        <v>315.1731567382812</v>
+        <v>306.6375122070312</v>
       </c>
       <c r="FP2" t="n">
-        <v>315.0567932128906</v>
+        <v>306.6376342773438</v>
       </c>
       <c r="FQ2" t="n">
-        <v>315.0196838378906</v>
+        <v>306.6357421875</v>
       </c>
       <c r="FR2" t="n">
-        <v>314.98876953125</v>
+        <v>306.6346435546875</v>
       </c>
       <c r="FS2" t="n">
-        <v>314.9764404296875</v>
+        <v>306.6334228515625</v>
       </c>
       <c r="FT2" t="n">
-        <v>314.9515686035156</v>
+        <v>306.6314697265625</v>
       </c>
       <c r="FU2" t="n">
-        <v>314.9302673339844</v>
+        <v>306.6320495605469</v>
       </c>
       <c r="FV2" t="n">
-        <v>314.9158020019531</v>
+        <v>306.6303405761719</v>
       </c>
       <c r="FW2" t="n">
-        <v>314.8880004882812</v>
+        <v>306.6197814941406</v>
       </c>
       <c r="FX2" t="n">
-        <v>314.8746032714844</v>
+        <v>306.605712890625</v>
       </c>
       <c r="FY2" t="n">
-        <v>314.8301391601562</v>
+        <v>306.5955505371094</v>
       </c>
       <c r="FZ2" t="n">
-        <v>314.8126220703125</v>
+        <v>306.589111328125</v>
       </c>
       <c r="GA2" t="n">
-        <v>314.7896728515625</v>
+        <v>306.5877990722656</v>
       </c>
       <c r="GB2" t="n">
-        <v>314.7802734375</v>
+        <v>306.5866088867188</v>
       </c>
       <c r="GC2" t="n">
-        <v>314.7648010253906</v>
+        <v>306.5845642089844</v>
       </c>
       <c r="GD2" t="n">
-        <v>314.75341796875</v>
+        <v>306.5814514160156</v>
       </c>
       <c r="GE2" t="n">
-        <v>314.7320251464844</v>
+        <v>306.5799255371094</v>
       </c>
       <c r="GF2" t="n">
-        <v>314.7095642089844</v>
+        <v>306.5338439941406</v>
       </c>
       <c r="GG2" t="n">
-        <v>314.70556640625</v>
+        <v>306.4420166015625</v>
       </c>
       <c r="GH2" t="n">
-        <v>314.6985473632812</v>
+        <v>306.3703308105469</v>
       </c>
       <c r="GI2" t="n">
-        <v>314.6958923339844</v>
+        <v>306.2969055175781</v>
       </c>
       <c r="GJ2" t="n">
-        <v>314.6955261230469</v>
+        <v>306.2448120117188</v>
       </c>
       <c r="GK2" t="n">
-        <v>314.6964721679688</v>
+        <v>306.1918334960938</v>
       </c>
       <c r="GL2" t="n">
-        <v>314.7001342773438</v>
+        <v>306.1506652832031</v>
       </c>
       <c r="GM2" t="n">
-        <v>314.7147216796875</v>
+        <v>306.1314086914062</v>
       </c>
       <c r="GN2" t="n">
-        <v>314.7180786132812</v>
+        <v>306.0655822753906</v>
       </c>
       <c r="GO2" t="n">
-        <v>314.7203369140625</v>
+        <v>306.0153503417969</v>
       </c>
       <c r="GP2" t="n">
-        <v>314.7204895019531</v>
+        <v>305.9647216796875</v>
       </c>
       <c r="GQ2" t="n">
-        <v>314.717529296875</v>
+        <v>305.9338684082031</v>
       </c>
       <c r="GR2" t="n">
-        <v>314.7159423828125</v>
+        <v>305.9312133789062</v>
       </c>
       <c r="GS2" t="n">
-        <v>314.7127990722656</v>
+        <v>305.9259033203125</v>
       </c>
       <c r="GT2" t="n">
-        <v>314.6968383789062</v>
+        <v>305.9401245117188</v>
       </c>
       <c r="GU2" t="n">
-        <v>314.6817626953125</v>
+        <v>305.9715576171875</v>
       </c>
       <c r="GV2" t="n">
-        <v>314.6642150878906</v>
+        <v>305.9785766601562</v>
       </c>
       <c r="GW2" t="n">
-        <v>314.6469421386719</v>
+        <v>306.0032348632812</v>
       </c>
       <c r="GX2" t="n">
-        <v>314.6302185058594</v>
+        <v>306.0484313964844</v>
       </c>
       <c r="GY2" t="n">
-        <v>314.6171875</v>
+        <v>306.0904235839844</v>
       </c>
       <c r="GZ2" t="n">
-        <v>314.6093444824219</v>
+        <v>306.1332092285156</v>
       </c>
       <c r="HA2" t="n">
-        <v>314.6014709472656</v>
+        <v>306.1769714355469</v>
       </c>
       <c r="HB2" t="n">
-        <v>314.5998229980469</v>
+        <v>306.2229614257812</v>
       </c>
       <c r="HC2" t="n">
-        <v>314.59814453125</v>
+        <v>306.2329711914062</v>
       </c>
       <c r="HD2" t="n">
-        <v>314.5969848632812</v>
+        <v>306.231689453125</v>
       </c>
       <c r="HE2" t="n">
-        <v>314.5946960449219</v>
+        <v>306.2310485839844</v>
       </c>
       <c r="HF2" t="n">
-        <v>314.5910034179688</v>
+        <v>306.2306518554688</v>
       </c>
       <c r="HG2" t="n">
-        <v>314.5785217285156</v>
+        <v>306.2303771972656</v>
       </c>
       <c r="HH2" t="n">
-        <v>314.5708923339844</v>
+        <v>306.2301025390625</v>
       </c>
       <c r="HI2" t="n">
-        <v>314.5719299316406</v>
+        <v>306.2298889160156</v>
       </c>
       <c r="HJ2" t="n">
-        <v>314.572509765625</v>
+        <v>306.2297973632812</v>
       </c>
       <c r="HK2" t="n">
-        <v>314.5728759765625</v>
+        <v>306.2309265136719</v>
       </c>
       <c r="HL2" t="n">
-        <v>314.5726623535156</v>
+        <v>306.2308044433594</v>
       </c>
       <c r="HM2" t="n">
-        <v>314.5721740722656</v>
+        <v>306.2297668457031</v>
       </c>
       <c r="HN2" t="n">
-        <v>314.5708618164062</v>
+        <v>306.2413330078125</v>
       </c>
       <c r="HO2" t="n">
-        <v>314.5692443847656</v>
+        <v>306.2342834472656</v>
       </c>
       <c r="HP2" t="n">
-        <v>314.5672607421875</v>
+        <v>306.2268676757812</v>
       </c>
       <c r="HQ2" t="n">
-        <v>314.565673828125</v>
+        <v>306.1888427734375</v>
       </c>
       <c r="HR2" t="n">
-        <v>314.5707397460938</v>
+        <v>306.1313781738281</v>
       </c>
       <c r="HS2" t="n">
-        <v>314.5801391601562</v>
+        <v>306.1095581054688</v>
       </c>
       <c r="HT2" t="n">
-        <v>314.5848999023438</v>
+        <v>306.0937194824219</v>
       </c>
       <c r="HU2" t="n">
-        <v>314.5819702148438</v>
+        <v>306.0923156738281</v>
       </c>
       <c r="HV2" t="n">
-        <v>314.5785217285156</v>
+        <v>306.0946044921875</v>
       </c>
       <c r="HW2" t="n">
-        <v>314.5755004882812</v>
+        <v>306.0985717773438</v>
       </c>
       <c r="HX2" t="n">
-        <v>314.5687866210938</v>
+        <v>306.0988159179688</v>
       </c>
       <c r="HY2" t="n">
-        <v>314.554931640625</v>
+        <v>306.1000671386719</v>
       </c>
       <c r="HZ2" t="n">
-        <v>314.5465393066406</v>
+        <v>306.1007080078125</v>
       </c>
       <c r="IA2" t="n">
-        <v>314.5165710449219</v>
+        <v>306.1007080078125</v>
       </c>
       <c r="IB2" t="n">
-        <v>314.4896545410156</v>
+        <v>306.1641235351562</v>
       </c>
       <c r="IC2" t="n">
-        <v>314.4408569335938</v>
+        <v>306.2108459472656</v>
       </c>
       <c r="ID2" t="n">
-        <v>314.3973083496094</v>
+        <v>306.2524108886719</v>
       </c>
       <c r="IE2" t="n">
-        <v>314.3510131835938</v>
+        <v>306.3120422363281</v>
       </c>
       <c r="IF2" t="n">
-        <v>314.3650207519531</v>
+        <v>306.3383178710938</v>
       </c>
       <c r="IG2" t="n">
-        <v>314.3787536621094</v>
+        <v>306.3303833007812</v>
       </c>
       <c r="IH2" t="n">
-        <v>314.3646545410156</v>
+        <v>306.3159484863281</v>
       </c>
       <c r="II2" t="n">
-        <v>314.3486328125</v>
+        <v>306.30908203125</v>
       </c>
       <c r="IJ2" t="n">
-        <v>314.3345947265625</v>
+        <v>306.3091430664062</v>
       </c>
       <c r="IK2" t="n">
-        <v>314.31982421875</v>
+        <v>306.2971496582031</v>
       </c>
       <c r="IL2" t="n">
-        <v>314.3053588867188</v>
+        <v>306.2539367675781</v>
       </c>
       <c r="IM2" t="n">
-        <v>314.2759399414062</v>
+        <v>306.167236328125</v>
       </c>
       <c r="IN2" t="n">
-        <v>314.2505187988281</v>
+        <v>306.0928649902344</v>
       </c>
       <c r="IO2" t="n">
-        <v>314.2340698242188</v>
+        <v>306.0383605957031</v>
       </c>
       <c r="IP2" t="n">
-        <v>314.2245483398438</v>
+        <v>306.0024108886719</v>
       </c>
       <c r="IQ2" t="n">
-        <v>314.2236328125</v>
+        <v>305.9948425292969</v>
       </c>
       <c r="IR2" t="n">
-        <v>314.2239685058594</v>
+        <v>305.9946899414062</v>
       </c>
       <c r="IS2" t="n">
-        <v>314.2258911132812</v>
+        <v>305.9936218261719</v>
       </c>
       <c r="IT2" t="n">
-        <v>314.2283325195312</v>
+        <v>305.9902038574219</v>
       </c>
       <c r="IU2" t="n">
-        <v>314.23046875</v>
+        <v>305.9663696289062</v>
       </c>
       <c r="IV2" t="n">
-        <v>314.4094543457031</v>
+        <v>305.9261169433594</v>
       </c>
       <c r="IW2" t="n">
-        <v>314.5145874023438</v>
+        <v>305.8888549804688</v>
       </c>
       <c r="IX2" t="n">
-        <v>314.5599365234375</v>
+        <v>305.8738708496094</v>
       </c>
       <c r="IY2" t="n">
-        <v>314.5649108886719</v>
+        <v>305.8608093261719</v>
       </c>
       <c r="IZ2" t="n">
-        <v>314.5619201660156</v>
+        <v>305.8460998535156</v>
       </c>
       <c r="JA2" t="n">
-        <v>314.5588684082031</v>
+        <v>305.8201293945312</v>
       </c>
       <c r="JB2" t="n">
-        <v>314.5543518066406</v>
+        <v>305.7989807128906</v>
       </c>
       <c r="JC2" t="n">
-        <v>314.5448913574219</v>
+        <v>305.76611328125</v>
       </c>
       <c r="JD2" t="n">
-        <v>314.5027770996094</v>
+        <v>305.6715087890625</v>
       </c>
       <c r="JE2" t="n">
-        <v>314.4363403320312</v>
+        <v>305.4963989257812</v>
       </c>
       <c r="JF2" t="n">
-        <v>314.3684997558594</v>
+        <v>305.4880981445312</v>
       </c>
       <c r="JG2" t="n">
-        <v>314.2475280761719</v>
+        <v>305.5156555175781</v>
       </c>
       <c r="JH2" t="n">
-        <v>313.9620971679688</v>
+        <v>305.5703125</v>
       </c>
       <c r="JI2" t="n">
-        <v>313.5690002441406</v>
+        <v>305.6056823730469</v>
       </c>
       <c r="JJ2" t="n">
-        <v>313.1204833984375</v>
+        <v>305.66455078125</v>
       </c>
       <c r="JK2" t="n">
-        <v>312.6708068847656</v>
+        <v>305.6743469238281</v>
       </c>
       <c r="JL2" t="n">
-        <v>312.2374572753906</v>
+        <v>305.6843566894531</v>
       </c>
       <c r="JM2" t="n">
-        <v>311.9974060058594</v>
+        <v>305.7071533203125</v>
       </c>
       <c r="JN2" t="n">
-        <v>311.8149719238281</v>
+        <v>305.7158508300781</v>
       </c>
       <c r="JO2" t="n">
-        <v>311.768798828125</v>
+        <v>305.7182922363281</v>
       </c>
       <c r="JP2" t="n">
-        <v>311.7648620605469</v>
+        <v>305.70068359375</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311.8043518066406</v>
+        <v>305.6813659667969</v>
       </c>
       <c r="JR2" t="n">
-        <v>311.93115234375</v>
+        <v>305.6986999511719</v>
       </c>
       <c r="JS2" t="n">
-        <v>312.0310668945312</v>
+        <v>305.7391662597656</v>
       </c>
       <c r="JT2" t="n">
-        <v>312.0702209472656</v>
+        <v>305.7194519042969</v>
       </c>
       <c r="JU2" t="n">
-        <v>312.0771789550781</v>
+        <v>305.6893005371094</v>
       </c>
       <c r="JV2" t="n">
-        <v>312.0799865722656</v>
+        <v>305.6994323730469</v>
       </c>
       <c r="JW2" t="n">
-        <v>312.0706176757812</v>
+        <v>305.7055969238281</v>
       </c>
       <c r="JX2" t="n">
-        <v>311.9571533203125</v>
+        <v>305.7096862792969</v>
       </c>
       <c r="JY2" t="n">
-        <v>311.8505249023438</v>
+        <v>305.711181640625</v>
       </c>
       <c r="JZ2" t="n">
-        <v>311.7222595214844</v>
+        <v>305.7125854492188</v>
       </c>
       <c r="KA2" t="n">
-        <v>311.1155395507812</v>
+        <v>305.7933349609375</v>
       </c>
       <c r="KB2" t="n">
-        <v>310.5603942871094</v>
+        <v>306.9248046875</v>
       </c>
       <c r="KC2" t="n">
-        <v>309.3409423828125</v>
+        <v>309.6653747558594</v>
       </c>
       <c r="KD2" t="n">
-        <v>307.0430908203125</v>
+        <v>310.5199279785156</v>
       </c>
       <c r="KE2" t="n">
-        <v>306.6166381835938</v>
+        <v>310.7845153808594</v>
       </c>
       <c r="KF2" t="n">
-        <v>306.0195007324219</v>
+        <v>310.8828125</v>
       </c>
       <c r="KG2" t="n">
-        <v>304.8925476074219</v>
+        <v>310.9423828125</v>
       </c>
       <c r="KH2" t="n">
-        <v>304.4690856933594</v>
+        <v>311.0773620605469</v>
       </c>
       <c r="KI2" t="n">
-        <v>304.1998901367188</v>
+        <v>311.1620178222656</v>
       </c>
       <c r="KJ2" t="n">
-        <v>304.2946166992188</v>
+        <v>311.2106323242188</v>
       </c>
       <c r="KK2" t="n">
-        <v>304.3100891113281</v>
+        <v>311.2789001464844</v>
       </c>
       <c r="KL2" t="n">
-        <v>305.3935852050781</v>
+        <v>311.2699279785156</v>
       </c>
       <c r="KM2" t="n">
-        <v>308.0036926269531</v>
+        <v>311.2629089355469</v>
       </c>
       <c r="KN2" t="n">
-        <v>312.3495483398438</v>
+        <v>311.2622985839844</v>
       </c>
       <c r="KO2" t="n">
-        <v>318.0380249023438</v>
+        <v>311.8010864257812</v>
       </c>
       <c r="KP2" t="n">
-        <v>321.2061767578125</v>
+        <v>314.3543701171875</v>
       </c>
       <c r="KQ2" t="n">
-        <v>323.2985229492188</v>
+        <v>317.0014953613281</v>
       </c>
       <c r="KR2" t="n">
-        <v>324.891357421875</v>
+        <v>319.7306823730469</v>
       </c>
       <c r="KS2" t="n">
-        <v>325.8738708496094</v>
+        <v>320.7720642089844</v>
       </c>
       <c r="KT2" t="n">
-        <v>325.9697265625</v>
+        <v>322.1287536621094</v>
       </c>
       <c r="KU2" t="n">
-        <v>324.3897094726562</v>
+        <v>322.4066772460938</v>
       </c>
       <c r="KV2" t="n">
-        <v>321.796875</v>
+        <v>321.5814208984375</v>
       </c>
       <c r="KW2" t="n">
-        <v>319.5725402832031</v>
+        <v>319.0875244140625</v>
       </c>
       <c r="KX2" t="n">
-        <v>314.729248046875</v>
+        <v>315.014892578125</v>
       </c>
       <c r="KY2" t="n">
-        <v>311.7217712402344</v>
+        <v>312.6633605957031</v>
       </c>
       <c r="KZ2" t="n">
-        <v>310.1118469238281</v>
+        <v>310.4649963378906</v>
       </c>
       <c r="LA2" t="n">
-        <v>308.1504516601562</v>
+        <v>309.1365356445312</v>
       </c>
       <c r="LB2" t="n">
-        <v>307.2926635742188</v>
+        <v>309.7611389160156</v>
       </c>
       <c r="LC2" t="n">
-        <v>306.70068359375</v>
+        <v>312.3079223632812</v>
       </c>
       <c r="LD2" t="n">
-        <v>306.0949096679688</v>
+        <v>315.6885375976562</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>318.9618225097656</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>321.3511352539062</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>321.0824584960938</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>320.2049255371094</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>317.7428283691406</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>313.3031616210938</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>309.0829162597656</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>298.7738342285156</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>291.3568115234375</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>292.8643798828125</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>300.1731567382812</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>312.6370849609375</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>324.6924438476562</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>341.1043701171875</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>349.359619140625</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>352.7640380859375</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>356.5225830078125</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>360.5048217773438</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>365.9260559082031</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>371.1622619628906</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>372.4577026367188</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>373.626708984375</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>375.4105834960938</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>379.04638671875</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>385.3235473632812</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>386.3652954101562</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>387.3055419921875</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>387.3242797851562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>213.4801330566406</v>
+        <v>170.6260681152344</v>
       </c>
       <c r="B3" t="n">
-        <v>209.9940795898438</v>
+        <v>174.0355072021484</v>
       </c>
       <c r="C3" t="n">
-        <v>208.8441619873047</v>
+        <v>176.6663360595703</v>
       </c>
       <c r="D3" t="n">
-        <v>208.8296508789062</v>
+        <v>178.6230773925781</v>
       </c>
       <c r="E3" t="n">
-        <v>209.0157012939453</v>
+        <v>180.1732330322266</v>
       </c>
       <c r="F3" t="n">
-        <v>210.1569061279297</v>
+        <v>182.2879791259766</v>
       </c>
       <c r="G3" t="n">
-        <v>211.7159271240234</v>
+        <v>184.8025360107422</v>
       </c>
       <c r="H3" t="n">
-        <v>213.1863708496094</v>
+        <v>186.9992980957031</v>
       </c>
       <c r="I3" t="n">
-        <v>214.8677825927734</v>
+        <v>188.7756042480469</v>
       </c>
       <c r="J3" t="n">
-        <v>216.8956909179688</v>
+        <v>190.2210388183594</v>
       </c>
       <c r="K3" t="n">
-        <v>220.6732025146484</v>
+        <v>191.3242797851562</v>
       </c>
       <c r="L3" t="n">
-        <v>224.4920501708984</v>
+        <v>191.9958343505859</v>
       </c>
       <c r="M3" t="n">
-        <v>228.420166015625</v>
+        <v>191.1100463867188</v>
       </c>
       <c r="N3" t="n">
-        <v>230.7613067626953</v>
+        <v>188.3616485595703</v>
       </c>
       <c r="O3" t="n">
-        <v>232.0701293945312</v>
+        <v>186.2999572753906</v>
       </c>
       <c r="P3" t="n">
-        <v>232.6383209228516</v>
+        <v>184.8764495849609</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.8291778564453</v>
+        <v>184.476806640625</v>
       </c>
       <c r="R3" t="n">
-        <v>229.8756256103516</v>
+        <v>184.9271545410156</v>
       </c>
       <c r="S3" t="n">
-        <v>228.7227783203125</v>
+        <v>185.8815002441406</v>
       </c>
       <c r="T3" t="n">
-        <v>228.0555114746094</v>
+        <v>187.5462188720703</v>
       </c>
       <c r="U3" t="n">
-        <v>227.8637390136719</v>
+        <v>189.2614593505859</v>
       </c>
       <c r="V3" t="n">
-        <v>228.3296203613281</v>
+        <v>191.1417541503906</v>
       </c>
       <c r="W3" t="n">
-        <v>231.0579681396484</v>
+        <v>193.192626953125</v>
       </c>
       <c r="X3" t="n">
-        <v>234.1562805175781</v>
+        <v>195.2249145507812</v>
       </c>
       <c r="Y3" t="n">
-        <v>236.8217468261719</v>
+        <v>197.2777252197266</v>
       </c>
       <c r="Z3" t="n">
-        <v>239.9911193847656</v>
+        <v>199.3785247802734</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.6703796386719</v>
+        <v>201.3028106689453</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.7469177246094</v>
+        <v>202.9339294433594</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.8459014892578</v>
+        <v>204.0696105957031</v>
       </c>
       <c r="AD3" t="n">
-        <v>252.1090850830078</v>
+        <v>204.7554779052734</v>
       </c>
       <c r="AE3" t="n">
-        <v>253.3826904296875</v>
+        <v>204.8608551025391</v>
       </c>
       <c r="AF3" t="n">
-        <v>254.5889282226562</v>
+        <v>203.7812957763672</v>
       </c>
       <c r="AG3" t="n">
-        <v>255.5707397460938</v>
+        <v>201.9378814697266</v>
       </c>
       <c r="AH3" t="n">
-        <v>256.3558349609375</v>
+        <v>199.8726196289062</v>
       </c>
       <c r="AI3" t="n">
-        <v>256.7070007324219</v>
+        <v>199.0174407958984</v>
       </c>
       <c r="AJ3" t="n">
-        <v>256.7483215332031</v>
+        <v>198.8383636474609</v>
       </c>
       <c r="AK3" t="n">
-        <v>256.7008361816406</v>
+        <v>198.7685852050781</v>
       </c>
       <c r="AL3" t="n">
-        <v>256.6769409179688</v>
+        <v>198.8453521728516</v>
       </c>
       <c r="AM3" t="n">
-        <v>256.6783142089844</v>
+        <v>198.6619415283203</v>
       </c>
       <c r="AN3" t="n">
-        <v>256.6845092773438</v>
+        <v>198.6033782958984</v>
       </c>
       <c r="AO3" t="n">
-        <v>256.6985473632812</v>
+        <v>198.8384399414062</v>
       </c>
       <c r="AP3" t="n">
-        <v>256.68212890625</v>
+        <v>199.4093170166016</v>
       </c>
       <c r="AQ3" t="n">
-        <v>256.6380310058594</v>
+        <v>200.1328582763672</v>
       </c>
       <c r="AR3" t="n">
-        <v>256.5811157226562</v>
+        <v>200.8705902099609</v>
       </c>
       <c r="AS3" t="n">
-        <v>256.537841796875</v>
+        <v>201.8012237548828</v>
       </c>
       <c r="AT3" t="n">
-        <v>256.5025024414062</v>
+        <v>202.5283660888672</v>
       </c>
       <c r="AU3" t="n">
-        <v>256.6459655761719</v>
+        <v>203.3877258300781</v>
       </c>
       <c r="AV3" t="n">
-        <v>257.261962890625</v>
+        <v>204.3442230224609</v>
       </c>
       <c r="AW3" t="n">
-        <v>258.2886352539062</v>
+        <v>205.2073364257812</v>
       </c>
       <c r="AX3" t="n">
-        <v>259.3235168457031</v>
+        <v>205.8724365234375</v>
       </c>
       <c r="AY3" t="n">
-        <v>260.0051574707031</v>
+        <v>206.2185211181641</v>
       </c>
       <c r="AZ3" t="n">
-        <v>260.5069885253906</v>
+        <v>206.0967559814453</v>
       </c>
       <c r="BA3" t="n">
-        <v>260.7375793457031</v>
+        <v>205.6293182373047</v>
       </c>
       <c r="BB3" t="n">
-        <v>260.8435363769531</v>
+        <v>205.1875457763672</v>
       </c>
       <c r="BC3" t="n">
-        <v>260.8900146484375</v>
+        <v>204.6450958251953</v>
       </c>
       <c r="BD3" t="n">
-        <v>260.8994750976562</v>
+        <v>204.4340362548828</v>
       </c>
       <c r="BE3" t="n">
-        <v>260.9167175292969</v>
+        <v>204.3452758789062</v>
       </c>
       <c r="BF3" t="n">
-        <v>260.8911437988281</v>
+        <v>204.5264892578125</v>
       </c>
       <c r="BG3" t="n">
-        <v>260.8322448730469</v>
+        <v>204.6238098144531</v>
       </c>
       <c r="BH3" t="n">
-        <v>260.7894592285156</v>
+        <v>204.7022094726562</v>
       </c>
       <c r="BI3" t="n">
-        <v>260.7456359863281</v>
+        <v>204.7766571044922</v>
       </c>
       <c r="BJ3" t="n">
-        <v>260.6871032714844</v>
+        <v>204.8235015869141</v>
       </c>
       <c r="BK3" t="n">
-        <v>260.6268005371094</v>
+        <v>204.8826446533203</v>
       </c>
       <c r="BL3" t="n">
-        <v>260.6392211914062</v>
+        <v>204.9554595947266</v>
       </c>
       <c r="BM3" t="n">
-        <v>260.6963806152344</v>
+        <v>205.031494140625</v>
       </c>
       <c r="BN3" t="n">
-        <v>260.7437744140625</v>
+        <v>205.1376647949219</v>
       </c>
       <c r="BO3" t="n">
-        <v>260.7788391113281</v>
+        <v>205.2399749755859</v>
       </c>
       <c r="BP3" t="n">
-        <v>260.8165588378906</v>
+        <v>205.3324890136719</v>
       </c>
       <c r="BQ3" t="n">
-        <v>260.8211059570312</v>
+        <v>205.3920288085938</v>
       </c>
       <c r="BR3" t="n">
-        <v>260.8236389160156</v>
+        <v>205.4475555419922</v>
       </c>
       <c r="BS3" t="n">
-        <v>260.8250122070312</v>
+        <v>205.5186004638672</v>
       </c>
       <c r="BT3" t="n">
-        <v>260.8315734863281</v>
+        <v>205.5983734130859</v>
       </c>
       <c r="BU3" t="n">
-        <v>260.83349609375</v>
+        <v>205.6686553955078</v>
       </c>
       <c r="BV3" t="n">
-        <v>260.8350524902344</v>
+        <v>205.8327789306641</v>
       </c>
       <c r="BW3" t="n">
-        <v>260.8374938964844</v>
+        <v>206.4520263671875</v>
       </c>
       <c r="BX3" t="n">
-        <v>260.8374328613281</v>
+        <v>207.2445831298828</v>
       </c>
       <c r="BY3" t="n">
-        <v>260.8358459472656</v>
+        <v>207.9923553466797</v>
       </c>
       <c r="BZ3" t="n">
-        <v>260.8325500488281</v>
+        <v>208.4453430175781</v>
       </c>
       <c r="CA3" t="n">
-        <v>260.8407592773438</v>
+        <v>208.5657196044922</v>
       </c>
       <c r="CB3" t="n">
-        <v>260.8694763183594</v>
+        <v>208.6817321777344</v>
       </c>
       <c r="CC3" t="n">
-        <v>260.8992614746094</v>
+        <v>208.7024383544922</v>
       </c>
       <c r="CD3" t="n">
-        <v>260.9275512695312</v>
+        <v>208.7682495117188</v>
       </c>
       <c r="CE3" t="n">
-        <v>260.9634094238281</v>
+        <v>208.7878723144531</v>
       </c>
       <c r="CF3" t="n">
-        <v>260.9990234375</v>
+        <v>208.7694702148438</v>
       </c>
       <c r="CG3" t="n">
-        <v>261.0348205566406</v>
+        <v>208.7429962158203</v>
       </c>
       <c r="CH3" t="n">
-        <v>261.0671691894531</v>
+        <v>208.7134246826172</v>
       </c>
       <c r="CI3" t="n">
-        <v>261.1168823242188</v>
+        <v>208.7045593261719</v>
       </c>
       <c r="CJ3" t="n">
-        <v>261.1707763671875</v>
+        <v>208.6998596191406</v>
       </c>
       <c r="CK3" t="n">
-        <v>261.2086181640625</v>
+        <v>208.7104339599609</v>
       </c>
       <c r="CL3" t="n">
-        <v>261.2439575195312</v>
+        <v>208.7149353027344</v>
       </c>
       <c r="CM3" t="n">
-        <v>261.2796325683594</v>
+        <v>208.7201080322266</v>
       </c>
       <c r="CN3" t="n">
-        <v>261.3470764160156</v>
+        <v>208.7237701416016</v>
       </c>
       <c r="CO3" t="n">
-        <v>261.4255065917969</v>
+        <v>208.7266387939453</v>
       </c>
       <c r="CP3" t="n">
-        <v>261.4990539550781</v>
+        <v>208.7310333251953</v>
       </c>
       <c r="CQ3" t="n">
-        <v>261.5783386230469</v>
+        <v>208.7323150634766</v>
       </c>
       <c r="CR3" t="n">
-        <v>261.6529235839844</v>
+        <v>208.7330322265625</v>
       </c>
       <c r="CS3" t="n">
-        <v>261.6775817871094</v>
+        <v>208.7343597412109</v>
       </c>
       <c r="CT3" t="n">
-        <v>261.6933288574219</v>
+        <v>208.7350921630859</v>
       </c>
       <c r="CU3" t="n">
-        <v>261.6928405761719</v>
+        <v>208.739501953125</v>
       </c>
       <c r="CV3" t="n">
-        <v>261.6661376953125</v>
+        <v>208.7413940429688</v>
       </c>
       <c r="CW3" t="n">
-        <v>261.6103210449219</v>
+        <v>208.7450103759766</v>
       </c>
       <c r="CX3" t="n">
-        <v>261.5707397460938</v>
+        <v>208.7467346191406</v>
       </c>
       <c r="CY3" t="n">
-        <v>261.5697631835938</v>
+        <v>208.7489013671875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>261.6366271972656</v>
+        <v>208.7563629150391</v>
       </c>
       <c r="DA3" t="n">
-        <v>261.71337890625</v>
+        <v>208.7633361816406</v>
       </c>
       <c r="DB3" t="n">
-        <v>261.7863464355469</v>
+        <v>208.7777557373047</v>
       </c>
       <c r="DC3" t="n">
-        <v>261.8297119140625</v>
+        <v>208.7850189208984</v>
       </c>
       <c r="DD3" t="n">
-        <v>261.8806762695312</v>
+        <v>208.8011322021484</v>
       </c>
       <c r="DE3" t="n">
-        <v>261.9404602050781</v>
+        <v>208.8102416992188</v>
       </c>
       <c r="DF3" t="n">
-        <v>261.9835510253906</v>
+        <v>208.8274078369141</v>
       </c>
       <c r="DG3" t="n">
-        <v>262.0345764160156</v>
+        <v>208.8569030761719</v>
       </c>
       <c r="DH3" t="n">
-        <v>262.08447265625</v>
+        <v>208.8614501953125</v>
       </c>
       <c r="DI3" t="n">
-        <v>262.092041015625</v>
+        <v>208.8704986572266</v>
       </c>
       <c r="DJ3" t="n">
-        <v>262.1005859375</v>
+        <v>208.8747100830078</v>
       </c>
       <c r="DK3" t="n">
-        <v>262.1353759765625</v>
+        <v>208.8831787109375</v>
       </c>
       <c r="DL3" t="n">
-        <v>262.4501342773438</v>
+        <v>208.8848571777344</v>
       </c>
       <c r="DM3" t="n">
-        <v>262.6299133300781</v>
+        <v>208.8860626220703</v>
       </c>
       <c r="DN3" t="n">
-        <v>262.8348388671875</v>
+        <v>208.8863220214844</v>
       </c>
       <c r="DO3" t="n">
-        <v>262.8596801757812</v>
+        <v>208.8863372802734</v>
       </c>
       <c r="DP3" t="n">
-        <v>262.8735961914062</v>
+        <v>208.8863525390625</v>
       </c>
       <c r="DQ3" t="n">
-        <v>262.8935852050781</v>
+        <v>208.8863983154297</v>
       </c>
       <c r="DR3" t="n">
-        <v>262.9090270996094</v>
+        <v>208.8862609863281</v>
       </c>
       <c r="DS3" t="n">
-        <v>262.9374389648438</v>
+        <v>208.8861694335938</v>
       </c>
       <c r="DT3" t="n">
-        <v>263.0071716308594</v>
+        <v>208.8863372802734</v>
       </c>
       <c r="DU3" t="n">
-        <v>263.0668640136719</v>
+        <v>208.8865051269531</v>
       </c>
       <c r="DV3" t="n">
-        <v>263.1773071289062</v>
+        <v>208.8865661621094</v>
       </c>
       <c r="DW3" t="n">
-        <v>263.2320251464844</v>
+        <v>208.8866424560547</v>
       </c>
       <c r="DX3" t="n">
-        <v>263.2906188964844</v>
+        <v>208.8866729736328</v>
       </c>
       <c r="DY3" t="n">
-        <v>263.3167724609375</v>
+        <v>208.8865203857422</v>
       </c>
       <c r="DZ3" t="n">
-        <v>263.3185119628906</v>
+        <v>208.8863067626953</v>
       </c>
       <c r="EA3" t="n">
-        <v>263.3248901367188</v>
+        <v>208.88623046875</v>
       </c>
       <c r="EB3" t="n">
-        <v>263.3291931152344</v>
+        <v>208.8863983154297</v>
       </c>
       <c r="EC3" t="n">
-        <v>263.3348999023438</v>
+        <v>208.8864135742188</v>
       </c>
       <c r="ED3" t="n">
-        <v>263.3456726074219</v>
+        <v>208.8864440917969</v>
       </c>
       <c r="EE3" t="n">
-        <v>263.3655700683594</v>
+        <v>208.8895263671875</v>
       </c>
       <c r="EF3" t="n">
-        <v>263.4505920410156</v>
+        <v>208.8946990966797</v>
       </c>
       <c r="EG3" t="n">
-        <v>263.5246887207031</v>
+        <v>208.9043273925781</v>
       </c>
       <c r="EH3" t="n">
-        <v>263.5960998535156</v>
+        <v>208.9383544921875</v>
       </c>
       <c r="EI3" t="n">
-        <v>263.732666015625</v>
+        <v>208.9733276367188</v>
       </c>
       <c r="EJ3" t="n">
-        <v>263.7603454589844</v>
+        <v>209.0111389160156</v>
       </c>
       <c r="EK3" t="n">
-        <v>263.7755126953125</v>
+        <v>209.0270385742188</v>
       </c>
       <c r="EL3" t="n">
-        <v>263.7772521972656</v>
+        <v>209.0300598144531</v>
       </c>
       <c r="EM3" t="n">
-        <v>263.7383422851562</v>
+        <v>209.0288848876953</v>
       </c>
       <c r="EN3" t="n">
-        <v>263.6692504882812</v>
+        <v>209.0289611816406</v>
       </c>
       <c r="EO3" t="n">
-        <v>263.4703369140625</v>
+        <v>209.0285186767578</v>
       </c>
       <c r="EP3" t="n">
-        <v>263.4168701171875</v>
+        <v>209.0280151367188</v>
       </c>
       <c r="EQ3" t="n">
-        <v>263.3335876464844</v>
+        <v>209.0277099609375</v>
       </c>
       <c r="ER3" t="n">
-        <v>263.2688598632812</v>
+        <v>209.027587890625</v>
       </c>
       <c r="ES3" t="n">
-        <v>263.2465209960938</v>
+        <v>209.0232086181641</v>
       </c>
       <c r="ET3" t="n">
-        <v>263.2022399902344</v>
+        <v>208.9705505371094</v>
       </c>
       <c r="EU3" t="n">
-        <v>263.193359375</v>
+        <v>208.8999633789062</v>
       </c>
       <c r="EV3" t="n">
-        <v>263.1853942871094</v>
+        <v>208.8950500488281</v>
       </c>
       <c r="EW3" t="n">
-        <v>263.1630249023438</v>
+        <v>208.8941345214844</v>
       </c>
       <c r="EX3" t="n">
-        <v>263.1353149414062</v>
+        <v>208.8936157226562</v>
       </c>
       <c r="EY3" t="n">
-        <v>263.153076171875</v>
+        <v>208.8954925537109</v>
       </c>
       <c r="EZ3" t="n">
-        <v>263.1994934082031</v>
+        <v>208.9003601074219</v>
       </c>
       <c r="FA3" t="n">
-        <v>263.3228149414062</v>
+        <v>208.9086608886719</v>
       </c>
       <c r="FB3" t="n">
-        <v>263.369384765625</v>
+        <v>208.9184112548828</v>
       </c>
       <c r="FC3" t="n">
-        <v>263.3798828125</v>
+        <v>208.9235992431641</v>
       </c>
       <c r="FD3" t="n">
-        <v>263.3850708007812</v>
+        <v>208.925537109375</v>
       </c>
       <c r="FE3" t="n">
-        <v>263.3913269042969</v>
+        <v>208.9279479980469</v>
       </c>
       <c r="FF3" t="n">
-        <v>263.3879089355469</v>
+        <v>208.9309692382812</v>
       </c>
       <c r="FG3" t="n">
-        <v>263.4197387695312</v>
+        <v>208.9325714111328</v>
       </c>
       <c r="FH3" t="n">
-        <v>263.4373474121094</v>
+        <v>208.9781646728516</v>
       </c>
       <c r="FI3" t="n">
-        <v>263.4731140136719</v>
+        <v>209.0656127929688</v>
       </c>
       <c r="FJ3" t="n">
-        <v>263.4957885742188</v>
+        <v>209.092529296875</v>
       </c>
       <c r="FK3" t="n">
-        <v>263.5042419433594</v>
+        <v>209.1092224121094</v>
       </c>
       <c r="FL3" t="n">
-        <v>263.519287109375</v>
+        <v>209.3351593017578</v>
       </c>
       <c r="FM3" t="n">
-        <v>263.5205078125</v>
+        <v>209.5428771972656</v>
       </c>
       <c r="FN3" t="n">
-        <v>263.5281982421875</v>
+        <v>209.5942840576172</v>
       </c>
       <c r="FO3" t="n">
-        <v>263.5329284667969</v>
+        <v>209.6010284423828</v>
       </c>
       <c r="FP3" t="n">
-        <v>263.5437316894531</v>
+        <v>209.6020660400391</v>
       </c>
       <c r="FQ3" t="n">
-        <v>263.5470886230469</v>
+        <v>209.5977020263672</v>
       </c>
       <c r="FR3" t="n">
-        <v>263.5479736328125</v>
+        <v>209.5950469970703</v>
       </c>
       <c r="FS3" t="n">
-        <v>263.5445861816406</v>
+        <v>209.5919189453125</v>
       </c>
       <c r="FT3" t="n">
-        <v>263.5396728515625</v>
+        <v>209.5869140625</v>
       </c>
       <c r="FU3" t="n">
-        <v>263.5384826660156</v>
+        <v>209.5843963623047</v>
       </c>
       <c r="FV3" t="n">
-        <v>263.5365295410156</v>
+        <v>209.5790252685547</v>
       </c>
       <c r="FW3" t="n">
-        <v>263.5246887207031</v>
+        <v>209.5499877929688</v>
       </c>
       <c r="FX3" t="n">
-        <v>263.5162048339844</v>
+        <v>209.5158081054688</v>
       </c>
       <c r="FY3" t="n">
-        <v>263.4054870605469</v>
+        <v>209.4862823486328</v>
       </c>
       <c r="FZ3" t="n">
-        <v>263.3174438476562</v>
+        <v>209.4700622558594</v>
       </c>
       <c r="GA3" t="n">
-        <v>263.2461547851562</v>
+        <v>209.4694061279297</v>
       </c>
       <c r="GB3" t="n">
-        <v>263.22900390625</v>
+        <v>209.4690856933594</v>
       </c>
       <c r="GC3" t="n">
-        <v>263.2007446289062</v>
+        <v>209.4692535400391</v>
       </c>
       <c r="GD3" t="n">
-        <v>263.1833801269531</v>
+        <v>209.4695281982422</v>
       </c>
       <c r="GE3" t="n">
-        <v>263.1598815917969</v>
+        <v>209.4697113037109</v>
       </c>
       <c r="GF3" t="n">
-        <v>263.1491088867188</v>
+        <v>209.4735717773438</v>
       </c>
       <c r="GG3" t="n">
-        <v>263.1471252441406</v>
+        <v>209.4754943847656</v>
       </c>
       <c r="GH3" t="n">
-        <v>263.1440734863281</v>
+        <v>209.4762878417969</v>
       </c>
       <c r="GI3" t="n">
-        <v>263.1433715820312</v>
+        <v>209.4770812988281</v>
       </c>
       <c r="GJ3" t="n">
-        <v>263.1436462402344</v>
+        <v>209.4841766357422</v>
       </c>
       <c r="GK3" t="n">
-        <v>263.1473693847656</v>
+        <v>209.4898223876953</v>
       </c>
       <c r="GL3" t="n">
-        <v>263.1954650878906</v>
+        <v>209.5073547363281</v>
       </c>
       <c r="GM3" t="n">
-        <v>263.386962890625</v>
+        <v>209.51611328125</v>
       </c>
       <c r="GN3" t="n">
-        <v>263.4236450195312</v>
+        <v>209.5280303955078</v>
       </c>
       <c r="GO3" t="n">
-        <v>263.4345703125</v>
+        <v>209.5271453857422</v>
       </c>
       <c r="GP3" t="n">
-        <v>263.4373474121094</v>
+        <v>209.5270538330078</v>
       </c>
       <c r="GQ3" t="n">
-        <v>263.47314453125</v>
+        <v>209.5271148681641</v>
       </c>
       <c r="GR3" t="n">
-        <v>263.4916687011719</v>
+        <v>209.5271759033203</v>
       </c>
       <c r="GS3" t="n">
-        <v>263.52734375</v>
+        <v>209.5276641845703</v>
       </c>
       <c r="GT3" t="n">
-        <v>263.5158996582031</v>
+        <v>209.5623779296875</v>
       </c>
       <c r="GU3" t="n">
-        <v>263.5098571777344</v>
+        <v>209.6291656494141</v>
       </c>
       <c r="GV3" t="n">
-        <v>263.5221862792969</v>
+        <v>209.6436157226562</v>
       </c>
       <c r="GW3" t="n">
-        <v>263.5456848144531</v>
+        <v>209.6582946777344</v>
       </c>
       <c r="GX3" t="n">
-        <v>263.5582580566406</v>
+        <v>209.6642761230469</v>
       </c>
       <c r="GY3" t="n">
-        <v>263.5602111816406</v>
+        <v>209.6645202636719</v>
       </c>
       <c r="GZ3" t="n">
-        <v>263.5608215332031</v>
+        <v>209.6630249023438</v>
       </c>
       <c r="HA3" t="n">
-        <v>263.5609741210938</v>
+        <v>209.6614990234375</v>
       </c>
       <c r="HB3" t="n">
-        <v>263.5610046386719</v>
+        <v>209.6589508056641</v>
       </c>
       <c r="HC3" t="n">
-        <v>263.5610046386719</v>
+        <v>209.6575012207031</v>
       </c>
       <c r="HD3" t="n">
-        <v>263.5609130859375</v>
+        <v>209.6572723388672</v>
       </c>
       <c r="HE3" t="n">
-        <v>263.5497741699219</v>
+        <v>209.6363830566406</v>
       </c>
       <c r="HF3" t="n">
-        <v>263.4862976074219</v>
+        <v>209.6105041503906</v>
       </c>
       <c r="HG3" t="n">
-        <v>263.2741088867188</v>
+        <v>209.6046600341797</v>
       </c>
       <c r="HH3" t="n">
-        <v>263.1749267578125</v>
+        <v>209.6051788330078</v>
       </c>
       <c r="HI3" t="n">
-        <v>263.1596069335938</v>
+        <v>209.6060028076172</v>
       </c>
       <c r="HJ3" t="n">
-        <v>263.1587524414062</v>
+        <v>209.6062469482422</v>
       </c>
       <c r="HK3" t="n">
-        <v>263.1654357910156</v>
+        <v>209.6086578369141</v>
       </c>
       <c r="HL3" t="n">
-        <v>263.1654052734375</v>
+        <v>209.6105194091797</v>
       </c>
       <c r="HM3" t="n">
-        <v>263.1646728515625</v>
+        <v>209.6114654541016</v>
       </c>
       <c r="HN3" t="n">
-        <v>263.1638793945312</v>
+        <v>209.6424102783203</v>
       </c>
       <c r="HO3" t="n">
-        <v>263.1664123535156</v>
+        <v>209.7081909179688</v>
       </c>
       <c r="HP3" t="n">
-        <v>263.1705017089844</v>
+        <v>209.7151641845703</v>
       </c>
       <c r="HQ3" t="n">
-        <v>263.1759338378906</v>
+        <v>209.7023315429688</v>
       </c>
       <c r="HR3" t="n">
-        <v>263.2850952148438</v>
+        <v>209.6900939941406</v>
       </c>
       <c r="HS3" t="n">
-        <v>263.4461669921875</v>
+        <v>209.6738128662109</v>
       </c>
       <c r="HT3" t="n">
-        <v>263.5215454101562</v>
+        <v>209.6626739501953</v>
       </c>
       <c r="HU3" t="n">
-        <v>263.5047302246094</v>
+        <v>209.6566619873047</v>
       </c>
       <c r="HV3" t="n">
-        <v>263.4893798828125</v>
+        <v>209.6521759033203</v>
       </c>
       <c r="HW3" t="n">
-        <v>263.4809265136719</v>
+        <v>209.6346130371094</v>
       </c>
       <c r="HX3" t="n">
-        <v>263.4788818359375</v>
+        <v>209.6268768310547</v>
       </c>
       <c r="HY3" t="n">
-        <v>263.4766845703125</v>
+        <v>209.6245880126953</v>
       </c>
       <c r="HZ3" t="n">
-        <v>263.4725952148438</v>
+        <v>209.6220550537109</v>
       </c>
       <c r="IA3" t="n">
-        <v>263.4699401855469</v>
+        <v>209.6206512451172</v>
       </c>
       <c r="IB3" t="n">
-        <v>263.4681091308594</v>
+        <v>209.6014862060547</v>
       </c>
       <c r="IC3" t="n">
-        <v>263.4744262695312</v>
+        <v>209.5914001464844</v>
       </c>
       <c r="ID3" t="n">
-        <v>263.4924621582031</v>
+        <v>209.5917510986328</v>
       </c>
       <c r="IE3" t="n">
-        <v>263.5110168457031</v>
+        <v>209.5791625976562</v>
       </c>
       <c r="IF3" t="n">
-        <v>263.5259094238281</v>
+        <v>209.5655975341797</v>
       </c>
       <c r="IG3" t="n">
-        <v>263.5311889648438</v>
+        <v>209.5481719970703</v>
       </c>
       <c r="IH3" t="n">
-        <v>263.53271484375</v>
+        <v>209.5198211669922</v>
       </c>
       <c r="II3" t="n">
-        <v>263.533935546875</v>
+        <v>209.50341796875</v>
       </c>
       <c r="IJ3" t="n">
-        <v>263.5343933105469</v>
+        <v>209.5022430419922</v>
       </c>
       <c r="IK3" t="n">
-        <v>263.5347595214844</v>
+        <v>209.5346527099609</v>
       </c>
       <c r="IL3" t="n">
-        <v>263.5349731445312</v>
+        <v>209.5703582763672</v>
       </c>
       <c r="IM3" t="n">
-        <v>263.4317626953125</v>
+        <v>209.5788726806641</v>
       </c>
       <c r="IN3" t="n">
-        <v>263.2405090332031</v>
+        <v>209.5878601074219</v>
       </c>
       <c r="IO3" t="n">
-        <v>263.1749267578125</v>
+        <v>209.5511322021484</v>
       </c>
       <c r="IP3" t="n">
-        <v>263.1497497558594</v>
+        <v>209.5422973632812</v>
       </c>
       <c r="IQ3" t="n">
-        <v>263.1168212890625</v>
+        <v>209.5422821044922</v>
       </c>
       <c r="IR3" t="n">
-        <v>263.0832214355469</v>
+        <v>209.5424499511719</v>
       </c>
       <c r="IS3" t="n">
-        <v>263.0818481445312</v>
+        <v>209.5412139892578</v>
       </c>
       <c r="IT3" t="n">
-        <v>263.0965881347656</v>
+        <v>209.5367736816406</v>
       </c>
       <c r="IU3" t="n">
-        <v>263.1071166992188</v>
+        <v>209.4940643310547</v>
       </c>
       <c r="IV3" t="n">
-        <v>263.1202392578125</v>
+        <v>209.4134216308594</v>
       </c>
       <c r="IW3" t="n">
-        <v>263.1441040039062</v>
+        <v>209.3354797363281</v>
       </c>
       <c r="IX3" t="n">
-        <v>263.2296447753906</v>
+        <v>209.3089294433594</v>
       </c>
       <c r="IY3" t="n">
-        <v>263.2593688964844</v>
+        <v>209.2996520996094</v>
       </c>
       <c r="IZ3" t="n">
-        <v>263.2452392578125</v>
+        <v>209.2958374023438</v>
       </c>
       <c r="JA3" t="n">
-        <v>263.2291870117188</v>
+        <v>209.2704315185547</v>
       </c>
       <c r="JB3" t="n">
-        <v>263.2079772949219</v>
+        <v>209.2390899658203</v>
       </c>
       <c r="JC3" t="n">
-        <v>263.243896484375</v>
+        <v>209.21875</v>
       </c>
       <c r="JD3" t="n">
-        <v>263.3912963867188</v>
+        <v>209.2053985595703</v>
       </c>
       <c r="JE3" t="n">
-        <v>263.4756774902344</v>
+        <v>209.2037506103516</v>
       </c>
       <c r="JF3" t="n">
-        <v>263.506591796875</v>
+        <v>209.2180938720703</v>
       </c>
       <c r="JG3" t="n">
-        <v>263.5093994140625</v>
+        <v>209.2552032470703</v>
       </c>
       <c r="JH3" t="n">
-        <v>263.5098266601562</v>
+        <v>209.2946624755859</v>
       </c>
       <c r="JI3" t="n">
-        <v>263.5083923339844</v>
+        <v>209.3337707519531</v>
       </c>
       <c r="JJ3" t="n">
-        <v>263.505615234375</v>
+        <v>209.3730926513672</v>
       </c>
       <c r="JK3" t="n">
-        <v>263.5022277832031</v>
+        <v>209.3402099609375</v>
       </c>
       <c r="JL3" t="n">
-        <v>263.5000915527344</v>
+        <v>209.3417510986328</v>
       </c>
       <c r="JM3" t="n">
-        <v>263.4992065429688</v>
+        <v>209.3422088623047</v>
       </c>
       <c r="JN3" t="n">
-        <v>263.5001525878906</v>
+        <v>209.32421875</v>
       </c>
       <c r="JO3" t="n">
-        <v>263.5013732910156</v>
+        <v>209.3037261962891</v>
       </c>
       <c r="JP3" t="n">
-        <v>263.5017395019531</v>
+        <v>209.2250518798828</v>
       </c>
       <c r="JQ3" t="n">
-        <v>263.46875</v>
+        <v>209.1270904541016</v>
       </c>
       <c r="JR3" t="n">
-        <v>263.2494506835938</v>
+        <v>209.0952911376953</v>
       </c>
       <c r="JS3" t="n">
-        <v>263.1286315917969</v>
+        <v>209.0979614257812</v>
       </c>
       <c r="JT3" t="n">
-        <v>262.9349975585938</v>
+        <v>209.1029357910156</v>
       </c>
       <c r="JU3" t="n">
-        <v>262.8861389160156</v>
+        <v>209.1134033203125</v>
       </c>
       <c r="JV3" t="n">
-        <v>262.8908386230469</v>
+        <v>209.1250305175781</v>
       </c>
       <c r="JW3" t="n">
-        <v>262.9887390136719</v>
+        <v>209.1301879882812</v>
       </c>
       <c r="JX3" t="n">
-        <v>263.1727294921875</v>
+        <v>209.1345977783203</v>
       </c>
       <c r="JY3" t="n">
-        <v>263.3139038085938</v>
+        <v>209.1293792724609</v>
       </c>
       <c r="JZ3" t="n">
-        <v>263.3163452148438</v>
+        <v>209.1246032714844</v>
       </c>
       <c r="KA3" t="n">
-        <v>263.4352111816406</v>
+        <v>209.0584411621094</v>
       </c>
       <c r="KB3" t="n">
-        <v>263.5556335449219</v>
+        <v>208.9478912353516</v>
       </c>
       <c r="KC3" t="n">
-        <v>263.5322570800781</v>
+        <v>208.880859375</v>
       </c>
       <c r="KD3" t="n">
-        <v>262.7887268066406</v>
+        <v>208.8639831542969</v>
       </c>
       <c r="KE3" t="n">
-        <v>262.2946472167969</v>
+        <v>208.8413696289062</v>
       </c>
       <c r="KF3" t="n">
-        <v>261.7334289550781</v>
+        <v>208.8211059570312</v>
       </c>
       <c r="KG3" t="n">
-        <v>261.4085083007812</v>
+        <v>208.8077392578125</v>
       </c>
       <c r="KH3" t="n">
-        <v>261.122802734375</v>
+        <v>208.8056640625</v>
       </c>
       <c r="KI3" t="n">
-        <v>260.26123046875</v>
+        <v>208.8077239990234</v>
       </c>
       <c r="KJ3" t="n">
-        <v>258.2716979980469</v>
+        <v>208.8080139160156</v>
       </c>
       <c r="KK3" t="n">
-        <v>257.3961791992188</v>
+        <v>208.8074340820312</v>
       </c>
       <c r="KL3" t="n">
-        <v>257.4188232421875</v>
+        <v>208.8044738769531</v>
       </c>
       <c r="KM3" t="n">
-        <v>257.7469787597656</v>
+        <v>208.80517578125</v>
       </c>
       <c r="KN3" t="n">
-        <v>256.3692321777344</v>
+        <v>208.8057556152344</v>
       </c>
       <c r="KO3" t="n">
-        <v>244.8740692138672</v>
+        <v>208.7967376708984</v>
       </c>
       <c r="KP3" t="n">
-        <v>240.9664306640625</v>
+        <v>208.4736175537109</v>
       </c>
       <c r="KQ3" t="n">
-        <v>238.2817077636719</v>
+        <v>208.1908111572266</v>
       </c>
       <c r="KR3" t="n">
-        <v>234.2928924560547</v>
+        <v>209.1700134277344</v>
       </c>
       <c r="KS3" t="n">
-        <v>224.4053649902344</v>
+        <v>208.8902282714844</v>
       </c>
       <c r="KT3" t="n">
-        <v>220.8179321289062</v>
+        <v>208.0652465820312</v>
       </c>
       <c r="KU3" t="n">
-        <v>218.1546020507812</v>
+        <v>210.5101165771484</v>
       </c>
       <c r="KV3" t="n">
-        <v>217.33740234375</v>
+        <v>215.3123779296875</v>
       </c>
       <c r="KW3" t="n">
-        <v>216.2713775634766</v>
+        <v>216.1130981445312</v>
       </c>
       <c r="KX3" t="n">
-        <v>211.1389465332031</v>
+        <v>212.0224456787109</v>
       </c>
       <c r="KY3" t="n">
-        <v>204.6346282958984</v>
+        <v>207.0536346435547</v>
       </c>
       <c r="KZ3" t="n">
-        <v>197.2276306152344</v>
+        <v>199.3263549804688</v>
       </c>
       <c r="LA3" t="n">
-        <v>190.4527893066406</v>
+        <v>194.9378204345703</v>
       </c>
       <c r="LB3" t="n">
-        <v>188.0734405517578</v>
+        <v>195.7917785644531</v>
       </c>
       <c r="LC3" t="n">
-        <v>186.6350402832031</v>
+        <v>199.4063720703125</v>
       </c>
       <c r="LD3" t="n">
-        <v>185.0873260498047</v>
+        <v>197.42822265625</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>188.8147583007812</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>180.7890472412109</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>176.2056579589844</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>173.1897583007812</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>177.9996643066406</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>180.6848602294922</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>186.9217987060547</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>203.02294921875</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>221.9239959716797</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>226.4333343505859</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>221.7004547119141</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>214.3071899414062</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>204.5977630615234</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>201.27099609375</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>200.9469451904297</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>200.7489471435547</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>200.9746551513672</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>204.8963470458984</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>217.1220550537109</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>219.6497497558594</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>219.3603057861328</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>218.2442779541016</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>217.0542449951172</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>215.587890625</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>213.6862335205078</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>212.2053527832031</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>209.3477630615234</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>206.3930053710938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>895.9421997070312</v>
+        <v>814.2210083007812</v>
       </c>
       <c r="B4" t="n">
-        <v>913.5899047851562</v>
+        <v>840.8150634765625</v>
       </c>
       <c r="C4" t="n">
-        <v>931.90478515625</v>
+        <v>867.9339599609375</v>
       </c>
       <c r="D4" t="n">
-        <v>950.6141967773438</v>
+        <v>892.4757690429688</v>
       </c>
       <c r="E4" t="n">
-        <v>974.6793823242188</v>
+        <v>915.7689819335938</v>
       </c>
       <c r="F4" t="n">
-        <v>1011.046081542969</v>
+        <v>946.9321899414062</v>
       </c>
       <c r="G4" t="n">
-        <v>1051.63037109375</v>
+        <v>980.8329467773438</v>
       </c>
       <c r="H4" t="n">
-        <v>1093.10791015625</v>
+        <v>1014.561340332031</v>
       </c>
       <c r="I4" t="n">
-        <v>1132.162841796875</v>
+        <v>1046.368530273438</v>
       </c>
       <c r="J4" t="n">
-        <v>1170.029052734375</v>
+        <v>1075.397583007812</v>
       </c>
       <c r="K4" t="n">
-        <v>1207.766723632812</v>
+        <v>1101.742553710938</v>
       </c>
       <c r="L4" t="n">
-        <v>1246.482299804688</v>
+        <v>1127.60205078125</v>
       </c>
       <c r="M4" t="n">
-        <v>1286.66455078125</v>
+        <v>1152.6708984375</v>
       </c>
       <c r="N4" t="n">
-        <v>1325.710083007812</v>
+        <v>1179.810913085938</v>
       </c>
       <c r="O4" t="n">
-        <v>1364.47998046875</v>
+        <v>1206.094360351562</v>
       </c>
       <c r="P4" t="n">
-        <v>1400.347412109375</v>
+        <v>1232.696533203125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1433.279907226562</v>
+        <v>1259.666625976562</v>
       </c>
       <c r="R4" t="n">
-        <v>1465.010864257812</v>
+        <v>1286.384399414062</v>
       </c>
       <c r="S4" t="n">
-        <v>1494.015502929688</v>
+        <v>1314.191650390625</v>
       </c>
       <c r="T4" t="n">
-        <v>1520.130004882812</v>
+        <v>1342.929809570312</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.898681640625</v>
+        <v>1374.274780273438</v>
       </c>
       <c r="V4" t="n">
-        <v>1576.958618164062</v>
+        <v>1407.20166015625</v>
       </c>
       <c r="W4" t="n">
-        <v>1604.041748046875</v>
+        <v>1440.503540039062</v>
       </c>
       <c r="X4" t="n">
-        <v>1632.113403320312</v>
+        <v>1472.891845703125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1665.452758789062</v>
+        <v>1504.814575195312</v>
       </c>
       <c r="Z4" t="n">
-        <v>1695.761352539062</v>
+        <v>1537.221435546875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1721.593872070312</v>
+        <v>1570.917358398438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1749.1767578125</v>
+        <v>1604.999389648438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1782.048706054688</v>
+        <v>1639.623046875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1816.397827148438</v>
+        <v>1672.616088867188</v>
       </c>
       <c r="AE4" t="n">
-        <v>1842.765625</v>
+        <v>1702.28515625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1863.7080078125</v>
+        <v>1729.824584960938</v>
       </c>
       <c r="AG4" t="n">
-        <v>1885.458618164062</v>
+        <v>1752.527465820312</v>
       </c>
       <c r="AH4" t="n">
-        <v>1909.938232421875</v>
+        <v>1770.04638671875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1937.373901367188</v>
+        <v>1793.239868164062</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1962.594848632812</v>
+        <v>1819.51318359375</v>
       </c>
       <c r="AK4" t="n">
-        <v>1980.2939453125</v>
+        <v>1843.397094726562</v>
       </c>
       <c r="AL4" t="n">
-        <v>1992.237670898438</v>
+        <v>1867.583984375</v>
       </c>
       <c r="AM4" t="n">
-        <v>2001.375854492188</v>
+        <v>1885.503051757812</v>
       </c>
       <c r="AN4" t="n">
-        <v>2009.087036132812</v>
+        <v>1898.691772460938</v>
       </c>
       <c r="AO4" t="n">
-        <v>2015.778442382812</v>
+        <v>1912.62255859375</v>
       </c>
       <c r="AP4" t="n">
-        <v>2021.794311523438</v>
+        <v>1933.385986328125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2028.374145507812</v>
+        <v>1959.86083984375</v>
       </c>
       <c r="AR4" t="n">
-        <v>2035.17138671875</v>
+        <v>1986.350952148438</v>
       </c>
       <c r="AS4" t="n">
-        <v>2041.311279296875</v>
+        <v>2006.530883789062</v>
       </c>
       <c r="AT4" t="n">
-        <v>2047.460205078125</v>
+        <v>2023.08642578125</v>
       </c>
       <c r="AU4" t="n">
-        <v>2052.5029296875</v>
+        <v>2037.467041015625</v>
       </c>
       <c r="AV4" t="n">
-        <v>2058.607666015625</v>
+        <v>2049.469482421875</v>
       </c>
       <c r="AW4" t="n">
-        <v>2065.34130859375</v>
+        <v>2060.15869140625</v>
       </c>
       <c r="AX4" t="n">
-        <v>2074.167724609375</v>
+        <v>2077.723388671875</v>
       </c>
       <c r="AY4" t="n">
-        <v>2084.83203125</v>
+        <v>2097.004150390625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2092.9931640625</v>
+        <v>2121.56005859375</v>
       </c>
       <c r="BA4" t="n">
-        <v>2098.423095703125</v>
+        <v>2146.038818359375</v>
       </c>
       <c r="BB4" t="n">
-        <v>2101.6904296875</v>
+        <v>2160.590576171875</v>
       </c>
       <c r="BC4" t="n">
-        <v>2105.40625</v>
+        <v>2170.482421875</v>
       </c>
       <c r="BD4" t="n">
-        <v>2109.0146484375</v>
+        <v>2180.378662109375</v>
       </c>
       <c r="BE4" t="n">
-        <v>2111.45703125</v>
+        <v>2192.642822265625</v>
       </c>
       <c r="BF4" t="n">
-        <v>2114.416015625</v>
+        <v>2209.722900390625</v>
       </c>
       <c r="BG4" t="n">
-        <v>2118.668212890625</v>
+        <v>2222.77001953125</v>
       </c>
       <c r="BH4" t="n">
-        <v>2121.962890625</v>
+        <v>2230.587890625</v>
       </c>
       <c r="BI4" t="n">
-        <v>2124.931640625</v>
+        <v>2235.927978515625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2128.666748046875</v>
+        <v>2239.64453125</v>
       </c>
       <c r="BK4" t="n">
-        <v>2132.326171875</v>
+        <v>2242.531005859375</v>
       </c>
       <c r="BL4" t="n">
-        <v>2134.749755859375</v>
+        <v>2245.65283203125</v>
       </c>
       <c r="BM4" t="n">
-        <v>2136.270751953125</v>
+        <v>2248.575927734375</v>
       </c>
       <c r="BN4" t="n">
-        <v>2137.3251953125</v>
+        <v>2253.25830078125</v>
       </c>
       <c r="BO4" t="n">
-        <v>2137.996337890625</v>
+        <v>2257.753662109375</v>
       </c>
       <c r="BP4" t="n">
-        <v>2138.68408203125</v>
+        <v>2261.4580078125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2138.50048828125</v>
+        <v>2263.6904296875</v>
       </c>
       <c r="BR4" t="n">
-        <v>2138.25537109375</v>
+        <v>2265.6982421875</v>
       </c>
       <c r="BS4" t="n">
-        <v>2137.981201171875</v>
+        <v>2267.990234375</v>
       </c>
       <c r="BT4" t="n">
-        <v>2137.83447265625</v>
+        <v>2270.649658203125</v>
       </c>
       <c r="BU4" t="n">
-        <v>2137.563720703125</v>
+        <v>2272.54443359375</v>
       </c>
       <c r="BV4" t="n">
-        <v>2137.25732421875</v>
+        <v>2276.652099609375</v>
       </c>
       <c r="BW4" t="n">
-        <v>2136.968505859375</v>
+        <v>2279.096923828125</v>
       </c>
       <c r="BX4" t="n">
-        <v>2136.629150390625</v>
+        <v>2279.97216796875</v>
       </c>
       <c r="BY4" t="n">
-        <v>2136.207763671875</v>
+        <v>2280.78466796875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2135.733154296875</v>
+        <v>2280.783935546875</v>
       </c>
       <c r="CA4" t="n">
-        <v>2134.95263671875</v>
+        <v>2280.5849609375</v>
       </c>
       <c r="CB4" t="n">
-        <v>2134.4599609375</v>
+        <v>2280.15625</v>
       </c>
       <c r="CC4" t="n">
-        <v>2133.93408203125</v>
+        <v>2279.22119140625</v>
       </c>
       <c r="CD4" t="n">
-        <v>2133.445556640625</v>
+        <v>2276.035400390625</v>
       </c>
       <c r="CE4" t="n">
-        <v>2132.505615234375</v>
+        <v>2273.991455078125</v>
       </c>
       <c r="CF4" t="n">
-        <v>2131.514404296875</v>
+        <v>2270.359375</v>
       </c>
       <c r="CG4" t="n">
-        <v>2130.486083984375</v>
+        <v>2266.8564453125</v>
       </c>
       <c r="CH4" t="n">
-        <v>2129.53466796875</v>
+        <v>2262.1865234375</v>
       </c>
       <c r="CI4" t="n">
-        <v>2128.424560546875</v>
+        <v>2260.65234375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2127.310546875</v>
+        <v>2259.55908203125</v>
       </c>
       <c r="CK4" t="n">
-        <v>2126.797607421875</v>
+        <v>2259.050048828125</v>
       </c>
       <c r="CL4" t="n">
-        <v>2126.56591796875</v>
+        <v>2259.039794921875</v>
       </c>
       <c r="CM4" t="n">
-        <v>2126.45263671875</v>
+        <v>2259.05810546875</v>
       </c>
       <c r="CN4" t="n">
-        <v>2126.38427734375</v>
+        <v>2259.088623046875</v>
       </c>
       <c r="CO4" t="n">
-        <v>2126.339111328125</v>
+        <v>2259.09619140625</v>
       </c>
       <c r="CP4" t="n">
-        <v>2126.306884765625</v>
+        <v>2259.1396484375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2126.279296875</v>
+        <v>2259.17236328125</v>
       </c>
       <c r="CR4" t="n">
-        <v>2126.414306640625</v>
+        <v>2259.171630859375</v>
       </c>
       <c r="CS4" t="n">
-        <v>2128.9013671875</v>
+        <v>2259.19091796875</v>
       </c>
       <c r="CT4" t="n">
-        <v>2131.842041015625</v>
+        <v>2259.217529296875</v>
       </c>
       <c r="CU4" t="n">
-        <v>2133.098876953125</v>
+        <v>2259.489501953125</v>
       </c>
       <c r="CV4" t="n">
-        <v>2133.4951171875</v>
+        <v>2259.619140625</v>
       </c>
       <c r="CW4" t="n">
-        <v>2135.1923828125</v>
+        <v>2259.8779296875</v>
       </c>
       <c r="CX4" t="n">
-        <v>2136.60205078125</v>
+        <v>2260.003662109375</v>
       </c>
       <c r="CY4" t="n">
-        <v>2137.808349609375</v>
+        <v>2260.1708984375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2138.368408203125</v>
+        <v>2260.7216796875</v>
       </c>
       <c r="DA4" t="n">
-        <v>2138.56640625</v>
+        <v>2261.2021484375</v>
       </c>
       <c r="DB4" t="n">
-        <v>2138.617919921875</v>
+        <v>2262.18505859375</v>
       </c>
       <c r="DC4" t="n">
-        <v>2138.617919921875</v>
+        <v>2262.6728515625</v>
       </c>
       <c r="DD4" t="n">
-        <v>2138.609619140625</v>
+        <v>2263.7744140625</v>
       </c>
       <c r="DE4" t="n">
-        <v>2138.60009765625</v>
+        <v>2264.44287109375</v>
       </c>
       <c r="DF4" t="n">
-        <v>2138.59130859375</v>
+        <v>2265.677001953125</v>
       </c>
       <c r="DG4" t="n">
-        <v>2138.583984375</v>
+        <v>2267.842041015625</v>
       </c>
       <c r="DH4" t="n">
-        <v>2138.575927734375</v>
+        <v>2268.31298828125</v>
       </c>
       <c r="DI4" t="n">
-        <v>2138.5810546875</v>
+        <v>2269.29638671875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2138.580810546875</v>
+        <v>2269.753173828125</v>
       </c>
       <c r="DK4" t="n">
-        <v>2138.562255859375</v>
+        <v>2270.765625</v>
       </c>
       <c r="DL4" t="n">
-        <v>2134.093994140625</v>
+        <v>2270.9892578125</v>
       </c>
       <c r="DM4" t="n">
-        <v>2132.7060546875</v>
+        <v>2271.11376953125</v>
       </c>
       <c r="DN4" t="n">
-        <v>2130.6142578125</v>
+        <v>2271.137939453125</v>
       </c>
       <c r="DO4" t="n">
-        <v>2130.08251953125</v>
+        <v>2271.134521484375</v>
       </c>
       <c r="DP4" t="n">
-        <v>2129.72802734375</v>
+        <v>2271.130615234375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2129.4951171875</v>
+        <v>2271.129150390625</v>
       </c>
       <c r="DR4" t="n">
-        <v>2129.317626953125</v>
+        <v>2271.120361328125</v>
       </c>
       <c r="DS4" t="n">
-        <v>2129.201416015625</v>
+        <v>2271.109130859375</v>
       </c>
       <c r="DT4" t="n">
-        <v>2129.0166015625</v>
+        <v>2271.107666015625</v>
       </c>
       <c r="DU4" t="n">
-        <v>2128.9306640625</v>
+        <v>2271.106201171875</v>
       </c>
       <c r="DV4" t="n">
-        <v>2128.7685546875</v>
+        <v>2271.103515625</v>
       </c>
       <c r="DW4" t="n">
-        <v>2128.697021484375</v>
+        <v>2271.10595703125</v>
       </c>
       <c r="DX4" t="n">
-        <v>2128.574462890625</v>
+        <v>2271.106689453125</v>
       </c>
       <c r="DY4" t="n">
-        <v>2128.227294921875</v>
+        <v>2271.107177734375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2127.980224609375</v>
+        <v>2271.108642578125</v>
       </c>
       <c r="EA4" t="n">
-        <v>2127.57373046875</v>
+        <v>2271.1103515625</v>
       </c>
       <c r="EB4" t="n">
-        <v>2127.52587890625</v>
+        <v>2271.15234375</v>
       </c>
       <c r="EC4" t="n">
-        <v>2127.5126953125</v>
+        <v>2271.154296875</v>
       </c>
       <c r="ED4" t="n">
-        <v>2127.482666015625</v>
+        <v>2271.157470703125</v>
       </c>
       <c r="EE4" t="n">
-        <v>2127.464599609375</v>
+        <v>2271.343994140625</v>
       </c>
       <c r="EF4" t="n">
-        <v>2127.4228515625</v>
+        <v>2271.654541015625</v>
       </c>
       <c r="EG4" t="n">
-        <v>2127.405029296875</v>
+        <v>2272.121337890625</v>
       </c>
       <c r="EH4" t="n">
-        <v>2127.3896484375</v>
+        <v>2274.170654296875</v>
       </c>
       <c r="EI4" t="n">
-        <v>2127.359619140625</v>
+        <v>2276.35791015625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2127.35595703125</v>
+        <v>2278.83056640625</v>
       </c>
       <c r="EK4" t="n">
-        <v>2127.35986328125</v>
+        <v>2279.904296875</v>
       </c>
       <c r="EL4" t="n">
-        <v>2127.361572265625</v>
+        <v>2280.0224609375</v>
       </c>
       <c r="EM4" t="n">
-        <v>2127.37255859375</v>
+        <v>2279.904541015625</v>
       </c>
       <c r="EN4" t="n">
-        <v>2126.537353515625</v>
+        <v>2279.906982421875</v>
       </c>
       <c r="EO4" t="n">
-        <v>2124.679931640625</v>
+        <v>2279.873046875</v>
       </c>
       <c r="EP4" t="n">
-        <v>2124.844970703125</v>
+        <v>2279.83154296875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2126.52294921875</v>
+        <v>2279.807373046875</v>
       </c>
       <c r="ER4" t="n">
-        <v>2127.884765625</v>
+        <v>2279.7978515625</v>
       </c>
       <c r="ES4" t="n">
-        <v>2127.984130859375</v>
+        <v>2279.483642578125</v>
       </c>
       <c r="ET4" t="n">
-        <v>2127.843505859375</v>
+        <v>2275.797119140625</v>
       </c>
       <c r="EU4" t="n">
-        <v>2127.8173828125</v>
+        <v>2271.12646484375</v>
       </c>
       <c r="EV4" t="n">
-        <v>2127.795166015625</v>
+        <v>2270.79345703125</v>
       </c>
       <c r="EW4" t="n">
-        <v>2127.829833984375</v>
+        <v>2270.716796875</v>
       </c>
       <c r="EX4" t="n">
-        <v>2127.958740234375</v>
+        <v>2270.67724609375</v>
       </c>
       <c r="EY4" t="n">
-        <v>2128.506103515625</v>
+        <v>2270.755859375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2129.482421875</v>
+        <v>2270.8525390625</v>
       </c>
       <c r="FA4" t="n">
-        <v>2132.28369140625</v>
+        <v>2270.9716796875</v>
       </c>
       <c r="FB4" t="n">
-        <v>2133.37158203125</v>
+        <v>2271.1123046875</v>
       </c>
       <c r="FC4" t="n">
-        <v>2133.61865234375</v>
+        <v>2271.23828125</v>
       </c>
       <c r="FD4" t="n">
-        <v>2133.163330078125</v>
+        <v>2271.316162109375</v>
       </c>
       <c r="FE4" t="n">
-        <v>2132.78125</v>
+        <v>2271.482421875</v>
       </c>
       <c r="FF4" t="n">
-        <v>2132.195556640625</v>
+        <v>2271.748779296875</v>
       </c>
       <c r="FG4" t="n">
-        <v>2129.448974609375</v>
+        <v>2271.88623046875</v>
       </c>
       <c r="FH4" t="n">
-        <v>2127.990966796875</v>
+        <v>2274.91845703125</v>
       </c>
       <c r="FI4" t="n">
-        <v>2125.95166015625</v>
+        <v>2280.958740234375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2124.8037109375</v>
+        <v>2282.9111328125</v>
       </c>
       <c r="FK4" t="n">
-        <v>2124.45068359375</v>
+        <v>2284.138916015625</v>
       </c>
       <c r="FL4" t="n">
-        <v>2123.814453125</v>
+        <v>2284.433349609375</v>
       </c>
       <c r="FM4" t="n">
-        <v>2123.69189453125</v>
+        <v>2284.53125</v>
       </c>
       <c r="FN4" t="n">
-        <v>2123.244140625</v>
+        <v>2284.4970703125</v>
       </c>
       <c r="FO4" t="n">
-        <v>2123.017822265625</v>
+        <v>2284.555419921875</v>
       </c>
       <c r="FP4" t="n">
-        <v>2123.165771484375</v>
+        <v>2284.57666015625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2123.23779296875</v>
+        <v>2284.250732421875</v>
       </c>
       <c r="FR4" t="n">
-        <v>2123.494140625</v>
+        <v>2284.055419921875</v>
       </c>
       <c r="FS4" t="n">
-        <v>2123.717529296875</v>
+        <v>2283.82861328125</v>
       </c>
       <c r="FT4" t="n">
-        <v>2124.220703125</v>
+        <v>2283.47314453125</v>
       </c>
       <c r="FU4" t="n">
-        <v>2124.767822265625</v>
+        <v>2283.290283203125</v>
       </c>
       <c r="FV4" t="n">
-        <v>2125.055908203125</v>
+        <v>2282.90576171875</v>
       </c>
       <c r="FW4" t="n">
-        <v>2125.56787109375</v>
+        <v>2280.749267578125</v>
       </c>
       <c r="FX4" t="n">
-        <v>2125.899169921875</v>
+        <v>2278.169921875</v>
       </c>
       <c r="FY4" t="n">
-        <v>2124.8837890625</v>
+        <v>2276.04248046875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2123.85693359375</v>
+        <v>2274.925537109375</v>
       </c>
       <c r="GA4" t="n">
-        <v>2123.795166015625</v>
+        <v>2274.834716796875</v>
       </c>
       <c r="GB4" t="n">
-        <v>2124.080078125</v>
+        <v>2274.811767578125</v>
       </c>
       <c r="GC4" t="n">
-        <v>2124.876708984375</v>
+        <v>2274.832763671875</v>
       </c>
       <c r="GD4" t="n">
-        <v>2125.295654296875</v>
+        <v>2274.870849609375</v>
       </c>
       <c r="GE4" t="n">
-        <v>2125.771240234375</v>
+        <v>2274.892578125</v>
       </c>
       <c r="GF4" t="n">
-        <v>2125.73486328125</v>
+        <v>2275.328125</v>
       </c>
       <c r="GG4" t="n">
-        <v>2125.696044921875</v>
+        <v>2275.573974609375</v>
       </c>
       <c r="GH4" t="n">
-        <v>2125.646484375</v>
+        <v>2275.694091796875</v>
       </c>
       <c r="GI4" t="n">
-        <v>2125.635009765625</v>
+        <v>2275.824462890625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2125.6396484375</v>
+        <v>2276.364990234375</v>
       </c>
       <c r="GK4" t="n">
-        <v>2125.709716796875</v>
+        <v>2276.8076171875</v>
       </c>
       <c r="GL4" t="n">
-        <v>2126.517333984375</v>
+        <v>2278.02490234375</v>
       </c>
       <c r="GM4" t="n">
-        <v>2130.117431640625</v>
+        <v>2278.600341796875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2130.897216796875</v>
+        <v>2279.37744140625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2130.99267578125</v>
+        <v>2279.311767578125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2130.7236328125</v>
+        <v>2279.305419921875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2129.248779296875</v>
+        <v>2279.305908203125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2128.510009765625</v>
+        <v>2279.309326171875</v>
       </c>
       <c r="GS4" t="n">
-        <v>2127.080322265625</v>
+        <v>2279.341552734375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2125.25244140625</v>
+        <v>2281.740234375</v>
       </c>
       <c r="GU4" t="n">
-        <v>2124.326416015625</v>
+        <v>2286.563720703125</v>
       </c>
       <c r="GV4" t="n">
-        <v>2123.478515625</v>
+        <v>2287.64453125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2122.478759765625</v>
+        <v>2288.760498046875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2121.885498046875</v>
+        <v>2289.253662109375</v>
       </c>
       <c r="GY4" t="n">
-        <v>2121.83837890625</v>
+        <v>2289.303955078125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2121.839111328125</v>
+        <v>2289.228515625</v>
       </c>
       <c r="HA4" t="n">
-        <v>2121.846435546875</v>
+        <v>2289.1591796875</v>
       </c>
       <c r="HB4" t="n">
-        <v>2121.850341796875</v>
+        <v>2289.0302734375</v>
       </c>
       <c r="HC4" t="n">
-        <v>2121.853759765625</v>
+        <v>2288.94140625</v>
       </c>
       <c r="HD4" t="n">
-        <v>2121.855224609375</v>
+        <v>2288.924072265625</v>
       </c>
       <c r="HE4" t="n">
-        <v>2121.623291015625</v>
+        <v>2288.894775390625</v>
       </c>
       <c r="HF4" t="n">
-        <v>2121.51025390625</v>
+        <v>2288.882568359375</v>
       </c>
       <c r="HG4" t="n">
-        <v>2119.830322265625</v>
+        <v>2288.869384765625</v>
       </c>
       <c r="HH4" t="n">
-        <v>2118.91357421875</v>
+        <v>2288.85693359375</v>
       </c>
       <c r="HI4" t="n">
-        <v>2119.370849609375</v>
+        <v>2288.85205078125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2119.54541015625</v>
+        <v>2288.851318359375</v>
       </c>
       <c r="HK4" t="n">
-        <v>2119.7626953125</v>
+        <v>2289.07958984375</v>
       </c>
       <c r="HL4" t="n">
-        <v>2119.8076171875</v>
+        <v>2289.252685546875</v>
       </c>
       <c r="HM4" t="n">
-        <v>2119.81298828125</v>
+        <v>2289.339111328125</v>
       </c>
       <c r="HN4" t="n">
-        <v>2119.838623046875</v>
+        <v>2291.58447265625</v>
       </c>
       <c r="HO4" t="n">
-        <v>2119.920654296875</v>
+        <v>2296.502197265625</v>
       </c>
       <c r="HP4" t="n">
-        <v>2120.041015625</v>
+        <v>2297.035400390625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2120.19384765625</v>
+        <v>2297.730224609375</v>
       </c>
       <c r="HR4" t="n">
-        <v>2122.11279296875</v>
+        <v>2298.02001953125</v>
       </c>
       <c r="HS4" t="n">
-        <v>2125.22216796875</v>
+        <v>2297.66943359375</v>
       </c>
       <c r="HT4" t="n">
-        <v>2126.879638671875</v>
+        <v>2297.658203125</v>
       </c>
       <c r="HU4" t="n">
-        <v>2126.447021484375</v>
+        <v>2297.69482421875</v>
       </c>
       <c r="HV4" t="n">
-        <v>2126.054931640625</v>
+        <v>2298.279052734375</v>
       </c>
       <c r="HW4" t="n">
-        <v>2125.8203125</v>
+        <v>2298.761474609375</v>
       </c>
       <c r="HX4" t="n">
-        <v>2125.7509765625</v>
+        <v>2298.70458984375</v>
       </c>
       <c r="HY4" t="n">
-        <v>2125.65478515625</v>
+        <v>2298.670654296875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2125.51611328125</v>
+        <v>2298.53466796875</v>
       </c>
       <c r="IA4" t="n">
-        <v>2125.32666015625</v>
+        <v>2298.432373046875</v>
       </c>
       <c r="IB4" t="n">
-        <v>2125.22900390625</v>
+        <v>2296.997314453125</v>
       </c>
       <c r="IC4" t="n">
-        <v>2124.6767578125</v>
+        <v>2296.26806640625</v>
       </c>
       <c r="ID4" t="n">
-        <v>2123.82470703125</v>
+        <v>2296.322998046875</v>
       </c>
       <c r="IE4" t="n">
-        <v>2122.9970703125</v>
+        <v>2295.453369140625</v>
       </c>
       <c r="IF4" t="n">
-        <v>2122.37353515625</v>
+        <v>2294.480712890625</v>
       </c>
       <c r="IG4" t="n">
-        <v>2122.1572265625</v>
+        <v>2293.1845703125</v>
       </c>
       <c r="IH4" t="n">
-        <v>2122.110595703125</v>
+        <v>2291.1201171875</v>
       </c>
       <c r="II4" t="n">
-        <v>2122.076416015625</v>
+        <v>2289.9443359375</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2122.065673828125</v>
+        <v>2289.906494140625</v>
       </c>
       <c r="IK4" t="n">
-        <v>2122.057373046875</v>
+        <v>2292.262451171875</v>
       </c>
       <c r="IL4" t="n">
-        <v>2122.052978515625</v>
+        <v>2294.901123046875</v>
       </c>
       <c r="IM4" t="n">
-        <v>2119.923095703125</v>
+        <v>2295.56591796875</v>
       </c>
       <c r="IN4" t="n">
-        <v>2116.738037109375</v>
+        <v>2296.3115234375</v>
       </c>
       <c r="IO4" t="n">
-        <v>2115.861328125</v>
+        <v>2294.24365234375</v>
       </c>
       <c r="IP4" t="n">
-        <v>2115.839599609375</v>
+        <v>2293.79541015625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2116.07958984375</v>
+        <v>2293.77734375</v>
       </c>
       <c r="IR4" t="n">
-        <v>2116.461181640625</v>
+        <v>2293.748046875</v>
       </c>
       <c r="IS4" t="n">
-        <v>2116.89892578125</v>
+        <v>2293.5771484375</v>
       </c>
       <c r="IT4" t="n">
-        <v>2117.502197265625</v>
+        <v>2293.02783203125</v>
       </c>
       <c r="IU4" t="n">
-        <v>2118.048828125</v>
+        <v>2289.29052734375</v>
       </c>
       <c r="IV4" t="n">
-        <v>2118.736328125</v>
+        <v>2282.935546875</v>
       </c>
       <c r="IW4" t="n">
-        <v>2120.145751953125</v>
+        <v>2277.41064453125</v>
       </c>
       <c r="IX4" t="n">
-        <v>2122.54638671875</v>
+        <v>2275.697021484375</v>
       </c>
       <c r="IY4" t="n">
-        <v>2123.373291015625</v>
+        <v>2275.237548828125</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2123.06689453125</v>
+        <v>2275.060302734375</v>
       </c>
       <c r="JA4" t="n">
-        <v>2122.718017578125</v>
+        <v>2275.014892578125</v>
       </c>
       <c r="JB4" t="n">
-        <v>2122.065185546875</v>
+        <v>2275.012451171875</v>
       </c>
       <c r="JC4" t="n">
-        <v>2119.291259765625</v>
+        <v>2275.01171875</v>
       </c>
       <c r="JD4" t="n">
-        <v>2112.658447265625</v>
+        <v>2274.74365234375</v>
       </c>
       <c r="JE4" t="n">
-        <v>2108.60498046875</v>
+        <v>2274.765625</v>
       </c>
       <c r="JF4" t="n">
-        <v>2107.1806640625</v>
+        <v>2275.72607421875</v>
       </c>
       <c r="JG4" t="n">
-        <v>2107.099365234375</v>
+        <v>2278.464111328125</v>
       </c>
       <c r="JH4" t="n">
-        <v>2107.118896484375</v>
+        <v>2281.185546875</v>
       </c>
       <c r="JI4" t="n">
-        <v>2107.18505859375</v>
+        <v>2283.947021484375</v>
       </c>
       <c r="JJ4" t="n">
-        <v>2107.29345703125</v>
+        <v>2287.031005859375</v>
       </c>
       <c r="JK4" t="n">
-        <v>2107.421630859375</v>
+        <v>2284.593017578125</v>
       </c>
       <c r="JL4" t="n">
-        <v>2107.51318359375</v>
+        <v>2284.7373046875</v>
       </c>
       <c r="JM4" t="n">
-        <v>2107.603271484375</v>
+        <v>2284.77734375</v>
       </c>
       <c r="JN4" t="n">
-        <v>2107.65966796875</v>
+        <v>2283.36865234375</v>
       </c>
       <c r="JO4" t="n">
-        <v>2107.708251953125</v>
+        <v>2281.801025390625</v>
       </c>
       <c r="JP4" t="n">
-        <v>2107.74560546875</v>
+        <v>2276.072021484375</v>
       </c>
       <c r="JQ4" t="n">
-        <v>2107.515625</v>
+        <v>2269.456298828125</v>
       </c>
       <c r="JR4" t="n">
-        <v>2105.943359375</v>
+        <v>2267.320068359375</v>
       </c>
       <c r="JS4" t="n">
-        <v>2105.857177734375</v>
+        <v>2267.406494140625</v>
       </c>
       <c r="JT4" t="n">
-        <v>2106.270263671875</v>
+        <v>2267.637451171875</v>
       </c>
       <c r="JU4" t="n">
-        <v>2106.362548828125</v>
+        <v>2268.283935546875</v>
       </c>
       <c r="JV4" t="n">
-        <v>2106.481201171875</v>
+        <v>2269.399658203125</v>
       </c>
       <c r="JW4" t="n">
-        <v>2103.181884765625</v>
+        <v>2270.24072265625</v>
       </c>
       <c r="JX4" t="n">
-        <v>2093.836181640625</v>
+        <v>2270.837158203125</v>
       </c>
       <c r="JY4" t="n">
-        <v>2084.587890625</v>
+        <v>2270.96533203125</v>
       </c>
       <c r="JZ4" t="n">
-        <v>2076.056640625</v>
+        <v>2271.04248046875</v>
       </c>
       <c r="KA4" t="n">
-        <v>2065.0146484375</v>
+        <v>2267.8623046875</v>
       </c>
       <c r="KB4" t="n">
-        <v>2059.181640625</v>
+        <v>2262.579833984375</v>
       </c>
       <c r="KC4" t="n">
-        <v>2052.238037109375</v>
+        <v>2260.92333984375</v>
       </c>
       <c r="KD4" t="n">
-        <v>2040.61767578125</v>
+        <v>2260.6953125</v>
       </c>
       <c r="KE4" t="n">
-        <v>2036.143432617188</v>
+        <v>2259.865234375</v>
       </c>
       <c r="KF4" t="n">
-        <v>2028.06591796875</v>
+        <v>2259.141845703125</v>
       </c>
       <c r="KG4" t="n">
-        <v>2011.20849609375</v>
+        <v>2258.68359375</v>
       </c>
       <c r="KH4" t="n">
-        <v>1988.56689453125</v>
+        <v>2258.614990234375</v>
       </c>
       <c r="KI4" t="n">
-        <v>1962.802612304688</v>
+        <v>2258.4453125</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1924.552490234375</v>
+        <v>2257.968505859375</v>
       </c>
       <c r="KK4" t="n">
-        <v>1869.531005859375</v>
+        <v>2257.132080078125</v>
       </c>
       <c r="KL4" t="n">
-        <v>1817.862548828125</v>
+        <v>2256.46240234375</v>
       </c>
       <c r="KM4" t="n">
-        <v>1763.359497070312</v>
+        <v>2256.560302734375</v>
       </c>
       <c r="KN4" t="n">
-        <v>1696.712280273438</v>
+        <v>2256.683349609375</v>
       </c>
       <c r="KO4" t="n">
-        <v>1620.373901367188</v>
+        <v>2257.547119140625</v>
       </c>
       <c r="KP4" t="n">
-        <v>1561.914916992188</v>
+        <v>2245.10888671875</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1508.70458984375</v>
+        <v>2227.2001953125</v>
       </c>
       <c r="KR4" t="n">
-        <v>1458.268798828125</v>
+        <v>2169.973876953125</v>
       </c>
       <c r="KS4" t="n">
-        <v>1381.383911132812</v>
+        <v>2098.98095703125</v>
       </c>
       <c r="KT4" t="n">
-        <v>1318.635131835938</v>
+        <v>2044.16845703125</v>
       </c>
       <c r="KU4" t="n">
-        <v>1216.312133789062</v>
+        <v>1999.121704101562</v>
       </c>
       <c r="KV4" t="n">
-        <v>1146.885864257812</v>
+        <v>1878.167114257812</v>
       </c>
       <c r="KW4" t="n">
-        <v>1075.818115234375</v>
+        <v>1806.590209960938</v>
       </c>
       <c r="KX4" t="n">
-        <v>980.3291015625</v>
+        <v>1685.941650390625</v>
       </c>
       <c r="KY4" t="n">
-        <v>925.0206909179688</v>
+        <v>1616.583374023438</v>
       </c>
       <c r="KZ4" t="n">
-        <v>880.6959228515625</v>
+        <v>1523.015380859375</v>
       </c>
       <c r="LA4" t="n">
-        <v>831.75244140625</v>
+        <v>1423.6083984375</v>
       </c>
       <c r="LB4" t="n">
-        <v>807.261962890625</v>
+        <v>1316.344116210938</v>
       </c>
       <c r="LC4" t="n">
-        <v>788.9198608398438</v>
+        <v>1202.23974609375</v>
       </c>
       <c r="LD4" t="n">
-        <v>770.171630859375</v>
+        <v>1086.83642578125</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>983.6475219726562</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>892.2661743164062</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>833.4193725585938</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>746.8489379882812</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>672.4779052734375</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>585.3695068359375</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>542.058837890625</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>497.7784729003906</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>459.3753051757812</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>430.5617980957031</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>411.3848571777344</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>394.8437805175781</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>381.7621459960938</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>372.1575317382812</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>367.3554992675781</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>364.8876953125</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>363.2308349609375</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>363.4822998046875</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>363.0877685546875</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>361.6058959960938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>359.4349975585938</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>357.276123046875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>355.8579711914062</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>354.9871215820312</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>354.2249755859375</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>353.9189147949219</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>353.7671203613281</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>353.7064514160156</v>
       </c>
     </row>
   </sheetData>
